--- a/AAII_Financials/Quarterly/WWW_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WWW_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="92">
   <si>
     <t>WWW</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,205 +665,230 @@
     <col min="1" max="1" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43918</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43827</v>
+      </c>
+      <c r="F7" s="2">
         <v>43736</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43645</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43554</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43463</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43372</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43099</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42917</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42826</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42623</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>439300</v>
+      </c>
+      <c r="E8" s="3">
+        <v>607400</v>
+      </c>
+      <c r="F8" s="3">
         <v>574300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>568600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>523400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>579600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>558600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>566900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>534100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>578600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>581300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>598800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>591300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>729600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>603700</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>257500</v>
+      </c>
+      <c r="E9" s="3">
+        <v>377500</v>
+      </c>
+      <c r="F9" s="3">
         <v>331000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>338200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>303200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>352500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>326500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>332700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>306200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>355800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>349400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>369400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>352000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>458300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>366100</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>181800</v>
+      </c>
+      <c r="E10" s="3">
+        <v>229900</v>
+      </c>
+      <c r="F10" s="3">
         <v>243300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>230400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>220200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>227100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>232100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>234200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>227900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>222800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>231900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>229400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>239300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>271300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>237600</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -880,8 +905,10 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -924,8 +951,14 @@
       <c r="P12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -968,52 +1001,64 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>8</v>
+      <c r="E14" s="3">
+        <v>0</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I14" s="3">
         <v>600</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
       <c r="J14" s="3">
         <v>0</v>
       </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>76600</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>24200</v>
       </c>
-      <c r="M14" s="3">
+      <c r="O14" s="3">
         <v>25100</v>
       </c>
-      <c r="N14" s="3">
+      <c r="P14" s="3">
         <v>24600</v>
       </c>
-      <c r="O14" s="3">
+      <c r="Q14" s="3">
         <v>50300</v>
       </c>
-      <c r="P14" s="3">
+      <c r="R14" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1056,8 +1101,14 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1071,96 +1122,110 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>422400</v>
+      </c>
+      <c r="E17" s="3">
+        <v>612600</v>
+      </c>
+      <c r="F17" s="3">
         <v>506000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>513100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>471000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>526300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>490200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>498800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>472600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>644100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>546000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>569600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>558700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>732100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>535200</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>16900</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="F18" s="3">
         <v>68300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>55500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>52400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>53300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>68400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>68100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>61500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-65500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>35300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>29200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>32600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-2500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>68500</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1177,96 +1242,110 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-7200</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="F20" s="3">
         <v>-7300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>-5700</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-5600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-12400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>-4500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-6600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-15400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-8200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-7200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-11400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-5400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-8600</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>17500</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="F21" s="3">
         <v>69300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>57600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>54000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>49800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>71400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>75000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>62700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-71700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>36900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>31000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>30400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>5600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>69600</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1309,96 +1388,114 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>9700</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-11700</v>
+      </c>
+      <c r="F23" s="3">
         <v>61000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>49800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>46800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>40900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>63900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>67700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>54900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-80900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>27100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>22000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>21200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-7900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>59900</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="E24" s="3">
+        <v>-11200</v>
+      </c>
+      <c r="F24" s="3">
         <v>12400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>9600</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>6200</v>
       </c>
-      <c r="G24" s="3">
-        <v>1700</v>
-      </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
+        <v>1600</v>
+      </c>
+      <c r="J24" s="3">
         <v>5000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>12200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>8300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>-25700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>4300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>1500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>4400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>-5500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>11700</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1441,96 +1538,114 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>12800</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F26" s="3">
         <v>48600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>40200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>40600</v>
       </c>
-      <c r="G26" s="3">
-        <v>39200</v>
-      </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
+        <v>39300</v>
+      </c>
+      <c r="J26" s="3">
         <v>58900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>55500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>46600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-55200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>22800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>20500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>16800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-2400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>48200</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>12800</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-900</v>
+      </c>
+      <c r="F27" s="3">
         <v>47700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>39400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>39700</v>
       </c>
-      <c r="G27" s="3">
-        <v>35100</v>
-      </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
+        <v>42700</v>
+      </c>
+      <c r="J27" s="3">
         <v>57600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>54100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>45800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-53400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>22700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>20200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>16300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-2100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>47200</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1573,8 +1688,14 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1587,26 +1708,26 @@
       <c r="F29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G29" s="3">
-        <v>100</v>
+      <c r="G29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I29" s="3" t="s">
-        <v>8</v>
+      <c r="I29" s="3">
+        <v>100</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K29" s="3">
-        <v>-5600</v>
+      <c r="K29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>8</v>
+      <c r="M29" s="3">
+        <v>-5600</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>8</v>
@@ -1617,8 +1738,14 @@
       <c r="P29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1661,8 +1788,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1705,96 +1838,114 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>7200</v>
+      </c>
+      <c r="E32" s="3">
+        <v>6500</v>
+      </c>
+      <c r="F32" s="3">
         <v>7300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>5700</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>5600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>12400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>4500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>6600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>15400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>8200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>7200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>11400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>5400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>8600</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>12800</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-900</v>
+      </c>
+      <c r="F33" s="3">
         <v>47700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>39400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>39700</v>
       </c>
-      <c r="G33" s="3">
-        <v>35200</v>
-      </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
+        <v>42800</v>
+      </c>
+      <c r="J33" s="3">
         <v>57600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>54100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>45800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-59000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>22700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>20200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>16300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-2100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>47200</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1837,101 +1988,119 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>12800</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-900</v>
+      </c>
+      <c r="F35" s="3">
         <v>47700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>39400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>39700</v>
       </c>
-      <c r="G35" s="3">
-        <v>35200</v>
-      </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
+        <v>42800</v>
+      </c>
+      <c r="J35" s="3">
         <v>57600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>54100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>45800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-59000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>22700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>20200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>16300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-2100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>47200</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43918</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43827</v>
+      </c>
+      <c r="F38" s="2">
         <v>43736</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43645</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43554</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43463</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43372</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43099</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42917</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42826</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42623</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1948,8 +2117,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1966,52 +2137,60 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>472600</v>
+      </c>
+      <c r="E41" s="3">
+        <v>180600</v>
+      </c>
+      <c r="F41" s="3">
         <v>125200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>116500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>80600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>143100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>228100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>354900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>257100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>481000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>342700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>412800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>304100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>369800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>530900</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2054,184 +2233,214 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>323400</v>
+      </c>
+      <c r="E43" s="3">
+        <v>331200</v>
+      </c>
+      <c r="F43" s="3">
         <v>357300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>363700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>375500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>361200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>364000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>297200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>295300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>271300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>294500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>287100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>287700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>263300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>309500</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>405300</v>
+      </c>
+      <c r="E44" s="3">
+        <v>348200</v>
+      </c>
+      <c r="F44" s="3">
         <v>417700</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>406500</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>374000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>317600</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>324400</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>293800</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>290500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>276700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>338800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>333700</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>356500</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>348700</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>457600</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>50400</v>
+      </c>
+      <c r="E45" s="3">
+        <v>107100</v>
+      </c>
+      <c r="F45" s="3">
         <v>48400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>42600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>45400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>45800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>32200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>36300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>37500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>45300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>44000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>58900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>39500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>49600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>42600</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1251700</v>
+      </c>
+      <c r="E46" s="3">
+        <v>967100</v>
+      </c>
+      <c r="F46" s="3">
         <v>948600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>929300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>875500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>867700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>948700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>982200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>880400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>1074300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>1020000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>1092500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>987800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>1031400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>1340600</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2274,96 +2483,114 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>296600</v>
+      </c>
+      <c r="E48" s="3">
+        <v>301800</v>
+      </c>
+      <c r="F48" s="3">
         <v>306900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>296000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>290200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>130900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>131400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>130400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>133700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>136700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>142200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>150100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>145100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>146100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>148800</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1115400</v>
+      </c>
+      <c r="E49" s="3">
+        <v>1121200</v>
+      </c>
+      <c r="F49" s="3">
         <v>1121100</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>1125000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>1101100</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>1100800</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>1105100</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>1105700</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>1109400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>1111300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>1181500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>1186400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>1185000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>1186600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>1202300</v>
       </c>
     </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2406,8 +2633,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2450,52 +2683,64 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>90000</v>
+      </c>
+      <c r="E52" s="3">
+        <v>89900</v>
+      </c>
+      <c r="F52" s="3">
         <v>91900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>92600</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>84500</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>83700</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>83900</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>82000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>80500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>76700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>75000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>71000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>69900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>67600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>67300</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2538,52 +2783,64 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2753700</v>
+      </c>
+      <c r="E54" s="3">
+        <v>2480000</v>
+      </c>
+      <c r="F54" s="3">
         <v>2468500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>2442900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>2351300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>2183100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>2269100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>2300300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>2204000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>2399000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>2418700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>2500000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>2387800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>2431700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>2759000</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2600,8 +2857,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2618,272 +2877,310 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>137600</v>
+      </c>
+      <c r="E57" s="3">
+        <v>202100</v>
+      </c>
+      <c r="F57" s="3">
         <v>155600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>212700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>112600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>202300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>139500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>174300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>97200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>162300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>141700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>207600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>113800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>150800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>168000</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>802500</v>
+      </c>
+      <c r="E58" s="3">
+        <v>372500</v>
+      </c>
+      <c r="F58" s="3">
         <v>503300</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>378000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>336000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>132500</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>61500</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>46300</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>42000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>38000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>52500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>46600</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>43600</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>40400</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>394700</v>
       </c>
     </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>179600</v>
+      </c>
+      <c r="E59" s="3">
+        <v>212800</v>
+      </c>
+      <c r="F59" s="3">
         <v>175000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>154200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>143500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>138300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>156600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>150400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>137500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>162000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>136300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>135100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>122700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>142500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>162100</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1119700</v>
+      </c>
+      <c r="E60" s="3">
+        <v>787400</v>
+      </c>
+      <c r="F60" s="3">
         <v>833900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>744900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>592100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>473100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>357600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>371000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>276700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>362300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>330500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>389300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>280100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>333700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>724800</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>423600</v>
+      </c>
+      <c r="E61" s="3">
+        <v>425900</v>
+      </c>
+      <c r="F61" s="3">
         <v>430700</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>433000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>435300</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>438000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>601000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>615600</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>630300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>744600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>744200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>758700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>769500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>780300</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>657700</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>474500</v>
+      </c>
+      <c r="E62" s="3">
+        <v>488300</v>
+      </c>
+      <c r="F62" s="3">
         <v>410000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>409800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>406600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>280400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>248200</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>298400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>339700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>336900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>333900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>343500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>342700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>343600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>335800</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2926,8 +3223,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2970,8 +3273,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3014,52 +3323,64 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2028100</v>
+      </c>
+      <c r="E66" s="3">
+        <v>1713300</v>
+      </c>
+      <c r="F66" s="3">
         <v>1685600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>1599200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>1439900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>1197100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>1212800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>1290700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>1252500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>1449400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>1417000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>1500300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>1400300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>1465200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>1726800</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3076,8 +3397,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3120,8 +3443,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3164,8 +3493,14 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3208,8 +3543,14 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3252,52 +3593,64 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>1268100</v>
+      </c>
+      <c r="E72" s="3">
+        <v>1263300</v>
+      </c>
+      <c r="F72" s="3">
         <v>1273200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>1232800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>1201200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>1169700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>1138300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>1087100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>1039400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>992200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>1058400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>1040900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>1026000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>1015100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>1022800</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3340,8 +3693,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3384,8 +3743,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3428,52 +3793,64 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>725600</v>
+      </c>
+      <c r="E76" s="3">
+        <v>766700</v>
+      </c>
+      <c r="F76" s="3">
         <v>782900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>843700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>911400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>986000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>1056300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>1009600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>951500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>949600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>1001700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>999700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>987500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>966500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>1032200</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3516,101 +3893,119 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43918</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43827</v>
+      </c>
+      <c r="F80" s="2">
         <v>43736</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43645</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43554</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43463</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43372</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43099</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42917</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42826</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42623</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>12800</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-900</v>
+      </c>
+      <c r="F81" s="3">
         <v>47700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>39400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>39700</v>
       </c>
-      <c r="G81" s="3">
-        <v>35200</v>
-      </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
+        <v>42800</v>
+      </c>
+      <c r="J81" s="3">
         <v>57600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>54100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>45800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-59000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>22700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>20200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>16300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-2100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>47200</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3627,52 +4022,60 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>7800</v>
+      </c>
+      <c r="E83" s="3">
+        <v>9400</v>
+      </c>
+      <c r="F83" s="3">
         <v>8300</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>7800</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>7200</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>8900</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>7500</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>7300</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>7800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>9200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>9800</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>9000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>9200</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>13500</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>9700</v>
       </c>
     </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3715,8 +4118,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3759,8 +4168,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3803,8 +4218,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3847,8 +4268,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3891,52 +4318,64 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-76600</v>
+      </c>
+      <c r="E89" s="3">
+        <v>206600</v>
+      </c>
+      <c r="F89" s="3">
         <v>12100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>136300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-132400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>131500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-99100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>126400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-61300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>153200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-58100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>138400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-30800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>153100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>70400</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3953,52 +4392,60 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="F91" s="3">
         <v>-10400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-10500</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-7800</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-6400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-7000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-4900</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-3400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-3700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-8900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-8700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-11100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-20900</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-6200</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4041,8 +4488,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4085,52 +4538,64 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-9300</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-8100</v>
+      </c>
+      <c r="F94" s="3">
         <v>-11000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-34500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-7900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-7400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-7400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-3300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-4100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-6200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>28200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-11200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-11800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-13900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4147,40 +4612,42 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-9000</v>
+      </c>
+      <c r="E96" s="3">
+        <v>-8200</v>
+      </c>
+      <c r="F96" s="3">
         <v>-8600</v>
       </c>
-      <c r="E96" s="3">
+      <c r="G96" s="3">
         <v>-8900</v>
       </c>
-      <c r="F96" s="3">
+      <c r="H96" s="3">
         <v>-7900</v>
-      </c>
-      <c r="G96" s="3">
-        <v>-7600</v>
-      </c>
-      <c r="H96" s="3">
-        <v>-7600</v>
       </c>
       <c r="I96" s="3">
         <v>-7600</v>
       </c>
       <c r="J96" s="3">
-        <v>-5800</v>
+        <v>-7600</v>
       </c>
       <c r="K96" s="3">
-        <v>-5600</v>
+        <v>-7600</v>
       </c>
       <c r="L96" s="3">
         <v>-5800</v>
       </c>
       <c r="M96" s="3">
-        <v>-5800</v>
+        <v>-5600</v>
       </c>
       <c r="N96" s="3">
         <v>-5800</v>
@@ -4189,10 +4656,16 @@
         <v>-5800</v>
       </c>
       <c r="P96" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="Q96" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="R96" s="3">
         <v>-5900</v>
       </c>
     </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4235,8 +4708,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4279,8 +4758,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4323,136 +4808,160 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>379300</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-144000</v>
+      </c>
+      <c r="F100" s="3">
         <v>8400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-66500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>77500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-207100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-20700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-17600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-159100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-10600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-41700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-21900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-23800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-296000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>237800</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E101" s="3">
+        <v>900</v>
+      </c>
+      <c r="F101" s="3">
         <v>-800</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>600</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>300</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>-2000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>400</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>-7700</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>600</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>1900</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>1500</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>3400</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>700</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>-4300</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>292000</v>
+      </c>
+      <c r="E102" s="3">
+        <v>55400</v>
+      </c>
+      <c r="F102" s="3">
         <v>8700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>35900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-62500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-85000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-126800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>97800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-223900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>138300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-70100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>108700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-65700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-161100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>309200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/WWW_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WWW_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="92">
   <si>
     <t>WWW</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,230 +665,243 @@
     <col min="1" max="1" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44009</v>
+      </c>
+      <c r="E7" s="2">
         <v>43918</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43827</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43736</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43645</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43554</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43463</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43372</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43099</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42917</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42826</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42623</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>349100</v>
+      </c>
+      <c r="E8" s="3">
         <v>439300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>607400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>574300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>568600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>523400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>579600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>558600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>566900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>534100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>578600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>581300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>598800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>591300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>729600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>603700</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>201900</v>
+      </c>
+      <c r="E9" s="3">
         <v>257500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>377500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>331000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>338200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>303200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>352500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>326500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>332700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>306200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>355800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>349400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>369400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>352000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>458300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>366100</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>147200</v>
+      </c>
+      <c r="E10" s="3">
         <v>181800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>229900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>243300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>230400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>220200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>227100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>232100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>234200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>227900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>222800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>231900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>229400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>239300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>271300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>237600</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -907,8 +920,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -957,8 +971,11 @@
       <c r="R12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1007,19 +1024,22 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="3">
+        <v>200</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>8</v>
+      <c r="F14" s="3">
+        <v>0</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>8</v>
@@ -1027,12 +1047,12 @@
       <c r="H14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J14" s="3">
         <v>600</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
       <c r="K14" s="3">
         <v>0</v>
       </c>
@@ -1040,25 +1060,28 @@
         <v>0</v>
       </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>76600</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>24200</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>25100</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>24600</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>50300</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1107,8 +1130,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1124,108 +1150,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>341800</v>
+      </c>
+      <c r="E17" s="3">
         <v>422400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>612600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>506000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>513100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>471000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>526300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>490200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>498800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>472600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>644100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>546000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>569600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>558700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>732100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>535200</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>7300</v>
+      </c>
+      <c r="E18" s="3">
         <v>16900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-5200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>68300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>55500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>52400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>53300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>68400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>68100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>61500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-65500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>35300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>29200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>32600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-2500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>68500</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1244,108 +1277,115 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-8800</v>
+      </c>
+      <c r="E20" s="3">
         <v>-7200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-6500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-7300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-5700</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-5600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-12400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-4500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-6600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-15400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-8200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-7200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-11400</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-5400</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-8600</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>6100</v>
+      </c>
+      <c r="E21" s="3">
         <v>17500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-2300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>69300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>57600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>54000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>49800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>71400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>75000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>62700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-71700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>36900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>31000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>30400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>5600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>69600</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1394,108 +1434,117 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E23" s="3">
         <v>9700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-11700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>61000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>49800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>46800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>40900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>63900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>67700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>54900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-80900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>27100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>22000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>21200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-7900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>59900</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>400</v>
+      </c>
+      <c r="E24" s="3">
         <v>-3100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-11200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>12400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>9600</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>6200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>1600</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>5000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>12200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>8300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-25700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>4300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>1500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>4400</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-5500</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>11700</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1544,108 +1593,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E26" s="3">
         <v>12800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>48600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>40200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>40600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>39300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>58900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>55500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>46600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-55200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>22800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>20500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>16800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-2400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>48200</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E27" s="3">
         <v>12800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>47700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>39400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>39700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>42700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>57600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>54100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>45800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-53400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>22700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>20200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>16300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-2100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>47200</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1694,8 +1752,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1714,11 +1775,11 @@
       <c r="H29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I29" s="3">
+      <c r="I29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J29" s="3">
         <v>100</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>8</v>
@@ -1726,11 +1787,11 @@
       <c r="L29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="3">
+      <c r="M29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N29" s="3">
         <v>-5600</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>8</v>
@@ -1744,8 +1805,11 @@
       <c r="R29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1794,8 +1858,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1844,108 +1911,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>8800</v>
+      </c>
+      <c r="E32" s="3">
         <v>7200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>6500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>7300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>5700</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>5600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>12400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>4500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>6600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>15400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>8200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>7200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>11400</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>5400</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>8600</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E33" s="3">
         <v>12800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>47700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>39400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>39700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>42800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>57600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>54100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>45800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-59000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>22700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>20200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>16300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-2100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>47200</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1994,113 +2070,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E35" s="3">
         <v>12800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>47700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>39400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>39700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>42800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>57600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>54100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>45800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-59000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>22700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>20200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>16300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-2100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>47200</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44009</v>
+      </c>
+      <c r="E38" s="2">
         <v>43918</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43827</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43736</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43645</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43554</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43463</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43372</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43099</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42917</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42826</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42623</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2119,8 +2204,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2139,58 +2225,62 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>422600</v>
+      </c>
+      <c r="E41" s="3">
         <v>472600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>180600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>125200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>116500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>80600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>143100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>228100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>354900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>257100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>481000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>342700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>412800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>304100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>369800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>530900</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2239,208 +2329,223 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>263800</v>
+      </c>
+      <c r="E43" s="3">
         <v>323400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>331200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>357300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>363700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>375500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>361200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>364000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>297200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>295300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>271300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>294500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>287100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>287700</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>263300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>309500</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>386500</v>
+      </c>
+      <c r="E44" s="3">
         <v>405300</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>348200</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>417700</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>406500</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>374000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>317600</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>324400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>293800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>290500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>276700</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>338800</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>333700</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>356500</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>348700</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>457600</v>
       </c>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>45700</v>
+      </c>
+      <c r="E45" s="3">
         <v>50400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>107100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>48400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>42600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>45400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>45800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>32200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>36300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>37500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>45300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>44000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>58900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>39500</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>49600</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>42600</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1118600</v>
+      </c>
+      <c r="E46" s="3">
         <v>1251700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>967100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>948600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>929300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>875500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>867700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>948700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>982200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>880400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1074300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1020000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1092500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>987800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1031400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1340600</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2489,108 +2594,117 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>287300</v>
+      </c>
+      <c r="E48" s="3">
         <v>296600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>301800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>306900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>296000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>290200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>130900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>131400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>130400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>133700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>136700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>142200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>150100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>145100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>146100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>148800</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1115200</v>
+      </c>
+      <c r="E49" s="3">
         <v>1115400</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1121200</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1121100</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1125000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>1101100</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>1100800</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>1105100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1105700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1109400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1111300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1181500</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1186400</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1185000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1186600</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>1202300</v>
       </c>
     </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2639,8 +2753,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2689,58 +2806,64 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>68300</v>
+      </c>
+      <c r="E52" s="3">
         <v>90000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>89900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>91900</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>92600</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>84500</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>83700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>83900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>82000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>80500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>76700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>75000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>71000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>69900</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>67600</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>67300</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2789,58 +2912,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2589400</v>
+      </c>
+      <c r="E54" s="3">
         <v>2753700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2480000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2468500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2442900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2351300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>2183100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>2269100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2300300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2204000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2399000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2418700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2500000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>2387800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>2431700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>2759000</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2859,8 +2988,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2879,308 +3009,327 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>154900</v>
+      </c>
+      <c r="E57" s="3">
         <v>137600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>202100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>155600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>212700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>112600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>202300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>139500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>174300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>97200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>162300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>141700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>207600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>113800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>150800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>168000</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>308500</v>
+      </c>
+      <c r="E58" s="3">
         <v>802500</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>372500</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>503300</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>378000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>336000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>132500</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>61500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>46300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>42000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>38000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>52500</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>46600</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>43600</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>40400</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>394700</v>
       </c>
     </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>213000</v>
+      </c>
+      <c r="E59" s="3">
         <v>179600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>212800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>175000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>154200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>143500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>138300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>156600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>150400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>137500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>162000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>136300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>135100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>122700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>142500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>162100</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>676400</v>
+      </c>
+      <c r="E60" s="3">
         <v>1119700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>787400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>833900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>744900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>592100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>473100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>357600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>371000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>276700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>362300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>330500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>389300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>280100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>333700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>724800</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>715900</v>
+      </c>
+      <c r="E61" s="3">
         <v>423600</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>425900</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>430700</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>433000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>435300</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>438000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>601000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>615600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>630300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>744600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>744200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>758700</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>769500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>780300</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>657700</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>461200</v>
+      </c>
+      <c r="E62" s="3">
         <v>474500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>488300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>410000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>409800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>406600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>280400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>248200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>298400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>339700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>336900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>333900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>343500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>342700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>343600</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>335800</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3229,8 +3378,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3279,8 +3431,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3329,58 +3484,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1865400</v>
+      </c>
+      <c r="E66" s="3">
         <v>2028100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1713300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1685600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1599200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1439900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1197100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1212800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1290700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1252500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1449400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1417000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1500300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1400300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1465200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1726800</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3399,8 +3560,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3449,8 +3611,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3499,8 +3664,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3549,8 +3717,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3599,58 +3770,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>1258300</v>
+      </c>
+      <c r="E72" s="3">
         <v>1268100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>1263300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>1273200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>1232800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>1201200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>1169700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>1138300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1087100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1039400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>992200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1058400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1040900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1026000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>1015100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>1022800</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3699,8 +3876,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3749,8 +3929,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3799,58 +3982,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>724000</v>
+      </c>
+      <c r="E76" s="3">
         <v>725600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>766700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>782900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>843700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>911400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>986000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1056300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1009600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>951500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>949600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1001700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>999700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>987500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>966500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1032200</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3899,113 +4088,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44009</v>
+      </c>
+      <c r="E80" s="2">
         <v>43918</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43827</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43736</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43645</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43554</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43463</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43372</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43099</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42917</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42826</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42623</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E81" s="3">
         <v>12800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>47700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>39400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>39700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>42800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>57600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>54100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>45800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-59000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>22700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>20200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>16300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-2100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>47200</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4024,58 +4222,62 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>7600</v>
+      </c>
+      <c r="E83" s="3">
         <v>7800</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>9400</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>8300</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>7800</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>7200</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>8900</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>7500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>7300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>7800</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>9200</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>9800</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>9000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>9200</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>13500</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>9700</v>
       </c>
     </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4124,8 +4326,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4174,8 +4379,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4224,8 +4432,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4274,8 +4485,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4324,58 +4538,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>115600</v>
+      </c>
+      <c r="E89" s="3">
         <v>-76600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>206600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>12100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>136300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-132400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>131500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-99100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>126400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-61300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>153200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-58100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>138400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-30800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>153100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>70400</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4394,58 +4614,62 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-3600</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-5700</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-10400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-10500</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-7800</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-6400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-7000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-4900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-3400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-3700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-8900</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-8700</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-11100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-20900</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-6200</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4494,8 +4718,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4544,58 +4771,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>18500</v>
+      </c>
+      <c r="E94" s="3">
         <v>-9300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-8100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-11000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-34500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-7900</v>
-      </c>
-      <c r="I94" s="3">
-        <v>-7400</v>
       </c>
       <c r="J94" s="3">
         <v>-7400</v>
       </c>
       <c r="K94" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="L94" s="3">
         <v>-3300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-4100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-6200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>28200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-11200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-11800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-13900</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4614,28 +4847,29 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-8000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-9000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-8200</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-8600</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-8900</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-7900</v>
-      </c>
-      <c r="I96" s="3">
-        <v>-7600</v>
       </c>
       <c r="J96" s="3">
         <v>-7600</v>
@@ -4644,13 +4878,13 @@
         <v>-7600</v>
       </c>
       <c r="L96" s="3">
+        <v>-7600</v>
+      </c>
+      <c r="M96" s="3">
         <v>-5800</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-5600</v>
-      </c>
-      <c r="N96" s="3">
-        <v>-5800</v>
       </c>
       <c r="O96" s="3">
         <v>-5800</v>
@@ -4662,10 +4896,13 @@
         <v>-5800</v>
       </c>
       <c r="R96" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="S96" s="3">
         <v>-5900</v>
       </c>
     </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4714,8 +4951,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4764,8 +5004,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4814,154 +5057,166 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-184200</v>
+      </c>
+      <c r="E100" s="3">
         <v>379300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-144000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>8400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-66500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>77500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-207100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-20700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-17600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-159100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-10600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-41700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-21900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-23800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-296000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>237800</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>100</v>
+      </c>
+      <c r="E101" s="3">
         <v>-1400</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>900</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-800</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>600</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>300</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-2000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>400</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-7700</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>600</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>1900</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>1500</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>3400</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>700</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-4300</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-50000</v>
+      </c>
+      <c r="E102" s="3">
         <v>292000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>55400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>8700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>35900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-62500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-85000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-126800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>97800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-223900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>138300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-70100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>108700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-65700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-161100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>309200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/WWW_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WWW_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="92">
   <si>
     <t>WWW</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,243 +665,256 @@
     <col min="1" max="1" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44100</v>
+      </c>
+      <c r="E7" s="2">
         <v>44009</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43918</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43827</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43736</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43645</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43554</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43463</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43372</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43099</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42917</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42826</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42623</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>493100</v>
+      </c>
+      <c r="E8" s="3">
         <v>349100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>439300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>607400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>574300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>568600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>523400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>579600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>558600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>566900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>534100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>578600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>581300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>598800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>591300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>729600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>603700</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>291100</v>
+      </c>
+      <c r="E9" s="3">
         <v>201900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>257500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>377500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>331000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>338200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>303200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>352500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>326500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>332700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>306200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>355800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>349400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>369400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>352000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>458300</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>366100</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>202000</v>
+      </c>
+      <c r="E10" s="3">
         <v>147200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>181800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>229900</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>243300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>230400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>220200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>227100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>232100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>234200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>227900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>222800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>231900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>229400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>239300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>271300</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>237600</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -921,8 +934,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -974,8 +988,11 @@
       <c r="S12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1027,22 +1044,25 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>200</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="F14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>8</v>
+      <c r="G14" s="3">
+        <v>0</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>8</v>
@@ -1050,12 +1070,12 @@
       <c r="I14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K14" s="3">
         <v>600</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
       <c r="L14" s="3">
         <v>0</v>
       </c>
@@ -1063,25 +1083,28 @@
         <v>0</v>
       </c>
       <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>76600</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>24200</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>25100</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>24600</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>50300</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1133,8 +1156,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1151,114 +1177,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>450500</v>
+      </c>
+      <c r="E17" s="3">
         <v>341800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>422400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>612600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>506000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>513100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>471000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>526300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>490200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>498800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>472600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>644100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>546000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>569600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>558700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>732100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>535200</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>42600</v>
+      </c>
+      <c r="E18" s="3">
         <v>7300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>16900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-5200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>68300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>55500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>52400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>53300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>68400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>68100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>61500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-65500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>35300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>29200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>32600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-2500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>68500</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1278,114 +1311,121 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-12200</v>
+      </c>
+      <c r="E20" s="3">
         <v>-8800</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-7200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-6500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-7300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-5700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-5600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-12400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-4500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-6600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-15400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-8200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-7200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-11400</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-5400</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-8600</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>38800</v>
+      </c>
+      <c r="E21" s="3">
         <v>6100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>17500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-2300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>69300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>57600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>54000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>49800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>71400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>75000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>62700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-71700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>36900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>31000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>30400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>5600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>69600</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1437,114 +1477,123 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>30400</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>9700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-11700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>61000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>49800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>46800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>40900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>63900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>67700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>54900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-80900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>27100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>22000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>21200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-7900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>59900</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>8700</v>
+      </c>
+      <c r="E24" s="3">
         <v>400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-3100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-11200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>12400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>9600</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>6200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>1600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>5000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>12200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>8300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-25700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>4300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>1500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>4400</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-5500</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>11700</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1596,114 +1645,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>21700</v>
+      </c>
+      <c r="E26" s="3">
         <v>-1900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>12800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>48600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>40200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>40600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>39300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>58900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>55500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>46600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-55200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>22800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>20500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>16800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-2400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>48200</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>21800</v>
+      </c>
+      <c r="E27" s="3">
         <v>-1800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>12800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>47700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>39400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>39700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>42700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>57600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>54100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>45800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-53400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>22700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>20200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>16300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-2100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>47200</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1755,8 +1813,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1778,11 +1839,11 @@
       <c r="I29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J29" s="3">
+      <c r="J29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K29" s="3">
         <v>100</v>
-      </c>
-      <c r="K29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>8</v>
@@ -1790,11 +1851,11 @@
       <c r="M29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N29" s="3">
+      <c r="N29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O29" s="3">
         <v>-5600</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>8</v>
@@ -1808,8 +1869,11 @@
       <c r="S29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1861,8 +1925,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1914,114 +1981,123 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>12200</v>
+      </c>
+      <c r="E32" s="3">
         <v>8800</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>7200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>6500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>7300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>5700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>5600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>12400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>4500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>6600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>15400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>8200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>7200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>11400</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>5400</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>8600</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>21800</v>
+      </c>
+      <c r="E33" s="3">
         <v>-1800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>12800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>47700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>39400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>39700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>42800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>57600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>54100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>45800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-59000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>22700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>20200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>16300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-2100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>47200</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2073,119 +2149,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>21800</v>
+      </c>
+      <c r="E35" s="3">
         <v>-1800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>12800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>47700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>39400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>39700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>42800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>57600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>54100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>45800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-59000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>22700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>20200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>16300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-2100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>47200</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44100</v>
+      </c>
+      <c r="E38" s="2">
         <v>44009</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43918</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43827</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43736</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43645</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43554</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43463</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43372</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43099</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42917</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42826</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42623</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2205,8 +2290,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2226,61 +2312,65 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>342000</v>
+      </c>
+      <c r="E41" s="3">
         <v>422600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>472600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>180600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>125200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>116500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>80600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>143100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>228100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>354900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>257100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>481000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>342700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>412800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>304100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>369800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>530900</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2332,220 +2422,235 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>332100</v>
+      </c>
+      <c r="E43" s="3">
         <v>263800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>323400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>331200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>357300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>363700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>375500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>361200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>364000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>297200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>295300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>271300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>294500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>287100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>287700</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>263300</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>309500</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>325700</v>
+      </c>
+      <c r="E44" s="3">
         <v>386500</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>405300</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>348200</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>417700</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>406500</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>374000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>317600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>324400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>293800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>290500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>276700</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>338800</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>333700</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>356500</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>348700</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>457600</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>42200</v>
+      </c>
+      <c r="E45" s="3">
         <v>45700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>50400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>107100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>48400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>42600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>45400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>45800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>32200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>36300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>37500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>45300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>44000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>58900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>39500</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>49600</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>42600</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1042000</v>
+      </c>
+      <c r="E46" s="3">
         <v>1118600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1251700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>967100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>948600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>929300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>875500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>867700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>948700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>982200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>880400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1074300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1020000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1092500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>987800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1031400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1340600</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2597,114 +2702,123 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>274600</v>
+      </c>
+      <c r="E48" s="3">
         <v>287300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>296600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>301800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>306900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>296000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>290200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>130900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>131400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>130400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>133700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>136700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>142200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>150100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>145100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>146100</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>148800</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1116300</v>
+      </c>
+      <c r="E49" s="3">
         <v>1115200</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1115400</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1121200</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1121100</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>1125000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>1101100</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>1100800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1105100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1105700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1109400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1111300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1181500</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1186400</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1185000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>1186600</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>1202300</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2756,8 +2870,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2809,61 +2926,67 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>68200</v>
+      </c>
+      <c r="E52" s="3">
         <v>68300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>90000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>89900</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>91900</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>92600</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>84500</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>83700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>83900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>82000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>80500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>76700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>75000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>71000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>69900</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>67600</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>67300</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2915,61 +3038,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2501100</v>
+      </c>
+      <c r="E54" s="3">
         <v>2589400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2753700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2480000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2468500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2442900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>2351300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>2183100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2269100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2300300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2204000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2399000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2418700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>2500000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>2387800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>2431700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>2759000</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2989,8 +3118,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3010,326 +3140,345 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>191800</v>
+      </c>
+      <c r="E57" s="3">
         <v>154900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>137600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>202100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>155600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>212700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>112600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>202300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>139500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>174300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>97200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>162300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>141700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>207600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>113800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>150800</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>168000</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>162500</v>
+      </c>
+      <c r="E58" s="3">
         <v>308500</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>802500</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>372500</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>503300</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>378000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>336000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>132500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>61500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>46300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>42000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>38000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>52500</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>46600</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>43600</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>40400</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>394700</v>
       </c>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>205700</v>
+      </c>
+      <c r="E59" s="3">
         <v>213000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>179600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>212800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>175000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>154200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>143500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>138300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>156600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>150400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>137500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>162000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>136300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>135100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>122700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>142500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>162100</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>560000</v>
+      </c>
+      <c r="E60" s="3">
         <v>676400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1119700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>787400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>833900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>744900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>592100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>473100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>357600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>371000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>276700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>362300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>330500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>389300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>280100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>333700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>724800</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>714100</v>
+      </c>
+      <c r="E61" s="3">
         <v>715900</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>423600</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>425900</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>430700</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>433000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>435300</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>438000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>601000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>615600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>630300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>744600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>744200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>758700</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>769500</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>780300</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>657700</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>461500</v>
+      </c>
+      <c r="E62" s="3">
         <v>461200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>474500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>488300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>410000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>409800</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>406600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>280400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>248200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>298400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>339700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>336900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>333900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>343500</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>342700</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>343600</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>335800</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3381,8 +3530,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3434,8 +3586,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3487,61 +3642,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1747000</v>
+      </c>
+      <c r="E66" s="3">
         <v>1865400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2028100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1713300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1685600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1599200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1439900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1197100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1212800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1290700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1252500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1449400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1417000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1500300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1400300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1465200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1726800</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3561,8 +3722,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3614,8 +3776,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3667,8 +3832,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3720,8 +3888,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3773,61 +3944,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>1272400</v>
+      </c>
+      <c r="E72" s="3">
         <v>1258300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>1268100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>1263300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>1273200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>1232800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>1201200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>1169700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1138300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1087100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1039400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>992200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1058400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1040900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>1026000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>1015100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>1022800</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3879,8 +4056,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3932,8 +4112,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3985,61 +4168,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>754100</v>
+      </c>
+      <c r="E76" s="3">
         <v>724000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>725600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>766700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>782900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>843700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>911400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>986000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1056300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1009600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>951500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>949600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1001700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>999700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>987500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>966500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1032200</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4091,119 +4280,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44100</v>
+      </c>
+      <c r="E80" s="2">
         <v>44009</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43918</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43827</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43736</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43645</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43554</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43463</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43372</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43099</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42917</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42826</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42623</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>21800</v>
+      </c>
+      <c r="E81" s="3">
         <v>-1800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>12800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>47700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>39400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>39700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>42800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>57600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>54100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>45800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-59000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>22700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>20200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>16300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-2100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>47200</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4223,61 +4421,65 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>8400</v>
+      </c>
+      <c r="E83" s="3">
         <v>7600</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>7800</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>9400</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>8300</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>7800</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>7200</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>8900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>7500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>7300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>7800</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>9200</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>9800</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>9000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>9200</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>13500</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>9700</v>
       </c>
     </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4329,8 +4531,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4382,8 +4587,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4435,8 +4643,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4488,8 +4699,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4541,61 +4755,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>96500</v>
+      </c>
+      <c r="E89" s="3">
         <v>115600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-76600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>206600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>12100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>136300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-132400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>131500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-99100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>126400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-61300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>153200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-58100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>138400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-30800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>153100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>70400</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4615,61 +4835,65 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>600</v>
+      </c>
+      <c r="E91" s="3">
         <v>-3000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-3600</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-5700</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-10400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-10500</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-7800</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-6400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-7000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-4900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-3400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-3700</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-8900</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-8700</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-11100</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-20900</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-6200</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4721,8 +4945,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4774,61 +5001,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>400</v>
+      </c>
+      <c r="E94" s="3">
         <v>18500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-9300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-8100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-11000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-34500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-7900</v>
-      </c>
-      <c r="J94" s="3">
-        <v>-7400</v>
       </c>
       <c r="K94" s="3">
         <v>-7400</v>
       </c>
       <c r="L94" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="M94" s="3">
         <v>-3300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-4100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-6200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>28200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-11200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-11800</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-13900</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4848,31 +5081,32 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-8400</v>
+      </c>
+      <c r="E96" s="3">
         <v>-8000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-9000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-8200</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-8600</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-8900</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-7900</v>
-      </c>
-      <c r="J96" s="3">
-        <v>-7600</v>
       </c>
       <c r="K96" s="3">
         <v>-7600</v>
@@ -4881,13 +5115,13 @@
         <v>-7600</v>
       </c>
       <c r="M96" s="3">
+        <v>-7600</v>
+      </c>
+      <c r="N96" s="3">
         <v>-5800</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-5600</v>
-      </c>
-      <c r="O96" s="3">
-        <v>-5800</v>
       </c>
       <c r="P96" s="3">
         <v>-5800</v>
@@ -4899,10 +5133,13 @@
         <v>-5800</v>
       </c>
       <c r="S96" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="T96" s="3">
         <v>-5900</v>
       </c>
     </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4954,8 +5191,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5007,8 +5247,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5060,163 +5303,175 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-179700</v>
+      </c>
+      <c r="E100" s="3">
         <v>-184200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>379300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-144000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>8400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-66500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>77500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-207100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-20700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-17600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-159100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-10600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-41700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-21900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-23800</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-296000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>237800</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E101" s="3">
         <v>100</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-1400</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>900</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-800</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>600</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>300</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-2000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>400</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-7700</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>600</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>1900</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>1500</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>3400</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>700</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-4300</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-80600</v>
+      </c>
+      <c r="E102" s="3">
         <v>-50000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>292000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>55400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>8700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>35900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-62500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-85000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-126800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>97800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-223900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>138300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-70100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>108700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-65700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-161100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>309200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/WWW_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WWW_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="92">
   <si>
     <t>WWW</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,256 +665,269 @@
     <col min="1" max="1" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44198</v>
+      </c>
+      <c r="E7" s="2">
         <v>44100</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44009</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43918</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43827</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43736</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43645</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43554</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43463</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43372</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43099</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42917</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42826</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42623</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>509600</v>
+      </c>
+      <c r="E8" s="3">
         <v>493100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>349100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>439300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>607400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>574300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>568600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>523400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>579600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>558600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>566900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>534100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>578600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>581300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>598800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>591300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>729600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>603700</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>305000</v>
+      </c>
+      <c r="E9" s="3">
         <v>291100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>201900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>257500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>377500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>331000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>338200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>303200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>352500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>326500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>332700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>306200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>355800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>349400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>369400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>352000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>458300</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>366100</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>204600</v>
+      </c>
+      <c r="E10" s="3">
         <v>202000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>147200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>181800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>229900</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>243300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>230400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>220200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>227100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>232100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>234200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>227900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>222800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>231900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>229400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>239300</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>271300</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>237600</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -935,8 +948,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -991,8 +1005,11 @@
       <c r="T12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1047,25 +1064,28 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>227500</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>200</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="G14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>8</v>
+      <c r="H14" s="3">
+        <v>0</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>8</v>
@@ -1073,12 +1093,12 @@
       <c r="J14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="3">
+      <c r="K14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L14" s="3">
         <v>600</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
       <c r="M14" s="3">
         <v>0</v>
       </c>
@@ -1086,25 +1106,28 @@
         <v>0</v>
       </c>
       <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>76600</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>24200</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>25100</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>24600</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>50300</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1159,8 +1182,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1178,120 +1204,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>719000</v>
+      </c>
+      <c r="E17" s="3">
         <v>450500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>341800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>422400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>612600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>506000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>513100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>471000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>526300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>490200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>498800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>472600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>644100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>546000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>569600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>558700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>732100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>535200</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-209400</v>
+      </c>
+      <c r="E18" s="3">
         <v>42600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>7300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>16900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-5200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>68300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>55500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>52400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>53300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>68400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>68100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>61500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-65500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>35300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>29200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>32600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-2500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>68500</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1312,120 +1345,127 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-13300</v>
+      </c>
+      <c r="E20" s="3">
         <v>-12200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-8800</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-7200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-6500</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-7300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-5700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-5600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-12400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-4500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-6600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-15400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-8200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-7200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-11400</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-5400</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-8600</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-213700</v>
+      </c>
+      <c r="E21" s="3">
         <v>38800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>6100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>17500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-2300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>69300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>57600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>54000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>49800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>71400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>75000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>62700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-71700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>36900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>31000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>30400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>5600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>69600</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1480,120 +1520,129 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-222700</v>
+      </c>
+      <c r="E23" s="3">
         <v>30400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-1500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>9700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-11700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>61000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>49800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>46800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>40900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>63900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>67700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>54900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-80900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>27100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>22000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>21200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-7900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>59900</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-51500</v>
+      </c>
+      <c r="E24" s="3">
         <v>8700</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-3100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-11200</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>12400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>9600</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>6200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>5000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>12200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>8300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-25700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>4300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>1500</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>4400</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-5500</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>11700</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1648,120 +1697,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-171200</v>
+      </c>
+      <c r="E26" s="3">
         <v>21700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-1900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>12800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>48600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>40200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>40600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>39300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>58900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>55500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>46600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-55200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>22800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>20500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>16800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-2400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>48200</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-170700</v>
+      </c>
+      <c r="E27" s="3">
         <v>21800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-1800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>12800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>47700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>39400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>39700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>42700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>57600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>54100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>45800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-53400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>22700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>20200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>16300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-2100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>47200</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1816,8 +1874,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1842,11 +1903,11 @@
       <c r="J29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K29" s="3">
+      <c r="K29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L29" s="3">
         <v>100</v>
-      </c>
-      <c r="L29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>8</v>
@@ -1854,11 +1915,11 @@
       <c r="N29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O29" s="3">
+      <c r="O29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P29" s="3">
         <v>-5600</v>
-      </c>
-      <c r="P29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>8</v>
@@ -1872,8 +1933,11 @@
       <c r="T29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1928,8 +1992,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1984,120 +2051,129 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>13300</v>
+      </c>
+      <c r="E32" s="3">
         <v>12200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>8800</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>7200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>6500</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>7300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>5700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>5600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>12400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>4500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>6600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>15400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>8200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>7200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>11400</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>5400</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>8600</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-170700</v>
+      </c>
+      <c r="E33" s="3">
         <v>21800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-1800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>12800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>47700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>39400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>39700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>42800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>57600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>54100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>45800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-59000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>22700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>20200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>16300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-2100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>47200</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2152,125 +2228,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-170700</v>
+      </c>
+      <c r="E35" s="3">
         <v>21800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-1800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>12800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>47700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>39400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>39700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>42800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>57600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>54100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>45800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-59000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>22700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>20200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>16300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-2100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>47200</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44198</v>
+      </c>
+      <c r="E38" s="2">
         <v>44100</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44009</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43918</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43827</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43736</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43645</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43554</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43463</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43372</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43099</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42917</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42826</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42623</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2291,8 +2376,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2313,64 +2399,68 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>347400</v>
+      </c>
+      <c r="E41" s="3">
         <v>342000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>422600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>472600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>180600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>125200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>116500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>80600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>143100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>228100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>354900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>257100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>481000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>342700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>412800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>304100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>369800</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>530900</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2425,232 +2515,247 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>268300</v>
+      </c>
+      <c r="E43" s="3">
         <v>332100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>263800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>323400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>331200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>357300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>363700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>375500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>361200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>364000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>297200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>295300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>271300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>294500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>287100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>287700</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>263300</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>309500</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>243100</v>
+      </c>
+      <c r="E44" s="3">
         <v>325700</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>386500</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>405300</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>348200</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>417700</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>406500</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>374000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>317600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>324400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>293800</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>290500</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>276700</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>338800</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>333700</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>356500</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>348700</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>457600</v>
       </c>
     </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>45400</v>
+      </c>
+      <c r="E45" s="3">
         <v>42200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>45700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>50400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>107100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>48400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>42600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>45400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>45800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>32200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>36300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>37500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>45300</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>44000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>58900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>39500</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>49600</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>42600</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>904200</v>
+      </c>
+      <c r="E46" s="3">
         <v>1042000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1118600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1251700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>967100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>948600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>929300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>875500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>867700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>948700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>982200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>880400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1074300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1020000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1092500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>987800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1031400</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1340600</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2705,120 +2810,129 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>267100</v>
+      </c>
+      <c r="E48" s="3">
         <v>274600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>287300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>296600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>301800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>306900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>296000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>290200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>130900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>131400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>130400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>133700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>136700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>142200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>150100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>145100</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>146100</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>148800</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>897700</v>
+      </c>
+      <c r="E49" s="3">
         <v>1116300</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1115200</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1115400</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1121200</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>1121100</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>1125000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>1101100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1100800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1105100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1105700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1109400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1111300</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1181500</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1186400</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>1185000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>1186600</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>1202300</v>
       </c>
     </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2873,8 +2987,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2929,64 +3046,70 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>68400</v>
+      </c>
+      <c r="E52" s="3">
         <v>68200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>68300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>90000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>89900</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>91900</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>92600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>84500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>83700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>83900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>82000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>80500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>76700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>75000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>71000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>69900</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>67600</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>67300</v>
       </c>
     </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3041,64 +3164,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2137400</v>
+      </c>
+      <c r="E54" s="3">
         <v>2501100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2589400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2753700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2480000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2468500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>2442900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>2351300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2183100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2269100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2300300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2204000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2399000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>2418700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>2500000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>2387800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>2431700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>2759000</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3119,8 +3248,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3141,344 +3271,363 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>185000</v>
+      </c>
+      <c r="E57" s="3">
         <v>191800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>154900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>137600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>202100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>155600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>212700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>112600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>202300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>139500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>174300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>97200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>162300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>141700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>207600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>113800</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>150800</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>168000</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>10000</v>
+      </c>
+      <c r="E58" s="3">
         <v>162500</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>308500</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>802500</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>372500</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>503300</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>378000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>336000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>132500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>61500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>46300</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>42000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>38000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>52500</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>46600</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>43600</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>40400</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>394700</v>
       </c>
     </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>211000</v>
+      </c>
+      <c r="E59" s="3">
         <v>205700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>213000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>179600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>212800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>175000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>154200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>143500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>138300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>156600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>150400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>137500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>162000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>136300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>135100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>122700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>142500</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>162100</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>406000</v>
+      </c>
+      <c r="E60" s="3">
         <v>560000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>676400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1119700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>787400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>833900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>744900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>592100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>473100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>357600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>371000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>276700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>362300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>330500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>389300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>280100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>333700</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>724800</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>712500</v>
+      </c>
+      <c r="E61" s="3">
         <v>714100</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>715900</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>423600</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>425900</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>430700</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>433000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>435300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>438000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>601000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>615600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>630300</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>744600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>744200</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>758700</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>769500</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>780300</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>657700</v>
       </c>
     </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>445900</v>
+      </c>
+      <c r="E62" s="3">
         <v>461500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>461200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>474500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>488300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>410000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>409800</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>406600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>280400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>248200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>298400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>339700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>336900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>333900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>343500</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>342700</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>343600</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>335800</v>
       </c>
     </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3533,8 +3682,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3589,8 +3741,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3645,64 +3800,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1576000</v>
+      </c>
+      <c r="E66" s="3">
         <v>1747000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1865400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2028100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1713300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1685600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1599200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1439900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1197100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1212800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1290700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1252500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1449400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1417000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1500300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1400300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1465200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1726800</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3723,8 +3884,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3779,8 +3941,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3835,8 +4000,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3891,8 +4059,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3947,64 +4118,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>1093300</v>
+      </c>
+      <c r="E72" s="3">
         <v>1272400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>1258300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>1268100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>1263300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>1273200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>1232800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>1201200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1169700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1138300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1087100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1039400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>992200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1058400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>1040900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>1026000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>1015100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>1022800</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4059,8 +4236,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4115,8 +4295,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4171,64 +4354,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>561400</v>
+      </c>
+      <c r="E76" s="3">
         <v>754100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>724000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>725600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>766700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>782900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>843700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>911400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>986000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1056300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1009600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>951500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>949600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1001700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>999700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>987500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>966500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1032200</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4283,125 +4472,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44198</v>
+      </c>
+      <c r="E80" s="2">
         <v>44100</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44009</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43918</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43827</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43736</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43645</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43554</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43463</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43372</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43099</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42917</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42826</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42623</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-170700</v>
+      </c>
+      <c r="E81" s="3">
         <v>21800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-1800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>12800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>47700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>39400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>39700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>42800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>57600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>54100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>45800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-59000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>22700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>20200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>16300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-2100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>47200</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4422,64 +4620,68 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>9000</v>
+      </c>
+      <c r="E83" s="3">
         <v>8400</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>7600</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>7800</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>9400</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>8300</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>7800</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>7200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>8900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>7500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>7300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>7800</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>9200</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>9800</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>9000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>9200</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>13500</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>9700</v>
       </c>
     </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4534,8 +4736,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4590,8 +4795,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4646,8 +4854,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4702,8 +4913,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4758,64 +4972,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>173600</v>
+      </c>
+      <c r="E89" s="3">
         <v>96500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>115600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-76600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>206600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>12100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>136300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-132400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>131500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-99100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>126400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-61300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>153200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-58100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>138400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-30800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>153100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>70400</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4836,64 +5056,68 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="E91" s="3">
         <v>600</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-3000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-3600</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-5700</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-10400</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-10500</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-7800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-6400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-7000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-4900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-3400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-3700</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-8900</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-8700</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-11100</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-20900</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-6200</v>
       </c>
     </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4948,8 +5172,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5004,64 +5231,70 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="E94" s="3">
         <v>400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>18500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-9300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-8100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-11000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-34500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-7900</v>
-      </c>
-      <c r="K94" s="3">
-        <v>-7400</v>
       </c>
       <c r="L94" s="3">
         <v>-7400</v>
       </c>
       <c r="M94" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="N94" s="3">
         <v>-3300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-4100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-6200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>28200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-11200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-11800</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-13900</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5082,34 +5315,35 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-8200</v>
+      </c>
+      <c r="E96" s="3">
         <v>-8400</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-8000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-9000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-8200</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-8600</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-8900</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-7900</v>
-      </c>
-      <c r="K96" s="3">
-        <v>-7600</v>
       </c>
       <c r="L96" s="3">
         <v>-7600</v>
@@ -5118,13 +5352,13 @@
         <v>-7600</v>
       </c>
       <c r="N96" s="3">
+        <v>-7600</v>
+      </c>
+      <c r="O96" s="3">
         <v>-5800</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-5600</v>
-      </c>
-      <c r="P96" s="3">
-        <v>-5800</v>
       </c>
       <c r="Q96" s="3">
         <v>-5800</v>
@@ -5136,10 +5370,13 @@
         <v>-5800</v>
       </c>
       <c r="T96" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="U96" s="3">
         <v>-5900</v>
       </c>
     </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5194,8 +5431,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5250,8 +5490,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5306,172 +5549,184 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-169400</v>
+      </c>
+      <c r="E100" s="3">
         <v>-179700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-184200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>379300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-144000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>8400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-66500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>77500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-207100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-20700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-17600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-159100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-10600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-41700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-21900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-23800</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-296000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>237800</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E101" s="3">
         <v>2200</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>100</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-1400</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>900</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-800</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>600</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-2000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>400</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-7700</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>600</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>1900</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>1500</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>3400</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>700</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-4300</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E102" s="3">
         <v>-80600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-50000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>292000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>55400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>8700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>35900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-62500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-85000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-126800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>97800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-223900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>138300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-70100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>108700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-65700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-161100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>309200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/WWW_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WWW_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="92">
   <si>
     <t>WWW</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,269 +665,281 @@
     <col min="1" max="1" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44289</v>
+      </c>
+      <c r="E7" s="2">
         <v>44198</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44100</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44009</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43918</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43827</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43736</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43645</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43554</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43463</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43372</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43099</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42917</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42826</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42623</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>510700</v>
+      </c>
+      <c r="E8" s="3">
         <v>509600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>493100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>349100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>439300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>607400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>574300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>568600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>523400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>579600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>558600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>566900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>534100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>578600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>581300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>598800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>591300</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>729600</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>603700</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>288400</v>
+      </c>
+      <c r="E9" s="3">
         <v>305000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>291100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>201900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>257500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>377500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>331000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>338200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>303200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>352500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>326500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>332700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>306200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>355800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>349400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>369400</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>352000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>458300</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>366100</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>222300</v>
+      </c>
+      <c r="E10" s="3">
         <v>204600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>202000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>147200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>181800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>229900</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>243300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>230400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>220200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>227100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>232100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>234200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>227900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>222800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>231900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>229400</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>239300</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>271300</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>237600</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -949,8 +961,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1008,8 +1021,11 @@
       <c r="U12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1067,28 +1083,31 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="3">
         <v>227500</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>200</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="H14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>8</v>
+      <c r="I14" s="3">
+        <v>0</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>8</v>
@@ -1096,12 +1115,12 @@
       <c r="K14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L14" s="3">
+      <c r="L14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M14" s="3">
         <v>600</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
       <c r="N14" s="3">
         <v>0</v>
       </c>
@@ -1109,25 +1128,28 @@
         <v>0</v>
       </c>
       <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
         <v>76600</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>24200</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>25100</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>24600</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>50300</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1185,8 +1207,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1205,126 +1230,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>452600</v>
+      </c>
+      <c r="E17" s="3">
         <v>719000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>450500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>341800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>422400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>612600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>506000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>513100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>471000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>526300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>490200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>498800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>472600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>644100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>546000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>569600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>558700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>732100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>535200</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>58100</v>
+      </c>
+      <c r="E18" s="3">
         <v>-209400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>42600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>7300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>16900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-5200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>68300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>55500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>52400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>53300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>68400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>68100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>61500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-65500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>35300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>29200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>32600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-2500</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>68500</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1346,126 +1378,133 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-12400</v>
+      </c>
+      <c r="E20" s="3">
         <v>-13300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-12200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-8800</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-7200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-6500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-7300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-5700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-5600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-12400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-4500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-6600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-15400</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-8200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-7200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-11400</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-5400</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-8600</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>52900</v>
+      </c>
+      <c r="E21" s="3">
         <v>-213700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>38800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>6100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>17500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-2300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>69300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>57600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>54000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>49800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>71400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>75000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>62700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-71700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>36900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>31000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>30400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>5600</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>69600</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1523,126 +1562,135 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>45700</v>
+      </c>
+      <c r="E23" s="3">
         <v>-222700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>30400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>9700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-11700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>61000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>49800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>46800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>40900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>63900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>67700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>54900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-80900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>27100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>22000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>21200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-7900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>59900</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>7300</v>
+      </c>
+      <c r="E24" s="3">
         <v>-51500</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>8700</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-3100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-11200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>12400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>9600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>6200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>5000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>12200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>8300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-25700</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>4300</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>1500</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>4400</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-5500</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>11700</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1700,126 +1748,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>38400</v>
+      </c>
+      <c r="E26" s="3">
         <v>-171200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>21700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>12800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>48600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>40200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>40600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>39300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>58900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>55500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>46600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-55200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>22800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>20500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>16800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-2400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>48200</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>37800</v>
+      </c>
+      <c r="E27" s="3">
         <v>-170700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>21800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-1800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>12800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>47700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>39400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>39700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>42700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>57600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>54100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>45800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-53400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>22700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>20200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>16300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-2100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>47200</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1877,8 +1934,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1906,11 +1966,11 @@
       <c r="K29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L29" s="3">
+      <c r="L29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M29" s="3">
         <v>100</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>8</v>
@@ -1918,11 +1978,11 @@
       <c r="O29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P29" s="3">
+      <c r="P29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q29" s="3">
         <v>-5600</v>
-      </c>
-      <c r="Q29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>8</v>
@@ -1936,8 +1996,11 @@
       <c r="U29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1995,8 +2058,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2054,126 +2120,135 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>12400</v>
+      </c>
+      <c r="E32" s="3">
         <v>13300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>12200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>8800</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>7200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>6500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>7300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>5700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>5600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>12400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>4500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>6600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>15400</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>8200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>7200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>11400</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>5400</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>8600</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>37800</v>
+      </c>
+      <c r="E33" s="3">
         <v>-170700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>21800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-1800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>12800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>47700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>39400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>39700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>42800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>57600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>54100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>45800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-59000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>22700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>20200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>16300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-2100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>47200</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2231,131 +2306,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>37800</v>
+      </c>
+      <c r="E35" s="3">
         <v>-170700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>21800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-1800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>12800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>47700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>39400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>39700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>42800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>57600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>54100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>45800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-59000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>22700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>20200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>16300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-2100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>47200</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44289</v>
+      </c>
+      <c r="E38" s="2">
         <v>44198</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44100</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44009</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43918</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43827</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43736</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43645</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43554</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43463</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43372</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43099</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42917</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42826</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42623</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2377,8 +2461,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2400,67 +2485,71 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>364800</v>
+      </c>
+      <c r="E41" s="3">
         <v>347400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>342000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>422600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>472600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>180600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>125200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>116500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>80600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>143100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>228100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>354900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>257100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>481000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>342700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>412800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>304100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>369800</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>530900</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2518,244 +2607,259 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>323600</v>
+      </c>
+      <c r="E43" s="3">
         <v>268300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>332100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>263800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>323400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>331200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>357300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>363700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>375500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>361200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>364000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>297200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>295300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>271300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>294500</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>287100</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>287700</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>263300</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>309500</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>320900</v>
+      </c>
+      <c r="E44" s="3">
         <v>243100</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>325700</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>386500</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>405300</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>348200</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>417700</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>406500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>374000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>317600</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>324400</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>293800</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>290500</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>276700</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>338800</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>333700</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>356500</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>348700</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>457600</v>
       </c>
     </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>37900</v>
+      </c>
+      <c r="E45" s="3">
         <v>45400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>42200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>45700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>50400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>107100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>48400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>42600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>45400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>45800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>32200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>36300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>37500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>45300</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>44000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>58900</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>39500</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>49600</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>42600</v>
       </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1047200</v>
+      </c>
+      <c r="E46" s="3">
         <v>904200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1042000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1118600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1251700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>967100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>948600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>929300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>875500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>867700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>948700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>982200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>880400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1074300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1020000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1092500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>987800</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1031400</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1340600</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2813,126 +2917,135 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>257500</v>
+      </c>
+      <c r="E48" s="3">
         <v>267100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>274600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>287300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>296600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>301800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>306900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>296000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>290200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>130900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>131400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>130400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>133700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>136700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>142200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>150100</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>145100</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>146100</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>148800</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>896200</v>
+      </c>
+      <c r="E49" s="3">
         <v>897700</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1116300</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1115200</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1115400</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>1121200</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>1121100</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>1125000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1101100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1100800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1105100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1105700</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1109400</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1111300</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1181500</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>1186400</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>1185000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>1186600</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>1202300</v>
       </c>
     </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2990,8 +3103,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3049,67 +3165,73 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>66400</v>
+      </c>
+      <c r="E52" s="3">
         <v>68400</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>68200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>68300</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>90000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>89900</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>91900</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>92600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>84500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>83700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>83900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>82000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>80500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>76700</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>75000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>71000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>69900</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>67600</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>67300</v>
       </c>
     </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3167,67 +3289,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2267300</v>
+      </c>
+      <c r="E54" s="3">
         <v>2137400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2501100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2589400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2753700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2480000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>2468500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>2442900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2351300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2183100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2269100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2300300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2204000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>2399000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>2418700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>2500000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>2387800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>2431700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>2759000</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3249,8 +3377,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3272,67 +3401,71 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>279300</v>
+      </c>
+      <c r="E57" s="3">
         <v>185000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>191800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>154900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>137600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>202100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>155600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>212700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>112600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>202300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>139500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>174300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>97200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>162300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>141700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>207600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>113800</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>150800</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>168000</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3340,294 +3473,309 @@
         <v>10000</v>
       </c>
       <c r="E58" s="3">
+        <v>10000</v>
+      </c>
+      <c r="F58" s="3">
         <v>162500</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>308500</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>802500</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>372500</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>503300</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>378000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>336000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>132500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>61500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>46300</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>42000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>38000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>52500</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>46600</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>43600</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>40400</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>394700</v>
       </c>
     </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>208500</v>
+      </c>
+      <c r="E59" s="3">
         <v>211000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>205700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>213000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>179600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>212800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>175000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>154200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>143500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>138300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>156600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>150400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>137500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>162000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>136300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>135100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>122700</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>142500</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>162100</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>497800</v>
+      </c>
+      <c r="E60" s="3">
         <v>406000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>560000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>676400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1119700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>787400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>833900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>744900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>592100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>473100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>357600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>371000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>276700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>362300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>330500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>389300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>280100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>333700</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>724800</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>710400</v>
+      </c>
+      <c r="E61" s="3">
         <v>712500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>714100</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>715900</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>423600</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>425900</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>430700</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>433000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>435300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>438000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>601000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>615600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>630300</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>744600</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>744200</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>758700</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>769500</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>780300</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>657700</v>
       </c>
     </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>434000</v>
+      </c>
+      <c r="E62" s="3">
         <v>445900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>461500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>461200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>474500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>488300</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>410000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>409800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>406600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>280400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>248200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>298400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>339700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>336900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>333900</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>343500</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>342700</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>343600</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>335800</v>
       </c>
     </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3685,8 +3833,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3744,8 +3895,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3803,67 +3957,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1658200</v>
+      </c>
+      <c r="E66" s="3">
         <v>1576000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1747000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1865400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2028100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1713300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1685600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1599200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1439900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1197100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1212800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1290700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1252500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1449400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1417000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1500300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1400300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1465200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1726800</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3885,8 +4045,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3944,8 +4105,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4003,8 +4167,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4062,8 +4229,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4121,67 +4291,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>1123100</v>
+      </c>
+      <c r="E72" s="3">
         <v>1093300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>1272400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>1258300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>1268100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>1263300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>1273200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>1232800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1201200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1169700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1138300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1087100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1039400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>992200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>1058400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>1040900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>1026000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>1015100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>1022800</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4239,8 +4415,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4298,8 +4477,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4357,67 +4539,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>609100</v>
+      </c>
+      <c r="E76" s="3">
         <v>561400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>754100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>724000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>725600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>766700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>782900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>843700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>911400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>986000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1056300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1009600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>951500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>949600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1001700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>999700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>987500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>966500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>1032200</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4475,131 +4663,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44289</v>
+      </c>
+      <c r="E80" s="2">
         <v>44198</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44100</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44009</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43918</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43827</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43736</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43645</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43554</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43463</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43372</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43099</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42917</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42826</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42623</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>37800</v>
+      </c>
+      <c r="E81" s="3">
         <v>-170700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>21800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-1800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>12800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>47700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>39400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>39700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>42800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>57600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>54100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>45800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-59000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>22700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>20200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>16300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-2100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>47200</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4621,67 +4818,71 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>7200</v>
+      </c>
+      <c r="E83" s="3">
         <v>9000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>8400</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>7600</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>7800</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>9400</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>8300</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>7800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>7200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>8900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>7500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>7300</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>7800</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>9200</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>9800</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>9000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>9200</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>13500</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>9700</v>
       </c>
     </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4739,8 +4940,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4798,8 +5002,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4857,8 +5064,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4916,8 +5126,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4975,67 +5188,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>26300</v>
+      </c>
+      <c r="E89" s="3">
         <v>173600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>96500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>115600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-76600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>206600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>12100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>136300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-132400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>131500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-99100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>126400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-61300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>153200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-58100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>138400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-30800</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>153100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>70400</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5057,67 +5276,71 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E91" s="3">
         <v>-4300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>600</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-3000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-3600</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-5700</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-10400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-10500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-7800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-6400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-7000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-4900</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-3400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-3700</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-8900</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-8700</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-11100</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-20900</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-6200</v>
       </c>
     </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5175,8 +5398,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5234,67 +5460,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E94" s="3">
         <v>-3500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>18500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-9300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-8100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-11000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-34500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-7900</v>
-      </c>
-      <c r="L94" s="3">
-        <v>-7400</v>
       </c>
       <c r="M94" s="3">
         <v>-7400</v>
       </c>
       <c r="N94" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="O94" s="3">
         <v>-3300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-4100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-6200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>28200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-11200</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-11800</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-13900</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5316,37 +5548,38 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-8500</v>
+      </c>
+      <c r="E96" s="3">
         <v>-8200</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-8400</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-8000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-9000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-8200</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-8600</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-8900</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-7900</v>
-      </c>
-      <c r="L96" s="3">
-        <v>-7600</v>
       </c>
       <c r="M96" s="3">
         <v>-7600</v>
@@ -5355,13 +5588,13 @@
         <v>-7600</v>
       </c>
       <c r="O96" s="3">
+        <v>-7600</v>
+      </c>
+      <c r="P96" s="3">
         <v>-5800</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-5600</v>
-      </c>
-      <c r="Q96" s="3">
-        <v>-5800</v>
       </c>
       <c r="R96" s="3">
         <v>-5800</v>
@@ -5373,10 +5606,13 @@
         <v>-5800</v>
       </c>
       <c r="U96" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="V96" s="3">
         <v>-5900</v>
       </c>
     </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5434,8 +5670,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5493,8 +5732,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5552,181 +5794,193 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-4900</v>
+      </c>
+      <c r="E100" s="3">
         <v>-169400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-179700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-184200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>379300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-144000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>8400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-66500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>77500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-207100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-20700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-17600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-159100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-10600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-41700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-21900</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-23800</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-296000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>237800</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E101" s="3">
         <v>4700</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>2200</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>100</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-1400</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>900</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-800</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>600</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>300</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-2000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>400</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-7700</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>600</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>1900</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>1500</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>3400</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>700</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-4300</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>17400</v>
+      </c>
+      <c r="E102" s="3">
         <v>5400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-80600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-50000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>292000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>55400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>8700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>35900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-62500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-85000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-126800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>97800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-223900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>138300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-70100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>108700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-65700</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-161100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>309200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/WWW_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WWW_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="92">
   <si>
     <t>WWW</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,281 +665,293 @@
     <col min="1" max="1" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="6" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44380</v>
+      </c>
+      <c r="E7" s="2">
         <v>44289</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44198</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44100</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44009</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43918</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43827</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43736</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43645</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43554</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43463</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43372</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43099</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42917</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42826</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42623</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>631900</v>
+      </c>
+      <c r="E8" s="3">
         <v>510700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>509600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>493100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>349100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>439300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>607400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>574300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>568600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>523400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>579600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>558600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>566900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>534100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>578600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>581300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>598800</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>591300</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>729600</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>603700</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>361500</v>
+      </c>
+      <c r="E9" s="3">
         <v>288400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>305000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>291100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>201900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>257500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>377500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>331000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>338200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>303200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>352500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>326500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>332700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>306200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>355800</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>349400</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>369400</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>352000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>458300</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>366100</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>270400</v>
+      </c>
+      <c r="E10" s="3">
         <v>222300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>204600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>202000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>147200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>181800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>229900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>243300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>230400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>220200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>227100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>232100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>234200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>227900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>222800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>231900</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>229400</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>239300</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>271300</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>237600</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -962,8 +974,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1024,8 +1037,11 @@
       <c r="V12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1086,31 +1102,34 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>227500</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>200</v>
       </c>
-      <c r="H14" s="3" t="s">
+      <c r="I14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>8</v>
+      <c r="J14" s="3">
+        <v>0</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>8</v>
@@ -1118,12 +1137,12 @@
       <c r="L14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="3">
+      <c r="M14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N14" s="3">
         <v>600</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
       <c r="O14" s="3">
         <v>0</v>
       </c>
@@ -1131,25 +1150,28 @@
         <v>0</v>
       </c>
       <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
         <v>76600</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>24200</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>25100</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>24600</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>50300</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1210,8 +1232,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1231,132 +1256,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>568100</v>
+      </c>
+      <c r="E17" s="3">
         <v>452600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>719000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>450500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>341800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>422400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>612600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>506000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>513100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>471000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>526300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>490200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>498800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>472600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>644100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>546000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>569600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>558700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>732100</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>535200</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>63800</v>
+      </c>
+      <c r="E18" s="3">
         <v>58100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-209400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>42600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>7300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>16900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-5200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>68300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>55500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>52400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>53300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>68400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>68100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>61500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-65500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>35300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>29200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>32600</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-2500</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>68500</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1379,132 +1411,139 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-9800</v>
+      </c>
+      <c r="E20" s="3">
         <v>-12400</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-13300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-12200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-8800</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-7200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-6500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-7300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-5700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-5600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-12400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-4500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-6600</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-15400</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-8200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-7200</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-11400</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-5400</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-8600</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>61200</v>
+      </c>
+      <c r="E21" s="3">
         <v>52900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-213700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>38800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>6100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>17500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-2300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>69300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>57600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>54000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>49800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>71400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>75000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>62700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-71700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>36900</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>31000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>30400</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>5600</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>69600</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1565,132 +1604,141 @@
       <c r="V22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>54000</v>
+      </c>
+      <c r="E23" s="3">
         <v>45700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-222700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>30400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-1500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>9700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-11700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>61000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>49800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>46800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>40900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>63900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>67700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>54900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-80900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>27100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>22000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>21200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-7900</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>59900</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>9600</v>
+      </c>
+      <c r="E24" s="3">
         <v>7300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-51500</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>8700</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-3100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-11200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>12400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>9600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>6200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>1600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>5000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>12200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>8300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-25700</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>4300</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>1500</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>4400</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-5500</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>11700</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1751,132 +1799,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>44400</v>
+      </c>
+      <c r="E26" s="3">
         <v>38400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-171200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>21700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-1900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>12800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>48600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>40200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>40600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>39300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>58900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>55500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>46600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-55200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>22800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>20500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>16800</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-2400</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>48200</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>44000</v>
+      </c>
+      <c r="E27" s="3">
         <v>37800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-170700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>21800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-1800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>12800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>47700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>39400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>39700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>42700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>57600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>54100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>45800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-53400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>22700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>20200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>16300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-2100</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>47200</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1937,8 +1994,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1969,11 +2029,11 @@
       <c r="L29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="3">
+      <c r="M29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N29" s="3">
         <v>100</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>8</v>
@@ -1981,11 +2041,11 @@
       <c r="P29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="Q29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R29" s="3">
         <v>-5600</v>
-      </c>
-      <c r="R29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>8</v>
@@ -1999,8 +2059,11 @@
       <c r="V29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2061,8 +2124,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2123,132 +2189,141 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>9800</v>
+      </c>
+      <c r="E32" s="3">
         <v>12400</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>13300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>12200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>8800</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>7200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>6500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>7300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>5700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>5600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>12400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>4500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>6600</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>15400</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>8200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>7200</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>11400</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>5400</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>8600</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>44000</v>
+      </c>
+      <c r="E33" s="3">
         <v>37800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-170700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>21800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-1800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>12800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>47700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>39400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>39700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>42800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>57600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>54100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>45800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-59000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>22700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>20200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>16300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-2100</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>47200</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2309,137 +2384,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>44000</v>
+      </c>
+      <c r="E35" s="3">
         <v>37800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-170700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>21800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-1800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>12800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>47700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>39400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>39700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>42800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>57600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>54100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>45800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-59000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>22700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>20200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>16300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-2100</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>47200</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44380</v>
+      </c>
+      <c r="E38" s="2">
         <v>44289</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44198</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44100</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44009</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43918</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43827</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43736</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43645</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43554</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43463</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43372</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43099</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42917</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42826</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42623</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2462,8 +2546,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2486,70 +2571,74 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>345800</v>
+      </c>
+      <c r="E41" s="3">
         <v>364800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>347400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>342000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>422600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>472600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>180600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>125200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>116500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>80600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>143100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>228100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>354900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>257100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>481000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>342700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>412800</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>304100</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>369800</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>530900</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2610,256 +2699,271 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>372000</v>
+      </c>
+      <c r="E43" s="3">
         <v>323600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>268300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>332100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>263800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>323400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>331200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>357300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>363700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>375500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>361200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>364000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>297200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>295300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>271300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>294500</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>287100</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>287700</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>263300</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>309500</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>331700</v>
+      </c>
+      <c r="E44" s="3">
         <v>320900</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>243100</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>325700</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>386500</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>405300</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>348200</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>417700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>406500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>374000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>317600</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>324400</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>293800</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>290500</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>276700</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>338800</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>333700</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>356500</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>348700</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>457600</v>
       </c>
     </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>36900</v>
+      </c>
+      <c r="E45" s="3">
         <v>37900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>45400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>42200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>45700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>50400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>107100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>48400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>42600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>45400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>45800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>32200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>36300</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>37500</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>45300</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>44000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>58900</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>39500</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>49600</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>42600</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1086400</v>
+      </c>
+      <c r="E46" s="3">
         <v>1047200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>904200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1042000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1118600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1251700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>967100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>948600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>929300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>875500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>867700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>948700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>982200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>880400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1074300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1020000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1092500</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>987800</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1031400</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>1340600</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2920,132 +3024,141 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>254800</v>
+      </c>
+      <c r="E48" s="3">
         <v>257500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>267100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>274600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>287300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>296600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>301800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>306900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>296000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>290200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>130900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>131400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>130400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>133700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>136700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>142200</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>150100</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>145100</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>146100</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>148800</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>896500</v>
+      </c>
+      <c r="E49" s="3">
         <v>896200</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>897700</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1116300</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1115200</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>1115400</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>1121200</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>1121100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1125000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1101100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1100800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1105100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1105700</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1109400</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1111300</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>1181500</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>1186400</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>1185000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>1186600</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>1202300</v>
       </c>
     </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3106,8 +3219,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3168,70 +3284,76 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>65900</v>
+      </c>
+      <c r="E52" s="3">
         <v>66400</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>68400</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>68200</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>68300</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>90000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>89900</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>91900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>92600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>84500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>83700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>83900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>82000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>80500</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>76700</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>75000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>71000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>69900</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>67600</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>67300</v>
       </c>
     </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3292,70 +3414,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2303600</v>
+      </c>
+      <c r="E54" s="3">
         <v>2267300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2137400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2501100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2589400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2753700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>2480000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>2468500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2442900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2351300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2183100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2269100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2300300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>2204000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>2399000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>2418700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>2500000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>2387800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>2431700</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>2759000</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3378,8 +3506,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3402,70 +3531,74 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>279200</v>
+      </c>
+      <c r="E57" s="3">
         <v>279300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>185000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>191800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>154900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>137600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>202100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>155600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>212700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>112600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>202300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>139500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>174300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>97200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>162300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>141700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>207600</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>113800</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>150800</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>168000</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3476,306 +3609,321 @@
         <v>10000</v>
       </c>
       <c r="F58" s="3">
+        <v>10000</v>
+      </c>
+      <c r="G58" s="3">
         <v>162500</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>308500</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>802500</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>372500</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>503300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>378000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>336000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>132500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>61500</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>46300</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>42000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>38000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>52500</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>46600</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>43600</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>40400</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>394700</v>
       </c>
     </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>233700</v>
+      </c>
+      <c r="E59" s="3">
         <v>208500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>211000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>205700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>213000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>179600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>212800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>175000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>154200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>143500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>138300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>156600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>150400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>137500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>162000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>136300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>135100</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>122700</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>142500</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>162100</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>522900</v>
+      </c>
+      <c r="E60" s="3">
         <v>497800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>406000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>560000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>676400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1119700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>787400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>833900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>744900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>592100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>473100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>357600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>371000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>276700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>362300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>330500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>389300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>280100</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>333700</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>724800</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>708400</v>
+      </c>
+      <c r="E61" s="3">
         <v>710400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>712500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>714100</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>715900</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>423600</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>425900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>430700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>433000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>435300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>438000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>601000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>615600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>630300</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>744600</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>744200</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>758700</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>769500</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>780300</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>657700</v>
       </c>
     </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>423200</v>
+      </c>
+      <c r="E62" s="3">
         <v>434000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>445900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>461500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>461200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>474500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>488300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>410000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>409800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>406600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>280400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>248200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>298400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>339700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>336900</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>333900</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>343500</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>342700</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>343600</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>335800</v>
       </c>
     </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3836,8 +3984,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3898,8 +4049,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3960,70 +4114,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1670400</v>
+      </c>
+      <c r="E66" s="3">
         <v>1658200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1576000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1747000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1865400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2028100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1713300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1685600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1599200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1439900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1197100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1212800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1290700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1252500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1449400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1417000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1500300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1400300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1465200</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>1726800</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4046,8 +4206,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4108,8 +4269,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4170,8 +4334,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4232,8 +4399,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4294,70 +4464,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>1159600</v>
+      </c>
+      <c r="E72" s="3">
         <v>1123100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>1093300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>1272400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>1258300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>1268100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>1263300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>1273200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1232800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1201200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1169700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1138300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1087100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1039400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>992200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>1058400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>1040900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>1026000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>1015100</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>1022800</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4418,8 +4594,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4480,8 +4659,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4542,70 +4724,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>633200</v>
+      </c>
+      <c r="E76" s="3">
         <v>609100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>561400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>754100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>724000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>725600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>766700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>782900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>843700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>911400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>986000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1056300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1009600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>951500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>949600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1001700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>999700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>987500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>966500</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>1032200</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4666,137 +4854,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44380</v>
+      </c>
+      <c r="E80" s="2">
         <v>44289</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44198</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44100</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44009</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43918</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43827</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43736</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43645</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43554</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43463</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43372</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43099</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42917</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42826</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42623</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>44000</v>
+      </c>
+      <c r="E81" s="3">
         <v>37800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-170700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>21800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-1800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>12800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>47700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>39400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>39700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>42800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>57600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>54100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>45800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-59000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>22700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>20200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>16300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-2100</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>47200</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4819,8 +5016,9 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4828,61 +5026,64 @@
         <v>7200</v>
       </c>
       <c r="E83" s="3">
+        <v>7200</v>
+      </c>
+      <c r="F83" s="3">
         <v>9000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>8400</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>7600</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>7800</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>9400</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>8300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>7800</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>7200</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>8900</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>7500</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>7300</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>7800</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>9200</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>9800</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>9000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>9200</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>13500</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>9700</v>
       </c>
     </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4943,8 +5144,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5005,8 +5209,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5067,8 +5274,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5129,8 +5339,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5191,70 +5404,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>25400</v>
+      </c>
+      <c r="E89" s="3">
         <v>26300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>173600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>96500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>115600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-76600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>206600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>12100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>136300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-132400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>131500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-99100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>126400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-61300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>153200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-58100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>138400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-30800</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>153100</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>70400</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5277,70 +5496,74 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="E91" s="3">
         <v>-2200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-4300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>600</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-3000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-3600</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-5700</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-10400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-10500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-7800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-6400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-7000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-4900</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-3400</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-3700</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-8900</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-8700</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-11100</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-20900</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-6200</v>
       </c>
     </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5401,8 +5624,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5463,70 +5689,76 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="E94" s="3">
         <v>-2700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-3500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>18500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-9300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-8100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-11000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-34500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-7900</v>
-      </c>
-      <c r="M94" s="3">
-        <v>-7400</v>
       </c>
       <c r="N94" s="3">
         <v>-7400</v>
       </c>
       <c r="O94" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="P94" s="3">
         <v>-3300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-4100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-6200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>28200</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-11200</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-11800</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-13900</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5549,40 +5781,41 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-8400</v>
+      </c>
+      <c r="E96" s="3">
         <v>-8500</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-8200</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-8400</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-8000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-9000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-8200</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-8600</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-8900</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-7900</v>
-      </c>
-      <c r="M96" s="3">
-        <v>-7600</v>
       </c>
       <c r="N96" s="3">
         <v>-7600</v>
@@ -5591,13 +5824,13 @@
         <v>-7600</v>
       </c>
       <c r="P96" s="3">
+        <v>-7600</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-5800</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-5600</v>
-      </c>
-      <c r="R96" s="3">
-        <v>-5800</v>
       </c>
       <c r="S96" s="3">
         <v>-5800</v>
@@ -5609,10 +5842,13 @@
         <v>-5800</v>
       </c>
       <c r="V96" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="W96" s="3">
         <v>-5900</v>
       </c>
     </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5673,8 +5909,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5735,8 +5974,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5797,190 +6039,202 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-40200</v>
+      </c>
+      <c r="E100" s="3">
         <v>-4900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-169400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-179700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-184200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>379300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-144000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>8400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-66500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>77500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-207100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-20700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-17600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-159100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-10600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-41700</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-21900</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-23800</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-296000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>237800</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E101" s="3">
         <v>-1300</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>4700</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>2200</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>100</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-1400</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>900</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-800</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>600</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>300</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-2000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>400</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-7700</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>600</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>1900</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>1500</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>3400</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>700</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-4300</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-19000</v>
+      </c>
+      <c r="E102" s="3">
         <v>17400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>5400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-80600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-50000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>292000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>55400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>8700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>35900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-62500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-85000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-126800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>97800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-223900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>138300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-70100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>108700</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-65700</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-161100</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>309200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/WWW_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WWW_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="92">
   <si>
     <t>WWW</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,293 +665,305 @@
     <col min="1" max="1" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="7" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44471</v>
+      </c>
+      <c r="E7" s="2">
         <v>44380</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44289</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44198</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44100</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44009</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43918</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43827</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43736</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43645</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43554</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43463</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43372</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43099</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42917</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42826</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42623</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>636700</v>
+      </c>
+      <c r="E8" s="3">
         <v>631900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>510700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>509600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>493100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>349100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>439300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>607400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>574300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>568600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>523400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>579600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>558600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>566900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>534100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>578600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>581300</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>598800</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>591300</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>729600</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>603700</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>361900</v>
+      </c>
+      <c r="E9" s="3">
         <v>361500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>288400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>305000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>291100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>201900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>257500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>377500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>331000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>338200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>303200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>352500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>326500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>332700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>306200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>355800</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>349400</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>369400</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>352000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>458300</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>366100</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>274800</v>
+      </c>
+      <c r="E10" s="3">
         <v>270400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>222300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>204600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>202000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>147200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>181800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>229900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>243300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>230400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>220200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>227100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>232100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>234200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>227900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>222800</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>231900</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>229400</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>239300</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>271300</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>237600</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -975,8 +987,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1040,8 +1053,11 @@
       <c r="W12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1105,34 +1121,37 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3" t="s">
+        <v>34000</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>227500</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>200</v>
       </c>
-      <c r="I14" s="3" t="s">
+      <c r="J14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>8</v>
+      <c r="K14" s="3">
+        <v>0</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>8</v>
@@ -1140,12 +1159,12 @@
       <c r="M14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N14" s="3">
+      <c r="N14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O14" s="3">
         <v>600</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
       <c r="P14" s="3">
         <v>0</v>
       </c>
@@ -1153,25 +1172,28 @@
         <v>0</v>
       </c>
       <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
         <v>76600</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>24200</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>25100</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>24600</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>50300</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1235,8 +1257,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1257,138 +1282,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>628200</v>
+      </c>
+      <c r="E17" s="3">
         <v>568100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>452600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>719000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>450500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>341800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>422400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>612600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>506000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>513100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>471000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>526300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>490200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>498800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>472600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>644100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>546000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>569600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>558700</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>732100</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>535200</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>8500</v>
+      </c>
+      <c r="E18" s="3">
         <v>63800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>58100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-209400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>42600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>7300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>16900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-5200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>68300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>55500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>52400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>53300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>68400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>68100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>61500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-65500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>35300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>29200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>32600</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-2500</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>68500</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1412,138 +1444,145 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-9200</v>
+      </c>
+      <c r="E20" s="3">
         <v>-9800</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-12400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-13300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-12200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-8800</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-7200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-6500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-7300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-5700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-5600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-12400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-4500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-400</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-6600</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-15400</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-8200</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-7200</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-11400</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-5400</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-8600</v>
       </c>
     </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>8000</v>
+      </c>
+      <c r="E21" s="3">
         <v>61200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>52900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-213700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>38800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>6100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>17500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-2300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>69300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>57600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>54000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>49800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>71400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>75000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>62700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-71700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>36900</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>31000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>30400</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>5600</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>69600</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1607,138 +1646,147 @@
       <c r="W22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E23" s="3">
         <v>54000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>45700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-222700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>30400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-1500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>9700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-11700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>61000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>49800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>46800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>40900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>63900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>67700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>54900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-80900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>27100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>22000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>21200</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-7900</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>59900</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>100</v>
+      </c>
+      <c r="E24" s="3">
         <v>9600</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>7300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-51500</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>8700</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-3100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-11200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>12400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>9600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>6200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>1600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>5000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>12200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>8300</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-25700</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>4300</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>1500</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>4400</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-5500</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>11700</v>
       </c>
     </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1802,138 +1850,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E26" s="3">
         <v>44400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>38400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-171200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>21700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-1900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>12800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>48600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>40200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>40600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>39300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>58900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>55500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>46600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-55200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>22800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>20500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>16800</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-2400</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>48200</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E27" s="3">
         <v>44000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>37800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-170700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>21800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-1800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>12800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>47700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>39400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>39700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>42700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>57600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>54100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>45800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-53400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>22700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>20200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>16300</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-2100</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>47200</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1997,8 +2054,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2032,11 +2092,11 @@
       <c r="M29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N29" s="3">
+      <c r="N29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O29" s="3">
         <v>100</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>8</v>
@@ -2044,11 +2104,11 @@
       <c r="Q29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R29" s="3">
+      <c r="R29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S29" s="3">
         <v>-5600</v>
-      </c>
-      <c r="S29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>8</v>
@@ -2062,8 +2122,11 @@
       <c r="W29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2127,8 +2190,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2192,138 +2258,147 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>9200</v>
+      </c>
+      <c r="E32" s="3">
         <v>9800</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>12400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>13300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>12200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>8800</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>7200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>6500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>7300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>5700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>5600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>12400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>4500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>400</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>6600</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>15400</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>8200</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>7200</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>11400</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>5400</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>8600</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E33" s="3">
         <v>44000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>37800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-170700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>21800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-1800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>12800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>47700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>39400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>39700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>42800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>57600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>54100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>45800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-59000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>22700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>20200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>16300</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-2100</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>47200</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2387,143 +2462,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E35" s="3">
         <v>44000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>37800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-170700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>21800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-1800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>12800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>47700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>39400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>39700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>42800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>57600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>54100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>45800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-59000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>22700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>20200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>16300</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-2100</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>47200</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44471</v>
+      </c>
+      <c r="E38" s="2">
         <v>44380</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44289</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44198</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44100</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44009</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43918</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43827</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43736</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43645</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43554</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43463</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43372</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43099</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42917</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42826</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42623</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2547,8 +2631,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2572,73 +2657,77 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>183600</v>
+      </c>
+      <c r="E41" s="3">
         <v>345800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>364800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>347400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>342000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>422600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>472600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>180600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>125200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>116500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>80600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>143100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>228100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>354900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>257100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>481000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>342700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>412800</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>304100</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>369800</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>530900</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2702,268 +2791,283 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>362600</v>
+      </c>
+      <c r="E43" s="3">
         <v>372000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>323600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>268300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>332100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>263800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>323400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>331200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>357300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>363700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>375500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>361200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>364000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>297200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>295300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>271300</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>294500</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>287100</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>287700</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>263300</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>309500</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>412000</v>
+      </c>
+      <c r="E44" s="3">
         <v>331700</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>320900</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>243100</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>325700</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>386500</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>405300</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>348200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>417700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>406500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>374000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>317600</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>324400</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>293800</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>290500</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>276700</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>338800</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>333700</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>356500</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>348700</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>457600</v>
       </c>
     </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>44400</v>
+      </c>
+      <c r="E45" s="3">
         <v>36900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>37900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>45400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>42200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>45700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>50400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>107100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>48400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>42600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>45400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>45800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>32200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>36300</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>37500</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>45300</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>44000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>58900</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>39500</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>49600</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>42600</v>
       </c>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1002600</v>
+      </c>
+      <c r="E46" s="3">
         <v>1086400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1047200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>904200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1042000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1118600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1251700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>967100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>948600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>929300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>875500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>867700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>948700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>982200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>880400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1074300</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1020000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1092500</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>987800</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>1031400</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>1340600</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3027,138 +3131,147 @@
       <c r="W47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>262000</v>
+      </c>
+      <c r="E48" s="3">
         <v>254800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>257500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>267100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>274600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>287300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>296600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>301800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>306900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>296000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>290200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>130900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>131400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>130400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>133700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>136700</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>142200</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>150100</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>145100</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>146100</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>148800</v>
       </c>
     </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1350600</v>
+      </c>
+      <c r="E49" s="3">
         <v>896500</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>896200</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>897700</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1116300</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>1115200</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>1115400</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>1121200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1121100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1125000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1101100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1100800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1105100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1105700</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1109400</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>1111300</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>1181500</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>1186400</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>1185000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>1186600</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>1202300</v>
       </c>
     </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3222,8 +3335,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3287,73 +3403,79 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>66200</v>
+      </c>
+      <c r="E52" s="3">
         <v>65900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>66400</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>68400</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>68200</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>68300</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>90000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>89900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>91900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>92600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>84500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>83700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>83900</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>82000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>80500</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>76700</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>75000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>71000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>69900</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>67600</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>67300</v>
       </c>
     </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3417,73 +3539,79 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2681400</v>
+      </c>
+      <c r="E54" s="3">
         <v>2303600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2267300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2137400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2501100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2589400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>2753700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>2480000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2468500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2442900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2351300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2183100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2269100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>2300300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>2204000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>2399000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>2418700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>2500000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>2387800</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>2431700</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>2759000</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3507,8 +3635,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3532,78 +3661,82 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>265100</v>
+      </c>
+      <c r="E57" s="3">
         <v>279200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>279300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>185000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>191800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>154900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>137600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>202100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>155600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>212700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>112600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>202300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>139500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>174300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>97200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>162300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>141700</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>207600</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>113800</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>150800</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>168000</v>
       </c>
     </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>10000</v>
+        <v>320000</v>
       </c>
       <c r="E58" s="3">
         <v>10000</v>
@@ -3612,318 +3745,333 @@
         <v>10000</v>
       </c>
       <c r="G58" s="3">
+        <v>10000</v>
+      </c>
+      <c r="H58" s="3">
         <v>162500</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>308500</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>802500</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>372500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>503300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>378000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>336000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>132500</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>61500</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>46300</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>42000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>38000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>52500</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>46600</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>43600</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>40400</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>394700</v>
       </c>
     </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>267000</v>
+      </c>
+      <c r="E59" s="3">
         <v>233700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>208500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>211000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>205700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>213000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>179600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>212800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>175000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>154200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>143500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>138300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>156600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>150400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>137500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>162000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>136300</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>135100</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>122700</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>142500</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>162100</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>852100</v>
+      </c>
+      <c r="E60" s="3">
         <v>522900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>497800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>406000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>560000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>676400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1119700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>787400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>833900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>744900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>592100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>473100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>357600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>371000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>276700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>362300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>330500</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>389300</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>280100</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>333700</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>724800</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>704400</v>
+      </c>
+      <c r="E61" s="3">
         <v>708400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>710400</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>712500</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>714100</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>715900</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>423600</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>425900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>430700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>433000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>435300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>438000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>601000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>615600</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>630300</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>744600</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>744200</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>758700</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>769500</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>780300</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>657700</v>
       </c>
     </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>483000</v>
+      </c>
+      <c r="E62" s="3">
         <v>423200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>434000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>445900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>461500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>461200</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>474500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>488300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>410000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>409800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>406600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>280400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>248200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>298400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>339700</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>336900</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>333900</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>343500</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>342700</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>343600</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>335800</v>
       </c>
     </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3987,8 +4135,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4052,8 +4203,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4117,73 +4271,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2054700</v>
+      </c>
+      <c r="E66" s="3">
         <v>1670400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1658200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1576000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1747000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1865400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2028100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1713300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1685600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1599200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1439900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1197100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1212800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1290700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1252500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1449400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1417000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1500300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1400300</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>1465200</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>1726800</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4207,8 +4367,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4272,8 +4433,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4337,8 +4501,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4402,8 +4569,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4467,73 +4637,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>1151200</v>
+      </c>
+      <c r="E72" s="3">
         <v>1159600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>1123100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>1093300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>1272400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>1258300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>1268100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>1263300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1273200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1232800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1201200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1169700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1138300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1087100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>1039400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>992200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>1058400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>1040900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>1026000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>1015100</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>1022800</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4597,8 +4773,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4662,8 +4841,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4727,73 +4909,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>626700</v>
+      </c>
+      <c r="E76" s="3">
         <v>633200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>609100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>561400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>754100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>724000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>725600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>766700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>782900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>843700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>911400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>986000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1056300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1009600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>951500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>949600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1001700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>999700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>987500</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>966500</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>1032200</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4857,143 +5045,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44471</v>
+      </c>
+      <c r="E80" s="2">
         <v>44380</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44289</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44198</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44100</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44009</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43918</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43827</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43736</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43645</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43554</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43463</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43372</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43099</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42917</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42826</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42623</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E81" s="3">
         <v>44000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>37800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-170700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>21800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-1800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>12800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>47700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>39400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>39700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>42800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>57600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>54100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>45800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-59000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>22700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>20200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>16300</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-2100</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>47200</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5017,73 +5214,77 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>7200</v>
+        <v>8700</v>
       </c>
       <c r="E83" s="3">
         <v>7200</v>
       </c>
       <c r="F83" s="3">
+        <v>7200</v>
+      </c>
+      <c r="G83" s="3">
         <v>9000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>8400</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>7600</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>7800</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>9400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>8300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>7800</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>7200</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>8900</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>7500</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>7300</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>7800</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>9200</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>9800</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>9000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>9200</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>13500</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>9700</v>
       </c>
     </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5147,8 +5348,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5212,8 +5416,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5277,8 +5484,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5342,8 +5552,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5407,73 +5620,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-34700</v>
+      </c>
+      <c r="E89" s="3">
         <v>25400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>26300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>173600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>96500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>115600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-76600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>206600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>12100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>136300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-132400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>131500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-99100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>126400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-61300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>153200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-58100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>138400</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-30800</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>153100</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>70400</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5497,73 +5716,77 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-4500</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-2200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-4300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>600</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-3000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-3600</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-5700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-10400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-10500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-7800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-6400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-7000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-4900</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-3400</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-3700</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-8900</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-8700</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-11100</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-20900</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-6200</v>
       </c>
     </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5627,8 +5850,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5692,73 +5918,79 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-421600</v>
+      </c>
+      <c r="E94" s="3">
         <v>-5400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-2700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-3500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>18500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-9300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-8100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-11000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-34500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-7900</v>
-      </c>
-      <c r="N94" s="3">
-        <v>-7400</v>
       </c>
       <c r="O94" s="3">
         <v>-7400</v>
       </c>
       <c r="P94" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="Q94" s="3">
         <v>-3300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-4100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-6200</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>28200</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-11200</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-11800</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-13900</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5782,43 +6014,44 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-8300</v>
+      </c>
+      <c r="E96" s="3">
         <v>-8400</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-8500</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-8200</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-8400</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-8000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-9000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-8200</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-8600</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-8900</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-7900</v>
-      </c>
-      <c r="N96" s="3">
-        <v>-7600</v>
       </c>
       <c r="O96" s="3">
         <v>-7600</v>
@@ -5827,13 +6060,13 @@
         <v>-7600</v>
       </c>
       <c r="Q96" s="3">
+        <v>-7600</v>
+      </c>
+      <c r="R96" s="3">
         <v>-5800</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-5600</v>
-      </c>
-      <c r="S96" s="3">
-        <v>-5800</v>
       </c>
       <c r="T96" s="3">
         <v>-5800</v>
@@ -5845,10 +6078,13 @@
         <v>-5800</v>
       </c>
       <c r="W96" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="X96" s="3">
         <v>-5900</v>
       </c>
     </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5912,8 +6148,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5977,8 +6216,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6042,199 +6284,211 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>294800</v>
+      </c>
+      <c r="E100" s="3">
         <v>-40200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-4900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-169400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-179700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-184200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>379300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-144000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>8400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-66500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>77500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-207100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-20700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-17600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-159100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-10600</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-41700</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-21900</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-23800</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-296000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>237800</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E101" s="3">
         <v>1200</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-1300</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>4700</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>2200</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>100</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-1400</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>900</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-800</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>600</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>300</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-2000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>400</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-7700</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>600</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>1900</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>1500</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>3400</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>700</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-4300</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-162200</v>
+      </c>
+      <c r="E102" s="3">
         <v>-19000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>17400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>5400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-80600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-50000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>292000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>55400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>8700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>35900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-62500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-85000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-126800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>97800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-223900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>138300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-70100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>108700</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-65700</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-161100</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>309200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/WWW_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WWW_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="92">
   <si>
     <t>WWW</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,305 +665,317 @@
     <col min="1" max="1" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="8" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44562</v>
+      </c>
+      <c r="E7" s="2">
         <v>44471</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44380</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44289</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44198</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44100</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44009</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43918</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43827</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43736</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43645</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43554</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43463</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43372</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43099</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42917</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42826</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42623</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>635600</v>
+      </c>
+      <c r="E8" s="3">
         <v>636700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>631900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>510700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>509600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>493100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>349100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>439300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>607400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>574300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>568600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>523400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>579600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>558600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>566900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>534100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>578600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>581300</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>598800</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>591300</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>729600</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>603700</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>373200</v>
+      </c>
+      <c r="E9" s="3">
         <v>361900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>361500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>288400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>305000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>291100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>201900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>257500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>377500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>331000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>338200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>303200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>352500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>326500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>332700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>306200</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>355800</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>349400</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>369400</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>352000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>458300</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>366100</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>262400</v>
+      </c>
+      <c r="E10" s="3">
         <v>274800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>270400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>222300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>204600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>202000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>147200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>181800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>229900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>243300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>230400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>220200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>227100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>232100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>234200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>227900</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>222800</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>231900</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>229400</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>239300</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>271300</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>237600</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -988,8 +1000,9 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1056,8 +1069,11 @@
       <c r="X12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1124,37 +1140,40 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>300</v>
+      </c>
+      <c r="E14" s="3">
         <v>34000</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>227500</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>200</v>
       </c>
-      <c r="J14" s="3" t="s">
+      <c r="K14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>8</v>
+      <c r="L14" s="3">
+        <v>0</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>8</v>
@@ -1162,12 +1181,12 @@
       <c r="N14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O14" s="3">
+      <c r="O14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P14" s="3">
         <v>600</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
       <c r="Q14" s="3">
         <v>0</v>
       </c>
@@ -1175,25 +1194,28 @@
         <v>0</v>
       </c>
       <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
         <v>76600</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>24200</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>25100</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>24600</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>50300</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1260,8 +1282,11 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1283,144 +1308,151 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>644600</v>
+      </c>
+      <c r="E17" s="3">
         <v>628200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>568100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>452600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>719000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>450500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>341800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>422400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>612600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>506000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>513100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>471000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>526300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>490200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>498800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>472600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>644100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>546000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>569600</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>558700</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>732100</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>535200</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-9000</v>
+      </c>
+      <c r="E18" s="3">
         <v>8500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>63800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>58100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-209400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>42600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>7300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>16900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-5200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>68300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>55500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>52400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>53300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>68400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>68100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>61500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-65500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>35300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>29200</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>32600</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-2500</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>68500</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1445,144 +1477,151 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-9700</v>
+      </c>
+      <c r="E20" s="3">
         <v>-9200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-9800</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-12400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-13300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-12200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-8800</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-7200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-6500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-7300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-5700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-5600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-12400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-4500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-400</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-6600</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-15400</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-8200</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-7200</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-11400</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-5400</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-8600</v>
       </c>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-8600</v>
+      </c>
+      <c r="E21" s="3">
         <v>8000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>61200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>52900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-213700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>38800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>6100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>17500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-2300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>69300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>57600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>54000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>49800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>71400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>75000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>62700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-71700</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>36900</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>31000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>30400</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>5600</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>69600</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1649,144 +1688,153 @@
       <c r="X22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-18700</v>
+      </c>
+      <c r="E23" s="3">
         <v>-700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>54000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>45700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-222700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>30400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-1500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>9700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-11700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>61000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>49800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>46800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>40900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>63900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>67700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>54900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-80900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>27100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>22000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>21200</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-7900</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>59900</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="E24" s="3">
         <v>100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>9600</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>7300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-51500</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>8700</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-3100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-11200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>12400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>9600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>6200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>1600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>5000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>12200</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>8300</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-25700</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>4300</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>1500</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>4400</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>-5500</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>11700</v>
       </c>
     </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1853,144 +1901,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-15000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>44400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>38400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-171200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>21700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-1900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>12800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>48600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>40200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>40600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>39300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>58900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>55500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>46600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-55200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>22800</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>20500</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>16800</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-2400</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>48200</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-14300</v>
+      </c>
+      <c r="E27" s="3">
         <v>-200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>44000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>37800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-170700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>21800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-1800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>12800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>47700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>39400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>39700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>42700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>57600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>54100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>45800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-53400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>22700</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>20200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>16300</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-2100</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>47200</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2057,8 +2114,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2095,11 +2155,11 @@
       <c r="N29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O29" s="3">
+      <c r="O29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P29" s="3">
         <v>100</v>
-      </c>
-      <c r="P29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>8</v>
@@ -2107,11 +2167,11 @@
       <c r="R29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S29" s="3">
+      <c r="S29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T29" s="3">
         <v>-5600</v>
-      </c>
-      <c r="T29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="U29" s="3" t="s">
         <v>8</v>
@@ -2125,8 +2185,11 @@
       <c r="X29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2193,8 +2256,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2261,144 +2327,153 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>9700</v>
+      </c>
+      <c r="E32" s="3">
         <v>9200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>9800</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>12400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>13300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>12200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>8800</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>7200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>6500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>7300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>5700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>5600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>12400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>4500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>400</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>6600</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>15400</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>8200</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>7200</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>11400</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>5400</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>8600</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-14300</v>
+      </c>
+      <c r="E33" s="3">
         <v>-200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>44000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>37800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-170700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>21800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-1800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>12800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>47700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>39400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>39700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>42800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>57600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>54100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>45800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-59000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>22700</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>20200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>16300</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-2100</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>47200</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2465,149 +2540,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-14300</v>
+      </c>
+      <c r="E35" s="3">
         <v>-200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>44000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>37800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-170700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>21800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-1800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>12800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>47700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>39400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>39700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>42800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>57600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>54100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>45800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-59000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>22700</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>20200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>16300</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-2100</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>47200</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44562</v>
+      </c>
+      <c r="E38" s="2">
         <v>44471</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44380</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44289</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44198</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44100</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44009</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43918</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43827</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43736</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43645</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43554</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43463</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43372</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43099</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42917</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42826</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42623</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2632,8 +2716,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2658,76 +2743,80 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>161700</v>
+      </c>
+      <c r="E41" s="3">
         <v>183600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>345800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>364800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>347400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>342000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>422600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>472600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>180600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>125200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>116500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>80600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>143100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>228100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>354900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>257100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>481000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>342700</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>412800</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>304100</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>369800</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>530900</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2794,280 +2883,295 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>319600</v>
+      </c>
+      <c r="E43" s="3">
         <v>362600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>372000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>323600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>268300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>332100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>263800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>323400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>331200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>357300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>363700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>375500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>361200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>364000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>297200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>295300</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>271300</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>294500</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>287100</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>287700</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>263300</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>309500</v>
       </c>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>365500</v>
+      </c>
+      <c r="E44" s="3">
         <v>412000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>331700</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>320900</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>243100</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>325700</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>386500</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>405300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>348200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>417700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>406500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>374000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>317600</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>324400</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>293800</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>290500</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>276700</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>338800</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>333700</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>356500</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>348700</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>457600</v>
       </c>
     </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>56900</v>
+      </c>
+      <c r="E45" s="3">
         <v>44400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>36900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>37900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>45400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>42200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>45700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>50400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>107100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>48400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>42600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>45400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>45800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>32200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>36300</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>37500</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>45300</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>44000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>58900</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>39500</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>49600</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>42600</v>
       </c>
     </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>903700</v>
+      </c>
+      <c r="E46" s="3">
         <v>1002600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1086400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1047200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>904200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1042000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1118600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1251700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>967100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>948600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>929300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>875500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>867700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>948700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>982200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>880400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1074300</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1020000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1092500</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>987800</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>1031400</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>1340600</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3134,144 +3238,153 @@
       <c r="X47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>267200</v>
+      </c>
+      <c r="E48" s="3">
         <v>262000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>254800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>257500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>267100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>274600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>287300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>296600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>301800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>306900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>296000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>290200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>130900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>131400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>130400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>133700</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>136700</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>142200</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>150100</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>145100</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>146100</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>148800</v>
       </c>
     </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1349300</v>
+      </c>
+      <c r="E49" s="3">
         <v>1350600</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>896500</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>896200</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>897700</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>1116300</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>1115200</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>1115400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1121200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1121100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1125000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1101100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1100800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1105100</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1105700</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>1109400</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>1111300</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>1181500</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>1186400</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>1185000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>1186600</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>1202300</v>
       </c>
     </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3338,8 +3451,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3406,8 +3522,11 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3415,67 +3534,70 @@
         <v>66200</v>
       </c>
       <c r="E52" s="3">
+        <v>66200</v>
+      </c>
+      <c r="F52" s="3">
         <v>65900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>66400</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>68400</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>68200</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>68300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>90000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>89900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>91900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>92600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>84500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>83700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>83900</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>82000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>80500</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>76700</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>75000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>71000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>69900</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>67600</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>67300</v>
       </c>
     </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3542,76 +3664,82 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2586400</v>
+      </c>
+      <c r="E54" s="3">
         <v>2681400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2303600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2267300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2137400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2501100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>2589400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>2753700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2480000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2468500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2442900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2351300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2183100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>2269100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>2300300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>2204000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>2399000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>2418700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>2500000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>2387800</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>2431700</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>2759000</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3636,8 +3764,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3662,84 +3791,88 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>222100</v>
+      </c>
+      <c r="E57" s="3">
         <v>265100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>279200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>279300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>185000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>191800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>154900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>137600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>202100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>155600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>212700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>112600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>202300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>139500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>174300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>97200</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>162300</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>141700</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>207600</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>113800</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>150800</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>168000</v>
       </c>
     </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>235000</v>
+      </c>
+      <c r="E58" s="3">
         <v>320000</v>
-      </c>
-      <c r="E58" s="3">
-        <v>10000</v>
       </c>
       <c r="F58" s="3">
         <v>10000</v>
@@ -3748,330 +3881,345 @@
         <v>10000</v>
       </c>
       <c r="H58" s="3">
+        <v>10000</v>
+      </c>
+      <c r="I58" s="3">
         <v>162500</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>308500</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>802500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>372500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>503300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>378000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>336000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>132500</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>61500</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>46300</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>42000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>38000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>52500</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>46600</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>43600</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>40400</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>394700</v>
       </c>
     </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>302500</v>
+      </c>
+      <c r="E59" s="3">
         <v>267000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>233700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>208500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>211000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>205700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>213000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>179600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>212800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>175000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>154200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>143500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>138300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>156600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>150400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>137500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>162000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>136300</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>135100</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>122700</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>142500</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>162100</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>759600</v>
+      </c>
+      <c r="E60" s="3">
         <v>852100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>522900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>497800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>406000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>560000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>676400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1119700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>787400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>833900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>744900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>592100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>473100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>357600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>371000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>276700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>362300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>330500</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>389300</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>280100</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>333700</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>724800</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>731800</v>
+      </c>
+      <c r="E61" s="3">
         <v>704400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>708400</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>710400</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>712500</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>714100</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>715900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>423600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>425900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>430700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>433000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>435300</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>438000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>601000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>615600</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>630300</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>744600</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>744200</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>758700</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>769500</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>780300</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>657700</v>
       </c>
     </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>450600</v>
+      </c>
+      <c r="E62" s="3">
         <v>483000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>423200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>434000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>445900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>461500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>461200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>474500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>488300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>410000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>409800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>406600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>280400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>248200</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>298400</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>339700</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>336900</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>333900</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>343500</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>342700</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>343600</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>335800</v>
       </c>
     </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4138,8 +4286,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4206,8 +4357,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4274,76 +4428,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1956800</v>
+      </c>
+      <c r="E66" s="3">
         <v>2054700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1670400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1658200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1576000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1747000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1865400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2028100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1713300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1685600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1599200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1439900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1197100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1212800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1290700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1252500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1449400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1417000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1500300</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>1400300</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>1465200</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>1726800</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4368,8 +4528,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4436,8 +4597,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4504,8 +4668,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4572,8 +4739,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4640,76 +4810,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>1128200</v>
+      </c>
+      <c r="E72" s="3">
         <v>1151200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>1159600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>1123100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>1093300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>1272400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>1258300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>1268100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1263300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1273200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1232800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1201200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1169700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1138300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>1087100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>1039400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>992200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>1058400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>1040900</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>1026000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>1015100</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>1022800</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4776,8 +4952,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4844,8 +5023,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4912,76 +5094,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>629600</v>
+      </c>
+      <c r="E76" s="3">
         <v>626700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>633200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>609100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>561400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>754100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>724000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>725600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>766700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>782900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>843700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>911400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>986000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1056300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1009600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>951500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>949600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1001700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>999700</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>987500</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>966500</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>1032200</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5048,149 +5236,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44562</v>
+      </c>
+      <c r="E80" s="2">
         <v>44471</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44380</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44289</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44198</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44100</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44009</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43918</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43827</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43736</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43645</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43554</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43463</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43372</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43099</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42917</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42826</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42623</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-14300</v>
+      </c>
+      <c r="E81" s="3">
         <v>-200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>44000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>37800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-170700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>21800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-1800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>12800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>47700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>39400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>39700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>42800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>57600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>54100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>45800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-59000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>22700</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>20200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>16300</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-2100</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>47200</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5215,76 +5412,80 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>10100</v>
+      </c>
+      <c r="E83" s="3">
         <v>8700</v>
-      </c>
-      <c r="E83" s="3">
-        <v>7200</v>
       </c>
       <c r="F83" s="3">
         <v>7200</v>
       </c>
       <c r="G83" s="3">
+        <v>7200</v>
+      </c>
+      <c r="H83" s="3">
         <v>9000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>8400</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>7600</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>7800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>9400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>8300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>7800</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>7200</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>8900</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>7500</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>7300</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>7800</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>9200</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>9800</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>9000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>9200</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>13500</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>9700</v>
       </c>
     </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5351,8 +5552,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5419,8 +5623,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5487,8 +5694,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5555,8 +5765,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5623,76 +5836,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>69800</v>
+      </c>
+      <c r="E89" s="3">
         <v>-34700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>25400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>26300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>173600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>96500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>115600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-76600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>206600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>12100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>136300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-132400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>131500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-99100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>126400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-61300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>153200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-58100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>138400</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-30800</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>153100</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>70400</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5717,76 +5936,80 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-7600</v>
+      </c>
+      <c r="E91" s="3">
         <v>-3300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-4500</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-2200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-4300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>600</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-3000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-3600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-5700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-10400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-10500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-7800</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-6400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-7000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-4900</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-3400</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-3700</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-8900</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-8700</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-11100</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-20900</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-6200</v>
       </c>
     </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5853,8 +6076,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5921,76 +6147,82 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-7600</v>
+      </c>
+      <c r="E94" s="3">
         <v>-421600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-5400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-2700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-3500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>18500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-9300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-8100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-11000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-34500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-7900</v>
-      </c>
-      <c r="O94" s="3">
-        <v>-7400</v>
       </c>
       <c r="P94" s="3">
         <v>-7400</v>
       </c>
       <c r="Q94" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="R94" s="3">
         <v>-3300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-4100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-6200</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>28200</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-11200</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-11800</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-13900</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6015,8 +6247,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6024,37 +6257,37 @@
         <v>-8300</v>
       </c>
       <c r="E96" s="3">
+        <v>-8300</v>
+      </c>
+      <c r="F96" s="3">
         <v>-8400</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-8500</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-8200</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-8400</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-8000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-9000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-8200</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-8600</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-8900</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-7900</v>
-      </c>
-      <c r="O96" s="3">
-        <v>-7600</v>
       </c>
       <c r="P96" s="3">
         <v>-7600</v>
@@ -6063,13 +6296,13 @@
         <v>-7600</v>
       </c>
       <c r="R96" s="3">
+        <v>-7600</v>
+      </c>
+      <c r="S96" s="3">
         <v>-5800</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-5600</v>
-      </c>
-      <c r="T96" s="3">
-        <v>-5800</v>
       </c>
       <c r="U96" s="3">
         <v>-5800</v>
@@ -6081,10 +6314,13 @@
         <v>-5800</v>
       </c>
       <c r="X96" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="Y96" s="3">
         <v>-5900</v>
       </c>
     </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6151,8 +6387,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6219,8 +6458,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6287,208 +6529,220 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-80400</v>
+      </c>
+      <c r="E100" s="3">
         <v>294800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-40200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-4900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-169400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-179700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-184200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>379300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-144000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>8400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-66500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>77500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-207100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-20700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-17600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-159100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-10600</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-41700</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-21900</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-23800</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-296000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>237800</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="E101" s="3">
         <v>-700</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>1200</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-1300</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>4700</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>2200</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>100</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-1400</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>900</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-800</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>600</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>300</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-2000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>400</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-7700</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>600</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>1900</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>1500</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>3400</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>700</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-4300</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-21900</v>
+      </c>
+      <c r="E102" s="3">
         <v>-162200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-19000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>17400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>5400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-80600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-50000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>292000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>55400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>8700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>35900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-62500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-85000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-126800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>97800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-223900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>138300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-70100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>108700</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-65700</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-161100</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>309200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/WWW_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WWW_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="92">
   <si>
     <t>WWW</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,317 +665,329 @@
     <col min="1" max="1" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="9" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44653</v>
+      </c>
+      <c r="E7" s="2">
         <v>44562</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44471</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44380</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44289</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44198</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44100</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44009</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43918</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43827</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43736</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43645</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43554</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43463</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43372</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43099</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42917</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42826</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42735</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42623</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>614800</v>
+      </c>
+      <c r="E8" s="3">
         <v>635600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>636700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>631900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>510700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>509600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>493100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>349100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>439300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>607400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>574300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>568600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>523400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>579600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>558600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>566900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>534100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>578600</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>581300</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>598800</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>591300</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>729600</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>603700</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>353500</v>
+      </c>
+      <c r="E9" s="3">
         <v>373200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>361900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>361500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>288400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>305000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>291100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>201900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>257500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>377500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>331000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>338200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>303200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>352500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>326500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>332700</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>306200</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>355800</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>349400</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>369400</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>352000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>458300</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>366100</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>261300</v>
+      </c>
+      <c r="E10" s="3">
         <v>262400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>274800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>270400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>222300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>204600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>202000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>147200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>181800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>229900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>243300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>230400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>220200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>227100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>232100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>234200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>227900</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>222800</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>231900</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>229400</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>239300</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>271300</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>237600</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1001,8 +1013,9 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1072,8 +1085,11 @@
       <c r="Y12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1143,40 +1159,43 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="3">
         <v>300</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>34000</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3" t="s">
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>227500</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>200</v>
       </c>
-      <c r="K14" s="3" t="s">
+      <c r="L14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>8</v>
+      <c r="M14" s="3">
+        <v>0</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>8</v>
@@ -1184,12 +1203,12 @@
       <c r="O14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P14" s="3">
+      <c r="P14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q14" s="3">
         <v>600</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
       <c r="R14" s="3">
         <v>0</v>
       </c>
@@ -1197,25 +1216,28 @@
         <v>0</v>
       </c>
       <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
         <v>76600</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>24200</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>25100</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>24600</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>50300</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1285,8 +1307,11 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1309,150 +1334,157 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>595200</v>
+      </c>
+      <c r="E17" s="3">
         <v>644600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>628200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>568100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>452600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>719000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>450500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>341800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>422400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>612600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>506000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>513100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>471000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>526300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>490200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>498800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>472600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>644100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>546000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>569600</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>558700</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>732100</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>535200</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>19600</v>
+      </c>
+      <c r="E18" s="3">
         <v>-9000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>8500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>63800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>58100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-209400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>42600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>7300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>16900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-5200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>68300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>55500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>52400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>53300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>68400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>68100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>61500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-65500</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>35300</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>29200</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>32600</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-2500</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>68500</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1478,150 +1510,157 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-7600</v>
+      </c>
+      <c r="E20" s="3">
         <v>-9700</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-9200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-9800</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-12400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-13300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-12200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-8800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-7200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-6500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-7300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-5700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-5600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-12400</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-4500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-400</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-6600</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-15400</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-8200</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-7200</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-11400</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-5400</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-8600</v>
       </c>
     </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>20500</v>
+      </c>
+      <c r="E21" s="3">
         <v>-8600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>8000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>61200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>52900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-213700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>38800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>6100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>17500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-2300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>69300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>57600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>54000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>49800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>71400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>75000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>62700</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-71700</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>36900</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>31000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>30400</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>5600</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>69600</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1691,150 +1730,159 @@
       <c r="Y22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>12000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-18700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>54000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>45700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-222700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>30400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-1500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>9700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-11700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>61000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>49800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>46800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>40900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>63900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>67700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>54900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-80900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>27100</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>22000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>21200</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-7900</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>59900</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E24" s="3">
         <v>-3700</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>9600</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>7300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-51500</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>8700</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-3100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-11200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>12400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>9600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>6200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>1600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>5000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>12200</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>8300</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-25700</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>4300</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>1500</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>4400</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>-5500</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>11700</v>
       </c>
     </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1904,150 +1952,159 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>8400</v>
+      </c>
+      <c r="E26" s="3">
         <v>-15000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>44400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>38400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-171200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>21700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-1900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>12800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>48600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>40200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>40600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>39300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>58900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>55500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>46600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-55200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>22800</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>20500</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>16800</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-2400</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>48200</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>9500</v>
+      </c>
+      <c r="E27" s="3">
         <v>-14300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>44000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>37800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-170700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>21800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-1800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>12800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>47700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>39400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>39700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>42700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>57600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>54100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>45800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-53400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>22700</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>20200</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>16300</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-2100</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>47200</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2117,31 +2174,34 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>8</v>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>8</v>
@@ -2158,11 +2218,11 @@
       <c r="O29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P29" s="3">
+      <c r="P29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q29" s="3">
         <v>100</v>
-      </c>
-      <c r="Q29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>8</v>
@@ -2170,11 +2230,11 @@
       <c r="S29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T29" s="3">
+      <c r="T29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U29" s="3">
         <v>-5600</v>
-      </c>
-      <c r="U29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="V29" s="3" t="s">
         <v>8</v>
@@ -2188,8 +2248,11 @@
       <c r="Y29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2259,8 +2322,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2330,150 +2396,159 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>7600</v>
+      </c>
+      <c r="E32" s="3">
         <v>9700</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>9200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>9800</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>12400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>13300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>12200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>8800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>7200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>6500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>7300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>5700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>5600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>12400</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>4500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>400</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>6600</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>15400</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>8200</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>7200</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>11400</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>5400</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>8600</v>
       </c>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>9500</v>
+      </c>
+      <c r="E33" s="3">
         <v>-14300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>44000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>37800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-170700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>21800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-1800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>12800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>47700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>39400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>39700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>42800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>57600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>54100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>45800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-59000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>22700</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>20200</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>16300</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-2100</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>47200</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2543,155 +2618,164 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>9500</v>
+      </c>
+      <c r="E35" s="3">
         <v>-14300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>44000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>37800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-170700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>21800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-1800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>12800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>47700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>39400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>39700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>42800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>57600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>54100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>45800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-59000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>22700</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>20200</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>16300</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-2100</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>47200</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44653</v>
+      </c>
+      <c r="E38" s="2">
         <v>44562</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44471</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44380</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44289</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44198</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44100</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44009</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43918</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43827</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43736</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43645</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43554</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43463</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43372</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43099</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42917</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42826</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42735</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42623</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2717,8 +2801,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2744,79 +2829,83 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>149600</v>
+      </c>
+      <c r="E41" s="3">
         <v>161700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>183600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>345800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>364800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>347400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>342000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>422600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>472600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>180600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>125200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>116500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>80600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>143100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>228100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>354900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>257100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>481000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>342700</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>412800</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>304100</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>369800</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>530900</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2886,292 +2975,307 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>370600</v>
+      </c>
+      <c r="E43" s="3">
         <v>319600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>362600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>372000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>323600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>268300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>332100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>263800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>323400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>331200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>357300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>363700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>375500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>361200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>364000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>297200</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>295300</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>271300</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>294500</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>287100</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>287700</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>263300</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>309500</v>
       </c>
     </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>483300</v>
+      </c>
+      <c r="E44" s="3">
         <v>365500</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>412000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>331700</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>320900</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>243100</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>325700</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>386500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>405300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>348200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>417700</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>406500</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>374000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>317600</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>324400</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>293800</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>290500</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>276700</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>338800</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>333700</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>356500</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>348700</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>457600</v>
       </c>
     </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>74400</v>
+      </c>
+      <c r="E45" s="3">
         <v>56900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>44400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>36900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>37900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>45400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>42200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>45700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>50400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>107100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>48400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>42600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>45400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>45800</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>32200</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>36300</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>37500</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>45300</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>44000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>58900</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>39500</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>49600</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>42600</v>
       </c>
     </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1077900</v>
+      </c>
+      <c r="E46" s="3">
         <v>903700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1002600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1086400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1047200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>904200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1042000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1118600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1251700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>967100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>948600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>929300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>875500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>867700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>948700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>982200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>880400</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1074300</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1020000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>1092500</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>987800</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>1031400</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>1340600</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3241,150 +3345,159 @@
       <c r="Y47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>266100</v>
+      </c>
+      <c r="E48" s="3">
         <v>267200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>262000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>254800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>257500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>267100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>274600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>287300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>296600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>301800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>306900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>296000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>290200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>130900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>131400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>130400</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>133700</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>136700</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>142200</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>150100</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>145100</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>146100</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>148800</v>
       </c>
     </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1332400</v>
+      </c>
+      <c r="E49" s="3">
         <v>1349300</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1350600</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>896500</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>896200</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>897700</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>1116300</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>1115200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1115400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1121200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1121100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1125000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1101100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1100800</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1105100</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>1105700</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>1109400</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>1111300</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>1181500</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>1186400</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>1185000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>1186600</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>1202300</v>
       </c>
     </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3454,8 +3567,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3525,79 +3641,85 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>66200</v>
+        <v>69600</v>
       </c>
       <c r="E52" s="3">
         <v>66200</v>
       </c>
       <c r="F52" s="3">
+        <v>66200</v>
+      </c>
+      <c r="G52" s="3">
         <v>65900</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>66400</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>68400</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>68200</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>68300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>90000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>89900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>91900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>92600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>84500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>83700</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>83900</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>82000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>80500</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>76700</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>75000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>71000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>69900</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>67600</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>67300</v>
       </c>
     </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3667,79 +3789,85 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2746000</v>
+      </c>
+      <c r="E54" s="3">
         <v>2586400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2681400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2303600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2267300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2137400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>2501100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>2589400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2753700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2480000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2468500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2442900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2351300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>2183100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>2269100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>2300300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>2204000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>2399000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>2418700</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>2500000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>2387800</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>2431700</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>2759000</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3765,8 +3893,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3792,90 +3921,94 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>293800</v>
+      </c>
+      <c r="E57" s="3">
         <v>222100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>265100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>279200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>279300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>185000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>191800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>154900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>137600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>202100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>155600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>212700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>112600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>202300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>139500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>174300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>97200</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>162300</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>141700</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>207600</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>113800</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>150800</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>168000</v>
       </c>
     </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>365000</v>
+      </c>
+      <c r="E58" s="3">
         <v>235000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>320000</v>
-      </c>
-      <c r="F58" s="3">
-        <v>10000</v>
       </c>
       <c r="G58" s="3">
         <v>10000</v>
@@ -3884,342 +4017,357 @@
         <v>10000</v>
       </c>
       <c r="I58" s="3">
+        <v>10000</v>
+      </c>
+      <c r="J58" s="3">
         <v>162500</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>308500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>802500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>372500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>503300</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>378000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>336000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>132500</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>61500</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>46300</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>42000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>38000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>52500</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>46600</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>43600</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>40400</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>394700</v>
       </c>
     </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>308600</v>
+      </c>
+      <c r="E59" s="3">
         <v>302500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>267000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>233700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>208500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>211000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>205700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>213000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>179600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>212800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>175000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>154200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>143500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>138300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>156600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>150400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>137500</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>162000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>136300</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>135100</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>122700</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>142500</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>162100</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>967400</v>
+      </c>
+      <c r="E60" s="3">
         <v>759600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>852100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>522900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>497800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>406000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>560000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>676400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1119700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>787400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>833900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>744900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>592100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>473100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>357600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>371000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>276700</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>362300</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>330500</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>389300</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>280100</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>333700</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>724800</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>729600</v>
+      </c>
+      <c r="E61" s="3">
         <v>731800</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>704400</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>708400</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>710400</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>712500</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>714100</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>715900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>423600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>425900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>430700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>433000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>435300</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>438000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>601000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>615600</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>630300</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>744600</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>744200</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>758700</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>769500</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>780300</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>657700</v>
       </c>
     </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>433700</v>
+      </c>
+      <c r="E62" s="3">
         <v>450600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>483000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>423200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>434000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>445900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>461500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>461200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>474500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>488300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>410000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>409800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>406600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>280400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>248200</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>298400</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>339700</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>336900</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>333900</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>343500</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>342700</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>343600</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>335800</v>
       </c>
     </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4289,8 +4437,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4360,8 +4511,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4431,79 +4585,85 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2149300</v>
+      </c>
+      <c r="E66" s="3">
         <v>1956800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2054700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1670400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1658200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1576000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1747000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1865400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2028100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1713300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1685600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1599200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1439900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1197100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1212800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1290700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1252500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1449400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1417000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>1500300</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>1400300</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>1465200</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>1726800</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4529,8 +4689,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4600,8 +4761,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4671,8 +4835,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4742,8 +4909,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4813,79 +4983,85 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>1129600</v>
+      </c>
+      <c r="E72" s="3">
         <v>1128200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>1151200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>1159600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>1123100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>1093300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>1272400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>1258300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1268100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1263300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1273200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1232800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1201200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1169700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>1138300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>1087100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>1039400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>992200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>1058400</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>1040900</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>1026000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>1015100</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>1022800</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4955,8 +5131,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5026,8 +5205,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5097,79 +5279,85 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>596700</v>
+      </c>
+      <c r="E76" s="3">
         <v>629600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>626700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>633200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>609100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>561400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>754100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>724000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>725600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>766700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>782900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>843700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>911400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>986000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1056300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1009600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>951500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>949600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>1001700</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>999700</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>987500</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>966500</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>1032200</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5239,155 +5427,164 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44653</v>
+      </c>
+      <c r="E80" s="2">
         <v>44562</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44471</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44380</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44289</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44198</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44100</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44009</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43918</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43827</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43736</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43645</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43554</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43463</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43372</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43099</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42917</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42826</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42735</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42623</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>9500</v>
+      </c>
+      <c r="E81" s="3">
         <v>-14300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>44000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>37800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-170700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>21800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-1800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>12800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>47700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>39400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>39700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>42800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>57600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>54100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>45800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-59000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>22700</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>20200</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>16300</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-2100</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>47200</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5413,79 +5610,83 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>8500</v>
+      </c>
+      <c r="E83" s="3">
         <v>10100</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>8700</v>
-      </c>
-      <c r="F83" s="3">
-        <v>7200</v>
       </c>
       <c r="G83" s="3">
         <v>7200</v>
       </c>
       <c r="H83" s="3">
+        <v>7200</v>
+      </c>
+      <c r="I83" s="3">
         <v>9000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>8400</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>7600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>7800</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>9400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>8300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>7800</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>7200</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>8900</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>7500</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>7300</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>7800</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>9200</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>9800</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>9000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>9200</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>13500</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>9700</v>
       </c>
     </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5555,8 +5756,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5626,8 +5830,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5697,8 +5904,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5768,8 +5978,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5839,79 +6052,85 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-92500</v>
+      </c>
+      <c r="E89" s="3">
         <v>69800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-34700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>25400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>26300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>173600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>96500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>115600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-76600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>206600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>12100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>136300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-132400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>131500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-99100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>126400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-61300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>153200</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-58100</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>138400</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-30800</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>153100</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>70400</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5937,79 +6156,83 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-7500</v>
+      </c>
+      <c r="E91" s="3">
         <v>-7600</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-3300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-4500</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-2200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-4300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>600</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-3000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-3600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-5700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-10400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-10500</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-7800</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-6400</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-7000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-4900</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-3400</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-3700</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-8900</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-8700</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-11100</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-20900</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-6200</v>
       </c>
     </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6079,8 +6302,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6150,79 +6376,85 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="E94" s="3">
         <v>-7600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-421600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-5400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-2700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-3500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>18500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-9300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-8100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-11000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-34500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-7900</v>
-      </c>
-      <c r="P94" s="3">
-        <v>-7400</v>
       </c>
       <c r="Q94" s="3">
         <v>-7400</v>
       </c>
       <c r="R94" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="S94" s="3">
         <v>-3300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-4100</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-6200</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>28200</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-11200</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-11800</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-13900</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6248,49 +6480,50 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-8300</v>
+        <v>-8400</v>
       </c>
       <c r="E96" s="3">
         <v>-8300</v>
       </c>
       <c r="F96" s="3">
+        <v>-8300</v>
+      </c>
+      <c r="G96" s="3">
         <v>-8400</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-8500</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-8200</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-8400</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-8000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-9000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-8200</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-8600</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-8900</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-7900</v>
-      </c>
-      <c r="P96" s="3">
-        <v>-7600</v>
       </c>
       <c r="Q96" s="3">
         <v>-7600</v>
@@ -6299,13 +6532,13 @@
         <v>-7600</v>
       </c>
       <c r="S96" s="3">
+        <v>-7600</v>
+      </c>
+      <c r="T96" s="3">
         <v>-5800</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-5600</v>
-      </c>
-      <c r="U96" s="3">
-        <v>-5800</v>
       </c>
       <c r="V96" s="3">
         <v>-5800</v>
@@ -6317,10 +6550,13 @@
         <v>-5800</v>
       </c>
       <c r="Y96" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="Z96" s="3">
         <v>-5900</v>
       </c>
     </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6390,8 +6626,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6461,8 +6700,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6532,217 +6774,229 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>86000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-80400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>294800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-40200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-4900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-169400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-179700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-184200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>379300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-144000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>8400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-66500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>77500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-207100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-20700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-17600</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-159100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-10600</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-41700</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-21900</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-23800</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-296000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>237800</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E101" s="3">
         <v>-3700</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-700</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>1200</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-1300</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>4700</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>2200</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-1400</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>900</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-800</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>600</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>300</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>400</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-7700</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>600</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>1900</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>1500</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>3400</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>700</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-4300</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-12100</v>
+      </c>
+      <c r="E102" s="3">
         <v>-21900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-162200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-19000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>17400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>5400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-80600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-50000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>292000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>55400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>8700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>35900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-62500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-85000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-126800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>97800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-223900</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>138300</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-70100</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>108700</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-65700</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-161100</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>309200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/WWW_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WWW_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="92">
   <si>
     <t>WWW</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,329 +665,341 @@
     <col min="1" max="1" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="9" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="10" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44744</v>
+      </c>
+      <c r="E7" s="2">
         <v>44653</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44562</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44471</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44380</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44289</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44198</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44100</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44009</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43918</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43827</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43736</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43645</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43554</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43463</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43372</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43099</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42917</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42826</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42623</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>713600</v>
+      </c>
+      <c r="E8" s="3">
         <v>614800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>635600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>636700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>631900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>510700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>509600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>493100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>349100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>439300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>607400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>574300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>568600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>523400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>579600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>558600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>566900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>534100</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>578600</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>581300</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>598800</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>591300</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>729600</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>603700</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>406500</v>
+      </c>
+      <c r="E9" s="3">
         <v>353500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>373200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>361900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>361500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>288400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>305000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>291100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>201900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>257500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>377500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>331000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>338200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>303200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>352500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>326500</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>332700</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>306200</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>355800</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>349400</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>369400</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>352000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>458300</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>366100</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>307100</v>
+      </c>
+      <c r="E10" s="3">
         <v>261300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>262400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>274800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>270400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>222300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>204600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>202000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>147200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>181800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>229900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>243300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>230400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>220200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>227100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>232100</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>234200</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>227900</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>222800</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>231900</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>229400</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>239300</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>271300</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>237600</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1014,8 +1026,9 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1088,8 +1101,11 @@
       <c r="Z12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1162,43 +1178,46 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="3">
         <v>300</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>34000</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3" t="s">
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>227500</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>200</v>
       </c>
-      <c r="L14" s="3" t="s">
+      <c r="M14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>8</v>
+      <c r="N14" s="3">
+        <v>0</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>8</v>
@@ -1206,12 +1225,12 @@
       <c r="P14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="Q14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R14" s="3">
         <v>600</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
       <c r="S14" s="3">
         <v>0</v>
       </c>
@@ -1219,25 +1238,28 @@
         <v>0</v>
       </c>
       <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
         <v>76600</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>24200</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>25100</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>24600</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>50300</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1310,8 +1332,11 @@
       <c r="Z15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1335,156 +1360,163 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>545700</v>
+      </c>
+      <c r="E17" s="3">
         <v>595200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>644600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>628200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>568100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>452600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>719000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>450500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>341800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>422400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>612600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>506000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>513100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>471000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>526300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>490200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>498800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>472600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>644100</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>546000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>569600</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>558700</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>732100</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>535200</v>
       </c>
     </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>167900</v>
+      </c>
+      <c r="E18" s="3">
         <v>19600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-9000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>8500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>63800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>58100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-209400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>42600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>7300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>16900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-5200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>68300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>55500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>52400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>53300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>68400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>68100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>61500</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-65500</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>35300</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>29200</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>32600</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-2500</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>68500</v>
       </c>
     </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1511,156 +1543,163 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-10700</v>
+      </c>
+      <c r="E20" s="3">
         <v>-7600</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-9700</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-9200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-9800</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-12400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-13300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-12200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-8800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-7200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-6500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-7300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-5700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-5600</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-12400</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-4500</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-400</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-6600</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-15400</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-8200</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-7200</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-11400</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-5400</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-8600</v>
       </c>
     </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>165500</v>
+      </c>
+      <c r="E21" s="3">
         <v>20500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-8600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>8000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>61200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>52900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-213700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>38800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>6100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>17500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-2300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>69300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>57600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>54000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>49800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>71400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>75000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>62700</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-71700</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>36900</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>31000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>30400</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>5600</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>69600</v>
       </c>
     </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1733,156 +1772,165 @@
       <c r="Z22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>157200</v>
+      </c>
+      <c r="E23" s="3">
         <v>12000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-18700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>54000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>45700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-222700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>30400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-1500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>9700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-11700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>61000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>49800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>46800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>40900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>63900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>67700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>54900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-80900</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>27100</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>22000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>21200</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-7900</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>59900</v>
       </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>32700</v>
+      </c>
+      <c r="E24" s="3">
         <v>3600</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-3700</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>9600</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>7300</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-51500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>8700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-3100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-11200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>12400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>9600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>6200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>1600</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>5000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>12200</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>8300</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-25700</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>4300</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>1500</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>4400</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>-5500</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>11700</v>
       </c>
     </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1955,156 +2003,165 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>124500</v>
+      </c>
+      <c r="E26" s="3">
         <v>8400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-15000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>44400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>38400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-171200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>21700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>12800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>48600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>40200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>40600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>39300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>58900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>55500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>46600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-55200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>22800</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>20500</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>16800</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-2400</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>48200</v>
       </c>
     </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>122100</v>
+      </c>
+      <c r="E27" s="3">
         <v>9500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-14300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>44000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>37800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-170700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>21800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>12800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>47700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>39400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>39700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>42700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>57600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>54100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>45800</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-53400</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>22700</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>20200</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>16300</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-2100</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>47200</v>
       </c>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2177,8 +2234,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2203,8 +2263,8 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>8</v>
+      <c r="K29" s="3">
+        <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>8</v>
@@ -2221,11 +2281,11 @@
       <c r="P29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="Q29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R29" s="3">
         <v>100</v>
-      </c>
-      <c r="R29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>8</v>
@@ -2233,11 +2293,11 @@
       <c r="T29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U29" s="3">
+      <c r="U29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V29" s="3">
         <v>-5600</v>
-      </c>
-      <c r="V29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="W29" s="3" t="s">
         <v>8</v>
@@ -2251,8 +2311,11 @@
       <c r="Z29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2325,8 +2388,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2399,156 +2465,165 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>10700</v>
+      </c>
+      <c r="E32" s="3">
         <v>7600</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>9700</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>9200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>9800</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>12400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>13300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>12200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>8800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>7200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>6500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>7300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>5700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>5600</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>12400</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>4500</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>400</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>6600</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>15400</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>8200</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>7200</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>11400</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>5400</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>8600</v>
       </c>
     </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>122100</v>
+      </c>
+      <c r="E33" s="3">
         <v>9500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-14300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>44000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>37800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-170700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>21800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>12800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>47700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>39400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>39700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>42800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>57600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>54100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>45800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-59000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>22700</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>20200</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>16300</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-2100</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>47200</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2621,161 +2696,170 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>122100</v>
+      </c>
+      <c r="E35" s="3">
         <v>9500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-14300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>44000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>37800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-170700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>21800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>12800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>47700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>39400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>39700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>42800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>57600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>54100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>45800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-59000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>22700</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>20200</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>16300</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-2100</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>47200</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44744</v>
+      </c>
+      <c r="E38" s="2">
         <v>44653</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44562</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44471</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44380</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44289</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44198</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44100</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44009</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43918</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43827</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43736</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43645</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43554</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43463</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43372</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43099</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42917</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42826</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42623</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2802,8 +2886,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2830,82 +2915,86 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>149300</v>
+      </c>
+      <c r="E41" s="3">
         <v>149600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>161700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>183600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>345800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>364800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>347400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>342000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>422600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>472600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>180600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>125200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>116500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>80600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>143100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>228100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>354900</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>257100</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>481000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>342700</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>412800</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>304100</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>369800</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>530900</v>
       </c>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2978,304 +3067,319 @@
       <c r="Z42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>420000</v>
+      </c>
+      <c r="E43" s="3">
         <v>370600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>319600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>362600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>372000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>323600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>268300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>332100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>263800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>323400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>331200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>357300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>363700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>375500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>361200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>364000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>297200</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>295300</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>271300</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>294500</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>287100</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>287700</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>263300</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>309500</v>
       </c>
     </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>639500</v>
+      </c>
+      <c r="E44" s="3">
         <v>483300</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>365500</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>412000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>331700</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>320900</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>243100</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>325700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>386500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>405300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>348200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>417700</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>406500</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>374000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>317600</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>324400</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>293800</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>290500</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>276700</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>338800</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>333700</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>356500</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>348700</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>457600</v>
       </c>
     </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>84500</v>
+      </c>
+      <c r="E45" s="3">
         <v>74400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>56900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>44400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>36900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>37900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>45400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>42200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>45700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>50400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>107100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>48400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>42600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>45400</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>45800</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>32200</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>36300</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>37500</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>45300</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>44000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>58900</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>39500</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>49600</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>42600</v>
       </c>
     </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1293300</v>
+      </c>
+      <c r="E46" s="3">
         <v>1077900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>903700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1002600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1086400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1047200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>904200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1042000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1118600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1251700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>967100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>948600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>929300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>875500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>867700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>948700</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>982200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>880400</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1074300</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>1020000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>1092500</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>987800</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>1031400</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>1340600</v>
       </c>
     </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3348,156 +3452,165 @@
       <c r="Z47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>294200</v>
+      </c>
+      <c r="E48" s="3">
         <v>266100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>267200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>262000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>254800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>257500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>267100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>274600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>287300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>296600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>301800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>306900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>296000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>290200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>130900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>131400</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>130400</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>133700</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>136700</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>142200</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>150100</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>145100</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>146100</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>148800</v>
       </c>
     </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1289900</v>
+      </c>
+      <c r="E49" s="3">
         <v>1332400</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1349300</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1350600</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>896500</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>896200</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>897700</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>1116300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1115200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1115400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1121200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1121100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1125000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1101100</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1100800</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>1105100</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>1105700</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>1109400</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>1111300</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>1181500</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>1186400</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>1185000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>1186600</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>1202300</v>
       </c>
     </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3570,8 +3683,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3644,82 +3760,88 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>71600</v>
+      </c>
+      <c r="E52" s="3">
         <v>69600</v>
-      </c>
-      <c r="E52" s="3">
-        <v>66200</v>
       </c>
       <c r="F52" s="3">
         <v>66200</v>
       </c>
       <c r="G52" s="3">
+        <v>66200</v>
+      </c>
+      <c r="H52" s="3">
         <v>65900</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>66400</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>68400</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>68200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>68300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>90000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>89900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>91900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>92600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>84500</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>83700</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>83900</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>82000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>80500</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>76700</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>75000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>71000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>69900</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>67600</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>67300</v>
       </c>
     </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3792,82 +3914,88 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2949000</v>
+      </c>
+      <c r="E54" s="3">
         <v>2746000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2586400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2681400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2303600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2267300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>2137400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>2501100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2589400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2753700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2480000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2468500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2442900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>2351300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>2183100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>2269100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>2300300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>2204000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>2399000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>2418700</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>2500000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>2387800</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>2431700</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>2759000</v>
       </c>
     </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3894,8 +4022,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3922,96 +4051,100 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>318100</v>
+      </c>
+      <c r="E57" s="3">
         <v>293800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>222100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>265100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>279200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>279300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>185000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>191800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>154900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>137600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>202100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>155600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>212700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>112600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>202300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>139500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>174300</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>97200</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>162300</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>141700</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>207600</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>113800</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>150800</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>168000</v>
       </c>
     </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>500000</v>
+      </c>
+      <c r="E58" s="3">
         <v>365000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>235000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>320000</v>
-      </c>
-      <c r="G58" s="3">
-        <v>10000</v>
       </c>
       <c r="H58" s="3">
         <v>10000</v>
@@ -4020,354 +4153,369 @@
         <v>10000</v>
       </c>
       <c r="J58" s="3">
+        <v>10000</v>
+      </c>
+      <c r="K58" s="3">
         <v>162500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>308500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>802500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>372500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>503300</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>378000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>336000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>132500</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>61500</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>46300</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>42000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>38000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>52500</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>46600</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>43600</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>40400</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>394700</v>
       </c>
     </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>276600</v>
+      </c>
+      <c r="E59" s="3">
         <v>308600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>302500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>267000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>233700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>208500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>211000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>205700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>213000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>179600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>212800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>175000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>154200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>143500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>138300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>156600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>150400</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>137500</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>162000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>136300</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>135100</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>122700</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>142500</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>162100</v>
       </c>
     </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1094700</v>
+      </c>
+      <c r="E60" s="3">
         <v>967400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>759600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>852100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>522900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>497800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>406000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>560000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>676400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1119700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>787400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>833900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>744900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>592100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>473100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>357600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>371000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>276700</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>362300</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>330500</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>389300</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>280100</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>333700</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>724800</v>
       </c>
     </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>727400</v>
+      </c>
+      <c r="E61" s="3">
         <v>729600</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>731800</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>704400</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>708400</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>710400</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>712500</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>714100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>715900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>423600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>425900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>430700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>433000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>435300</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>438000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>601000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>615600</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>630300</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>744600</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>744200</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>758700</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>769500</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>780300</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>657700</v>
       </c>
     </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>465100</v>
+      </c>
+      <c r="E62" s="3">
         <v>433700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>450600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>483000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>423200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>434000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>445900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>461500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>461200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>474500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>488300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>410000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>409800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>406600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>280400</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>248200</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>298400</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>339700</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>336900</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>333900</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>343500</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>342700</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>343600</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>335800</v>
       </c>
     </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4440,8 +4588,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4514,8 +4665,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4588,82 +4742,88 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2305100</v>
+      </c>
+      <c r="E66" s="3">
         <v>2149300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1956800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2054700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1670400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1658200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1576000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1747000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1865400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2028100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1713300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1685600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1599200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1439900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1197100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1212800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1290700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1252500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1449400</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>1417000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>1500300</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>1400300</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>1465200</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>1726800</v>
       </c>
     </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4690,8 +4850,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4764,8 +4925,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4838,8 +5002,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4912,8 +5079,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4986,82 +5156,88 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>1246100</v>
+      </c>
+      <c r="E72" s="3">
         <v>1129600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>1128200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>1151200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>1159600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>1123100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>1093300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>1272400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1258300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1268100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1263300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1273200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1232800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1201200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>1169700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>1138300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>1087100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>1039400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>992200</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>1058400</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>1040900</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>1026000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>1015100</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>1022800</v>
       </c>
     </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5134,8 +5310,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5208,8 +5387,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5282,82 +5464,88 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>643900</v>
+      </c>
+      <c r="E76" s="3">
         <v>596700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>629600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>626700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>633200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>609100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>561400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>754100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>724000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>725600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>766700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>782900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>843700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>911400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>986000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1056300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1009600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>951500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>949600</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>1001700</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>999700</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>987500</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>966500</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>1032200</v>
       </c>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5430,161 +5618,170 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44744</v>
+      </c>
+      <c r="E80" s="2">
         <v>44653</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44562</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44471</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44380</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44289</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44198</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44100</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44009</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43918</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43827</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43736</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43645</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43554</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43463</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43372</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43099</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42917</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42826</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42623</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>122100</v>
+      </c>
+      <c r="E81" s="3">
         <v>9500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-14300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>44000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>37800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-170700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>21800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>12800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>47700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>39400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>39700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>42800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>57600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>54100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>45800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-59000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>22700</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>20200</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>16300</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-2100</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>47200</v>
       </c>
     </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5611,82 +5808,86 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>8300</v>
+      </c>
+      <c r="E83" s="3">
         <v>8500</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>10100</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>8700</v>
-      </c>
-      <c r="G83" s="3">
-        <v>7200</v>
       </c>
       <c r="H83" s="3">
         <v>7200</v>
       </c>
       <c r="I83" s="3">
+        <v>7200</v>
+      </c>
+      <c r="J83" s="3">
         <v>9000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>8400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>7600</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>7800</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>9400</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>8300</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>7800</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>7200</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>8900</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>7500</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>7300</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>7800</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>9200</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>9800</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>9000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>9200</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>13500</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>9700</v>
       </c>
     </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5759,8 +5960,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5833,8 +6037,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5907,8 +6114,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5981,8 +6191,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6055,82 +6268,88 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-155400</v>
+      </c>
+      <c r="E89" s="3">
         <v>-92500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>69800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-34700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>25400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>26300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>173600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>96500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>115600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-76600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>206600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>12100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>136300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-132400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>131500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-99100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>126400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-61300</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>153200</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-58100</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>138400</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-30800</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>153100</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>70400</v>
       </c>
     </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6157,82 +6376,86 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-8600</v>
+      </c>
+      <c r="E91" s="3">
         <v>-7500</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-7600</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-3300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-4500</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-2200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-4300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-3000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-3600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-5700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-10400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-10500</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-7800</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-6400</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-7000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-4900</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-3400</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-3700</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-8900</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-8700</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-11100</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-20900</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-6200</v>
       </c>
     </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6305,8 +6528,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6379,82 +6605,88 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>82500</v>
+      </c>
+      <c r="E94" s="3">
         <v>-3800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-7600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-421600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-5400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-2700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-3500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>18500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-9300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-8100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-11000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-34500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-7900</v>
-      </c>
-      <c r="Q94" s="3">
-        <v>-7400</v>
       </c>
       <c r="R94" s="3">
         <v>-7400</v>
       </c>
       <c r="S94" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="T94" s="3">
         <v>-3300</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-4100</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-6200</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>28200</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-11200</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-11800</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-13900</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6481,8 +6713,9 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6490,43 +6723,43 @@
         <v>-8400</v>
       </c>
       <c r="E96" s="3">
-        <v>-8300</v>
+        <v>-8400</v>
       </c>
       <c r="F96" s="3">
         <v>-8300</v>
       </c>
       <c r="G96" s="3">
+        <v>-8300</v>
+      </c>
+      <c r="H96" s="3">
         <v>-8400</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-8500</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-8200</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-8400</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-8000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-9000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-8200</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-8600</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-8900</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-7900</v>
-      </c>
-      <c r="Q96" s="3">
-        <v>-7600</v>
       </c>
       <c r="R96" s="3">
         <v>-7600</v>
@@ -6535,13 +6768,13 @@
         <v>-7600</v>
       </c>
       <c r="T96" s="3">
+        <v>-7600</v>
+      </c>
+      <c r="U96" s="3">
         <v>-5800</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-5600</v>
-      </c>
-      <c r="V96" s="3">
-        <v>-5800</v>
       </c>
       <c r="W96" s="3">
         <v>-5800</v>
@@ -6553,10 +6786,13 @@
         <v>-5800</v>
       </c>
       <c r="Z96" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="AA96" s="3">
         <v>-5900</v>
       </c>
     </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6629,8 +6865,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6703,8 +6942,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6777,226 +7019,238 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>77100</v>
+      </c>
+      <c r="E100" s="3">
         <v>86000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-80400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>294800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-40200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-4900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-169400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-179700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-184200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>379300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-144000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>8400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-66500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>77500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-207100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-20700</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-17600</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-159100</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-10600</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-41700</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-21900</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-23800</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-296000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>237800</v>
       </c>
     </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="E101" s="3">
         <v>-1800</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-3700</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-700</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>1200</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-1300</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>4700</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>2200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-1400</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>900</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-800</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>600</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>300</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-2000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>400</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-7700</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>600</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>1900</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>1500</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>3400</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>700</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-4300</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E102" s="3">
         <v>-12100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-21900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-162200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-19000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>17400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>5400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-80600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-50000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>292000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>55400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>8700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>35900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-62500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-85000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-126800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>97800</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-223900</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>138300</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-70100</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>108700</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-65700</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-161100</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>309200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/WWW_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WWW_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="92">
   <si>
     <t>WWW</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,341 +665,353 @@
     <col min="1" max="1" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="10" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="11" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44835</v>
+      </c>
+      <c r="E7" s="2">
         <v>44744</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44653</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44562</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44471</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44380</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44289</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44198</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44009</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43918</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43827</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43736</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43645</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43554</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43463</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43372</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43099</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42917</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42826</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42623</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>691400</v>
+      </c>
+      <c r="E8" s="3">
         <v>713600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>614800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>635600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>636700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>631900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>510700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>509600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>493100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>349100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>439300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>607400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>574300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>568600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>523400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>579600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>558600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>566900</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>534100</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>578600</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>581300</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>598800</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>591300</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>729600</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>603700</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>413600</v>
+      </c>
+      <c r="E9" s="3">
         <v>406500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>353500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>373200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>361900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>361500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>288400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>305000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>291100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>201900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>257500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>377500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>331000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>338200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>303200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>352500</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>326500</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>332700</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>306200</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>355800</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>349400</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>369400</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>352000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>458300</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>366100</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>277800</v>
+      </c>
+      <c r="E10" s="3">
         <v>307100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>261300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>262400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>274800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>270400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>222300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>204600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>202000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>147200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>181800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>229900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>243300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>230400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>220200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>227100</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>232100</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>234200</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>227900</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>222800</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>231900</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>229400</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>239300</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>271300</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>237600</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1027,8 +1039,9 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1104,8 +1117,11 @@
       <c r="AA12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1181,46 +1197,49 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>8</v>
+      <c r="D14" s="3">
+        <v>0</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="3">
         <v>300</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>34000</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3" t="s">
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>227500</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>200</v>
       </c>
-      <c r="M14" s="3" t="s">
+      <c r="N14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>8</v>
+      <c r="O14" s="3">
+        <v>0</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>8</v>
@@ -1228,12 +1247,12 @@
       <c r="Q14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R14" s="3">
+      <c r="R14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S14" s="3">
         <v>600</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
       <c r="T14" s="3">
         <v>0</v>
       </c>
@@ -1241,25 +1260,28 @@
         <v>0</v>
       </c>
       <c r="V14" s="3">
+        <v>0</v>
+      </c>
+      <c r="W14" s="3">
         <v>76600</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>24200</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>25100</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>24600</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>50300</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1335,8 +1357,11 @@
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1361,162 +1386,169 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>632600</v>
+      </c>
+      <c r="E17" s="3">
         <v>545700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>595200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>644600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>628200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>568100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>452600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>719000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>450500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>341800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>422400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>612600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>506000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>513100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>471000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>526300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>490200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>498800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>472600</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>644100</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>546000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>569600</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>558700</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>732100</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>535200</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>58800</v>
+      </c>
+      <c r="E18" s="3">
         <v>167900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>19600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-9000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>8500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>63800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>58100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-209400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>42600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>7300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>16900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-5200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>68300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>55500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>52400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>53300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>68400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>68100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>61500</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-65500</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>35300</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>29200</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>32600</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-2500</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>68500</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1544,162 +1576,169 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-15200</v>
+      </c>
+      <c r="E20" s="3">
         <v>-10700</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-7600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-9700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-9200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-9800</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-12400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-13300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-12200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-8800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-7200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-6500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-7300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-5700</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-5600</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-12400</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-4500</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-400</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-6600</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-15400</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-8200</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-7200</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-11400</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-5400</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-8600</v>
       </c>
     </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>52000</v>
+      </c>
+      <c r="E21" s="3">
         <v>165500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>20500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-8600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>8000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>61200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>52900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-213700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>38800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>6100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>17500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-2300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>69300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>57600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>54000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>49800</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>71400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>75000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>62700</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-71700</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>36900</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>31000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>30400</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>5600</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>69600</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1775,162 +1814,171 @@
       <c r="AA22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>43600</v>
+      </c>
+      <c r="E23" s="3">
         <v>157200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>12000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-18700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>54000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>45700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-222700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>30400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-1500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>9700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-11700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>61000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>49800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>46800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>40900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>63900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>67700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>54900</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-80900</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>27100</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>22000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>21200</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-7900</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>59900</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E24" s="3">
         <v>32700</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>3600</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-3700</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>9600</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>7300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-51500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>8700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-3100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-11200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>12400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>9600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>6200</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>1600</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>5000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>12200</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>8300</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-25700</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>4300</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>1500</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>4400</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>-5500</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>11700</v>
       </c>
     </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2006,162 +2054,171 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>38800</v>
+      </c>
+      <c r="E26" s="3">
         <v>124500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>8400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-15000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>44400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>38400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-171200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>21700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-1900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>12800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>48600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>40200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>40600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>39300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>58900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>55500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>46600</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-55200</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>22800</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>20500</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>16800</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-2400</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>48200</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>38200</v>
+      </c>
+      <c r="E27" s="3">
         <v>122100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>9500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-14300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>44000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>37800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-170700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>21800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-1800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>12800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>47700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>39400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>39700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>42700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>57600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>54100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>45800</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-53400</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>22700</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>20200</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>16300</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-2100</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>47200</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2237,8 +2294,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2266,8 +2326,8 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>8</v>
+      <c r="L29" s="3">
+        <v>0</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>8</v>
@@ -2284,11 +2344,11 @@
       <c r="Q29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R29" s="3">
+      <c r="R29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S29" s="3">
         <v>100</v>
-      </c>
-      <c r="S29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>8</v>
@@ -2296,11 +2356,11 @@
       <c r="U29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V29" s="3">
+      <c r="V29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W29" s="3">
         <v>-5600</v>
-      </c>
-      <c r="W29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="X29" s="3" t="s">
         <v>8</v>
@@ -2314,8 +2374,11 @@
       <c r="AA29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2391,8 +2454,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2468,162 +2534,171 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>15200</v>
+      </c>
+      <c r="E32" s="3">
         <v>10700</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>7600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>9700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>9200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>9800</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>12400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>13300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>12200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>8800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>7200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>6500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>7300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>5700</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>5600</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>12400</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>4500</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>400</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>6600</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>15400</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>8200</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>7200</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>11400</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>5400</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>8600</v>
       </c>
     </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>38200</v>
+      </c>
+      <c r="E33" s="3">
         <v>122100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>9500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-14300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>44000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>37800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-170700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>21800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-1800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>12800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>47700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>39400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>39700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>42800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>57600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>54100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>45800</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-59000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>22700</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>20200</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>16300</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-2100</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>47200</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2699,167 +2774,176 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>38200</v>
+      </c>
+      <c r="E35" s="3">
         <v>122100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>9500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-14300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>44000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>37800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-170700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>21800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-1800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>12800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>47700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>39400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>39700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>42800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>57600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>54100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>45800</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-59000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>22700</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>20200</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>16300</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-2100</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>47200</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44835</v>
+      </c>
+      <c r="E38" s="2">
         <v>44744</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44653</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44562</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44471</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44380</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44289</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44198</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44009</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43918</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43827</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43736</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43645</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43554</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43463</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43372</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43099</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42917</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42826</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42623</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2887,8 +2971,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2916,85 +3001,89 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>136400</v>
+      </c>
+      <c r="E41" s="3">
         <v>149300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>149600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>161700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>183600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>345800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>364800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>347400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>342000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>422600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>472600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>180600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>125200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>116500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>80600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>143100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>228100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>354900</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>257100</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>481000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>342700</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>412800</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>304100</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>369800</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>530900</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3070,316 +3159,331 @@
       <c r="AA42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>440000</v>
+      </c>
+      <c r="E43" s="3">
         <v>420000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>370600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>319600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>362600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>372000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>323600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>268300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>332100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>263800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>323400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>331200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>357300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>363700</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>375500</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>361200</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>364000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>297200</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>295300</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>271300</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>294500</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>287100</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>287700</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>263300</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>309500</v>
       </c>
     </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>880900</v>
+      </c>
+      <c r="E44" s="3">
         <v>639500</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>483300</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>365500</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>412000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>331700</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>320900</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>243100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>325700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>386500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>405300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>348200</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>417700</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>406500</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>374000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>317600</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>324400</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>293800</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>290500</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>276700</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>338800</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>333700</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>356500</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>348700</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>457600</v>
       </c>
     </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>94500</v>
+      </c>
+      <c r="E45" s="3">
         <v>84500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>74400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>56900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>44400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>36900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>37900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>45400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>42200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>45700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>50400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>107100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>48400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>42600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>45400</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>45800</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>32200</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>36300</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>37500</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>45300</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>44000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>58900</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>39500</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>49600</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>42600</v>
       </c>
     </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1551800</v>
+      </c>
+      <c r="E46" s="3">
         <v>1293300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1077900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>903700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1002600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1086400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1047200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>904200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1042000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1118600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1251700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>967100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>948600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>929300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>875500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>867700</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>948700</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>982200</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>880400</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>1074300</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>1020000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>1092500</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>987800</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>1031400</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>1340600</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3455,162 +3559,171 @@
       <c r="AA47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>291000</v>
+      </c>
+      <c r="E48" s="3">
         <v>294200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>266100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>267200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>262000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>254800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>257500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>267100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>274600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>287300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>296600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>301800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>306900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>296000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>290200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>130900</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>131400</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>130400</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>133700</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>136700</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>142200</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>150100</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>145100</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>146100</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>148800</v>
       </c>
     </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1252800</v>
+      </c>
+      <c r="E49" s="3">
         <v>1289900</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1332400</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1349300</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1350600</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>896500</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>896200</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>897700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1116300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1115200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1115400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1121200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1121100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1125000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1101100</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>1100800</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>1105100</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>1105700</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>1109400</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>1111300</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>1181500</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>1186400</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>1185000</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>1186600</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>1202300</v>
       </c>
     </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3686,8 +3799,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3763,85 +3879,91 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>75000</v>
+      </c>
+      <c r="E52" s="3">
         <v>71600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>69600</v>
-      </c>
-      <c r="F52" s="3">
-        <v>66200</v>
       </c>
       <c r="G52" s="3">
         <v>66200</v>
       </c>
       <c r="H52" s="3">
+        <v>66200</v>
+      </c>
+      <c r="I52" s="3">
         <v>65900</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>66400</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>68400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>68200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>68300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>90000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>89900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>91900</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>92600</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>84500</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>83700</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>83900</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>82000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>80500</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>76700</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>75000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>71000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>69900</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>67600</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>67300</v>
       </c>
     </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3917,85 +4039,91 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>3170600</v>
+      </c>
+      <c r="E54" s="3">
         <v>2949000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2746000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2586400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2681400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2303600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>2267300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>2137400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2501100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2589400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2753700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2480000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2468500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>2442900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>2351300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>2183100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>2269100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>2300300</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>2204000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>2399000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>2418700</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>2500000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>2387800</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>2431700</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>2759000</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4023,8 +4151,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4052,102 +4181,106 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>317900</v>
+      </c>
+      <c r="E57" s="3">
         <v>318100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>293800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>222100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>265100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>279200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>279300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>185000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>191800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>154900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>137600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>202100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>155600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>212700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>112600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>202300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>139500</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>174300</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>97200</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>162300</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>141700</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>207600</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>113800</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>150800</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>168000</v>
       </c>
     </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>750000</v>
+      </c>
+      <c r="E58" s="3">
         <v>500000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>365000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>235000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>320000</v>
-      </c>
-      <c r="H58" s="3">
-        <v>10000</v>
       </c>
       <c r="I58" s="3">
         <v>10000</v>
@@ -4156,366 +4289,381 @@
         <v>10000</v>
       </c>
       <c r="K58" s="3">
+        <v>10000</v>
+      </c>
+      <c r="L58" s="3">
         <v>162500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>308500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>802500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>372500</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>503300</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>378000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>336000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>132500</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>61500</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>46300</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>42000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>38000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>52500</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>46600</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>43600</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>40400</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>394700</v>
       </c>
     </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>263400</v>
+      </c>
+      <c r="E59" s="3">
         <v>276600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>308600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>302500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>267000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>233700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>208500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>211000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>205700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>213000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>179600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>212800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>175000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>154200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>143500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>138300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>156600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>150400</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>137500</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>162000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>136300</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>135100</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>122700</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>142500</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>162100</v>
       </c>
     </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1331300</v>
+      </c>
+      <c r="E60" s="3">
         <v>1094700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>967400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>759600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>852100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>522900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>497800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>406000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>560000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>676400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1119700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>787400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>833900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>744900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>592100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>473100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>357600</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>371000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>276700</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>362300</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>330500</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>389300</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>280100</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>333700</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>724800</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>725200</v>
+      </c>
+      <c r="E61" s="3">
         <v>727400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>729600</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>731800</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>704400</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>708400</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>710400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>712500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>714100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>715900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>423600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>425900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>430700</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>433000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>435300</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>438000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>601000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>615600</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>630300</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>744600</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>744200</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>758700</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>769500</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>780300</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>657700</v>
       </c>
     </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>439900</v>
+      </c>
+      <c r="E62" s="3">
         <v>465100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>433700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>450600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>483000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>423200</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>434000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>445900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>461500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>461200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>474500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>488300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>410000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>409800</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>406600</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>280400</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>248200</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>298400</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>339700</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>336900</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>333900</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>343500</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>342700</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>343600</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>335800</v>
       </c>
     </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4591,8 +4739,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4668,8 +4819,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4745,85 +4899,91 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2513700</v>
+      </c>
+      <c r="E66" s="3">
         <v>2305100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2149300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1956800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2054700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1670400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1658200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1576000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1747000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1865400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2028100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1713300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1685600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1599200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1439900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1197100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1212800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1290700</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1252500</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>1449400</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>1417000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>1500300</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>1400300</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>1465200</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>1726800</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4851,8 +5011,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4928,8 +5089,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5005,8 +5169,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5082,8 +5249,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5159,85 +5329,91 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>1277100</v>
+      </c>
+      <c r="E72" s="3">
         <v>1246100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>1129600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>1128200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>1151200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>1159600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>1123100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>1093300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1272400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1258300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1268100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1263300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1273200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1232800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>1201200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>1169700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>1138300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>1087100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>1039400</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>992200</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>1058400</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>1040900</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>1026000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>1015100</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>1022800</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5313,8 +5489,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5390,8 +5569,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5467,85 +5649,91 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>656900</v>
+      </c>
+      <c r="E76" s="3">
         <v>643900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>596700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>629600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>626700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>633200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>609100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>561400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>754100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>724000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>725600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>766700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>782900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>843700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>911400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>986000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1056300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1009600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>951500</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>949600</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>1001700</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>999700</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>987500</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>966500</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>1032200</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5621,167 +5809,176 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44835</v>
+      </c>
+      <c r="E80" s="2">
         <v>44744</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44653</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44562</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44471</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44380</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44289</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44198</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44009</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43918</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43827</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43736</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43645</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43554</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43463</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43372</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43099</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42917</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42826</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42623</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>38200</v>
+      </c>
+      <c r="E81" s="3">
         <v>122100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>9500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-14300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>44000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>37800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-170700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>21800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-1800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>12800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>47700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>39400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>39700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>42800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>57600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>54100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>45800</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-59000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>22700</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>20200</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>16300</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-2100</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>47200</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5809,85 +6006,89 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>8400</v>
+      </c>
+      <c r="E83" s="3">
         <v>8300</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>8500</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>10100</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>8700</v>
-      </c>
-      <c r="H83" s="3">
-        <v>7200</v>
       </c>
       <c r="I83" s="3">
         <v>7200</v>
       </c>
       <c r="J83" s="3">
+        <v>7200</v>
+      </c>
+      <c r="K83" s="3">
         <v>9000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>8400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>7600</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>7800</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>9400</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>8300</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>7800</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>7200</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>8900</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>7500</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>7300</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>7800</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>9200</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>9800</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>9000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>9200</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>13500</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>9700</v>
       </c>
     </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5963,8 +6164,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6040,8 +6244,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6117,8 +6324,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6194,8 +6404,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6271,85 +6484,91 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-242300</v>
+      </c>
+      <c r="E89" s="3">
         <v>-155400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-92500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>69800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-34700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>25400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>26300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>173600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>96500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>115600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-76600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>206600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>12100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>136300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-132400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>131500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-99100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>126400</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-61300</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>153200</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-58100</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>138400</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-30800</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>153100</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>70400</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6377,85 +6596,89 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="E91" s="3">
         <v>-8600</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-7500</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-7600</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-3300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-4500</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-2200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-4300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-3000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-3600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-5700</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-10400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-10500</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-7800</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-6400</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-7000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-4900</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-3400</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-3700</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-8900</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-8700</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-11100</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-20900</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-6200</v>
       </c>
     </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6531,8 +6754,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6608,85 +6834,91 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-10500</v>
+      </c>
+      <c r="E94" s="3">
         <v>82500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-3800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-7600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-421600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-5400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-2700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-3500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>18500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-9300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-8100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-11000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-34500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-7900</v>
-      </c>
-      <c r="R94" s="3">
-        <v>-7400</v>
       </c>
       <c r="S94" s="3">
         <v>-7400</v>
       </c>
       <c r="T94" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="U94" s="3">
         <v>-3300</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-4100</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-6200</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>28200</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-11200</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-11800</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-13900</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6714,55 +6946,56 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-8400</v>
+        <v>-7900</v>
       </c>
       <c r="E96" s="3">
         <v>-8400</v>
       </c>
       <c r="F96" s="3">
-        <v>-8300</v>
+        <v>-8400</v>
       </c>
       <c r="G96" s="3">
         <v>-8300</v>
       </c>
       <c r="H96" s="3">
+        <v>-8300</v>
+      </c>
+      <c r="I96" s="3">
         <v>-8400</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-8500</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-8200</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-8400</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-8000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-9000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-8200</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-8600</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-8900</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-7900</v>
-      </c>
-      <c r="R96" s="3">
-        <v>-7600</v>
       </c>
       <c r="S96" s="3">
         <v>-7600</v>
@@ -6771,13 +7004,13 @@
         <v>-7600</v>
       </c>
       <c r="U96" s="3">
+        <v>-7600</v>
+      </c>
+      <c r="V96" s="3">
         <v>-5800</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-5600</v>
-      </c>
-      <c r="W96" s="3">
-        <v>-5800</v>
       </c>
       <c r="X96" s="3">
         <v>-5800</v>
@@ -6789,10 +7022,13 @@
         <v>-5800</v>
       </c>
       <c r="AA96" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="AB96" s="3">
         <v>-5900</v>
       </c>
     </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6868,8 +7104,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6945,8 +7184,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7022,235 +7264,247 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>239400</v>
+      </c>
+      <c r="E100" s="3">
         <v>77100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>86000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-80400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>294800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-40200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-4900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-169400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-179700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-184200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>379300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-144000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>8400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-66500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>77500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-207100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-20700</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-17600</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-159100</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-10600</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-41700</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-21900</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-23800</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-296000</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>237800</v>
       </c>
     </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>500</v>
+      </c>
+      <c r="E101" s="3">
         <v>-4500</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-1800</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-3700</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-700</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>1200</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-1300</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>4700</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>2200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-1400</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>900</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-800</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>600</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>300</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-2000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>400</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-7700</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>600</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>1900</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>1500</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>3400</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>700</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>-4300</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-12900</v>
+      </c>
+      <c r="E102" s="3">
         <v>-300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-12100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-21900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-162200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-19000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>17400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>5400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-80600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-50000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>292000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>55400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>8700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>35900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-62500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-85000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-126800</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>97800</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-223900</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>138300</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-70100</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>108700</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-65700</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-161100</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>309200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/WWW_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WWW_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="92">
   <si>
     <t>WWW</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,353 +665,366 @@
     <col min="1" max="1" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="12" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44835</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44744</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44653</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44562</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44471</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44380</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44289</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44198</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44100</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44009</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43918</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43827</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43736</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43645</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43554</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43463</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43372</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43099</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43008</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42917</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42826</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42735</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42623</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>665000</v>
+      </c>
+      <c r="E8" s="3">
         <v>691400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>713600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>614800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>635600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>636700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>631900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>510700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>509600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>493100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>349100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>439300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>607400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>574300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>568600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>523400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>579600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>558600</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>566900</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>534100</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>578600</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>581300</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>598800</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>591300</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>729600</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>603700</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>440800</v>
+      </c>
+      <c r="E9" s="3">
         <v>413600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>406500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>353500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>373200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>361900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>361500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>288400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>305000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>291100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>201900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>257500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>377500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>331000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>338200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>303200</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>352500</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>326500</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>332700</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>306200</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>355800</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>349400</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>369400</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>352000</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>458300</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>366100</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>224200</v>
+      </c>
+      <c r="E10" s="3">
         <v>277800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>307100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>261300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>262400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>274800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>270400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>222300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>204600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>202000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>147200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>181800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>229900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>243300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>230400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>220200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>227100</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>232100</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>234200</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>227900</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>222800</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>231900</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>229400</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>239300</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>271300</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>237600</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1040,8 +1053,9 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1120,8 +1134,11 @@
       <c r="AB12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1200,49 +1217,52 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>8</v>
+        <v>428700</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" s="3">
         <v>300</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>34000</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3" t="s">
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>227500</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>200</v>
       </c>
-      <c r="N14" s="3" t="s">
+      <c r="O14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>8</v>
+      <c r="P14" s="3">
+        <v>0</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>8</v>
@@ -1250,12 +1270,12 @@
       <c r="R14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S14" s="3">
+      <c r="S14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T14" s="3">
         <v>600</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
-      </c>
       <c r="U14" s="3">
         <v>0</v>
       </c>
@@ -1263,25 +1283,28 @@
         <v>0</v>
       </c>
       <c r="W14" s="3">
+        <v>0</v>
+      </c>
+      <c r="X14" s="3">
         <v>76600</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>24200</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>25100</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>24600</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>50300</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AC14" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1360,8 +1383,11 @@
       <c r="AB15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1387,168 +1413,175 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1119700</v>
+      </c>
+      <c r="E17" s="3">
         <v>632600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>545700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>595200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>644600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>628200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>568100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>452600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>719000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>450500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>341800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>422400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>612600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>506000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>513100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>471000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>526300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>490200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>498800</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>472600</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>644100</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>546000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>569600</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>558700</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>732100</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>535200</v>
       </c>
     </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-454700</v>
+      </c>
+      <c r="E18" s="3">
         <v>58800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>167900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>19600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-9000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>8500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>63800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>58100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-209400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>42600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>7300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>16900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-5200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>68300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>55500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>52400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>53300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>68400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>68100</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>61500</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-65500</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>35300</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>29200</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>32600</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>-2500</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>68500</v>
       </c>
     </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1577,168 +1610,175 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-11000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-15200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-10700</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-7600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-9700</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-9200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-9800</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-12400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-13300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-12200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-8800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-7200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-6500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-7300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-5700</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-5600</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-12400</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-4500</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-400</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-6600</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-15400</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-8200</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-7200</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-11400</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-5400</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>-8600</v>
       </c>
     </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-456300</v>
+      </c>
+      <c r="E21" s="3">
         <v>52000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>165500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>20500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-8600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>8000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>61200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>52900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-213700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>38800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>6100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>17500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-2300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>69300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>57600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>54000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>49800</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>71400</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>75000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>62700</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-71700</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>36900</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>31000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>30400</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>5600</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>69600</v>
       </c>
     </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1817,168 +1857,177 @@
       <c r="AB22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-465700</v>
+      </c>
+      <c r="E23" s="3">
         <v>43600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>157200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>12000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-18700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>54000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>45700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-222700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>30400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-1500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>9700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-11700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>61000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>49800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>46800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>40900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>63900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>67700</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>54900</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-80900</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>27100</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>22000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>21200</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-7900</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>59900</v>
       </c>
     </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-104900</v>
+      </c>
+      <c r="E24" s="3">
         <v>4800</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>32700</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>3600</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-3700</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>9600</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>7300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-51500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>8700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-3100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-11200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>12400</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>9600</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>6200</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>1600</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>5000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>12200</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>8300</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>-25700</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>4300</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>1500</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>4400</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>-5500</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>11700</v>
       </c>
     </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2057,168 +2106,177 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-360800</v>
+      </c>
+      <c r="E26" s="3">
         <v>38800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>124500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>8400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-15000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>44400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>38400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-171200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>21700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-1900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>12800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>48600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>40200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>40600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>39300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>58900</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>55500</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>46600</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-55200</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>22800</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>20500</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>16800</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-2400</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>48200</v>
       </c>
     </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-358800</v>
+      </c>
+      <c r="E27" s="3">
         <v>38200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>122100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>9500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-14300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>44000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>37800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-170700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>21800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-1800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>12800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>47700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>39400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>39700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>42700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>57600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>54100</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>45800</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-53400</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>22700</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>20200</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>16300</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-2100</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>47200</v>
       </c>
     </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2297,8 +2355,11 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2329,8 +2390,8 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>8</v>
+      <c r="M29" s="3">
+        <v>0</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>8</v>
@@ -2347,11 +2408,11 @@
       <c r="R29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S29" s="3">
+      <c r="S29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T29" s="3">
         <v>100</v>
-      </c>
-      <c r="T29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="U29" s="3" t="s">
         <v>8</v>
@@ -2359,11 +2420,11 @@
       <c r="V29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W29" s="3">
+      <c r="W29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X29" s="3">
         <v>-5600</v>
-      </c>
-      <c r="X29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Y29" s="3" t="s">
         <v>8</v>
@@ -2377,8 +2438,11 @@
       <c r="AB29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2457,8 +2521,11 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2537,168 +2604,177 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>11000</v>
+      </c>
+      <c r="E32" s="3">
         <v>15200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>10700</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>7600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>9700</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>9200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>9800</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>12400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>13300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>12200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>8800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>7200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>6500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>7300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>5700</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>5600</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>12400</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>4500</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>400</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>6600</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>15400</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>8200</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>7200</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>11400</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>5400</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>8600</v>
       </c>
     </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-358800</v>
+      </c>
+      <c r="E33" s="3">
         <v>38200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>122100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>9500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-14300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>44000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>37800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-170700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>21800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-1800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>12800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>47700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>39400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>39700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>42800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>57600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>54100</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>45800</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-59000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>22700</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>20200</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>16300</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-2100</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>47200</v>
       </c>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2777,173 +2853,182 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-358800</v>
+      </c>
+      <c r="E35" s="3">
         <v>38200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>122100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>9500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-14300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>44000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>37800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-170700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>21800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-1800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>12800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>47700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>39400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>39700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>42800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>57600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>54100</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>45800</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-59000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>22700</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>20200</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>16300</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-2100</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>47200</v>
       </c>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44835</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44744</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44653</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44562</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44471</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44380</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44289</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44198</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44100</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44009</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43918</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43827</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43736</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43645</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43554</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43463</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43372</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43099</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43008</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42917</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42826</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42735</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42623</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2972,8 +3057,9 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3002,88 +3088,92 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>131500</v>
+      </c>
+      <c r="E41" s="3">
         <v>136400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>149300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>149600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>161700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>183600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>345800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>364800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>347400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>342000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>422600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>472600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>180600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>125200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>116500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>80600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>143100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>228100</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>354900</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>257100</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>481000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>342700</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>412800</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>304100</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>369800</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>530900</v>
       </c>
     </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3162,328 +3252,343 @@
       <c r="AB42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>241700</v>
+      </c>
+      <c r="E43" s="3">
         <v>440000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>420000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>370600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>319600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>362600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>372000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>323600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>268300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>332100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>263800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>323400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>331200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>357300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>363700</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>375500</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>361200</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>364000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>297200</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>295300</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>271300</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>294500</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>287100</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>287700</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>263300</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>309500</v>
       </c>
     </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>745200</v>
+      </c>
+      <c r="E44" s="3">
         <v>880900</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>639500</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>483300</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>365500</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>412000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>331700</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>320900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>243100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>325700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>386500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>405300</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>348200</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>417700</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>406500</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>374000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>317600</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>324400</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>293800</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>290500</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>276700</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>338800</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>333700</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>356500</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>348700</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>457600</v>
       </c>
     </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>146900</v>
+      </c>
+      <c r="E45" s="3">
         <v>94500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>84500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>74400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>56900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>44400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>36900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>37900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>45400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>42200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>45700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>50400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>107100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>48400</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>42600</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>45400</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>45800</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>32200</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>36300</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>37500</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>45300</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>44000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>58900</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>39500</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>49600</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>42600</v>
       </c>
     </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1265300</v>
+      </c>
+      <c r="E46" s="3">
         <v>1551800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1293300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1077900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>903700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1002600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1086400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1047200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>904200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1042000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1118600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1251700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>967100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>948600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>929300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>875500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>867700</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>948700</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>982200</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>880400</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>1074300</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>1020000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>1092500</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>987800</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>1031400</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>1340600</v>
       </c>
     </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3562,168 +3667,177 @@
       <c r="AB47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>310900</v>
+      </c>
+      <c r="E48" s="3">
         <v>291000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>294200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>266100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>267200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>262000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>254800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>257500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>267100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>274600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>287300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>296600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>301800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>306900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>296000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>290200</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>130900</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>131400</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>130400</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>133700</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>136700</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>142200</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>150100</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>145100</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>146100</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>148800</v>
       </c>
     </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>826400</v>
+      </c>
+      <c r="E49" s="3">
         <v>1252800</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1289900</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1332400</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1349300</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>1350600</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>896500</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>896200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>897700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1116300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1115200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1115400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1121200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1121100</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1125000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>1101100</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>1100800</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>1105100</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>1105700</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>1109400</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>1111300</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>1181500</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>1186400</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>1185000</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>1186600</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>1202300</v>
       </c>
     </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3802,8 +3916,11 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3882,88 +3999,94 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>90100</v>
+      </c>
+      <c r="E52" s="3">
         <v>75000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>71600</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>69600</v>
-      </c>
-      <c r="G52" s="3">
-        <v>66200</v>
       </c>
       <c r="H52" s="3">
         <v>66200</v>
       </c>
       <c r="I52" s="3">
+        <v>66200</v>
+      </c>
+      <c r="J52" s="3">
         <v>65900</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>66400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>68400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>68200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>68300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>90000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>89900</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>91900</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>92600</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>84500</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>83700</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>83900</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>82000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>80500</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>76700</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>75000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>71000</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>69900</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>67600</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>67300</v>
       </c>
     </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4042,88 +4165,94 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2492700</v>
+      </c>
+      <c r="E54" s="3">
         <v>3170600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2949000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2746000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2586400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2681400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>2303600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>2267300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2137400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2501100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2589400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2753700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2480000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>2468500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>2442900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>2351300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>2183100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>2269100</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>2300300</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>2204000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>2399000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>2418700</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>2500000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>2387800</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>2431700</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>2759000</v>
       </c>
     </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4152,8 +4281,9 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4182,108 +4312,112 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>272200</v>
+      </c>
+      <c r="E57" s="3">
         <v>317900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>318100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>293800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>222100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>265100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>279200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>279300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>185000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>191800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>154900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>137600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>202100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>155600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>212700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>112600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>202300</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>139500</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>174300</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>97200</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>162300</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>141700</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>207600</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>113800</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>150800</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>168000</v>
       </c>
     </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>435000</v>
+      </c>
+      <c r="E58" s="3">
         <v>750000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>500000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>365000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>235000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>320000</v>
-      </c>
-      <c r="I58" s="3">
-        <v>10000</v>
       </c>
       <c r="J58" s="3">
         <v>10000</v>
@@ -4292,378 +4426,393 @@
         <v>10000</v>
       </c>
       <c r="L58" s="3">
+        <v>10000</v>
+      </c>
+      <c r="M58" s="3">
         <v>162500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>308500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>802500</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>372500</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>503300</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>378000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>336000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>132500</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>61500</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>46300</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>42000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>38000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>52500</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>46600</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>43600</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>40400</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>394700</v>
       </c>
     </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>403100</v>
+      </c>
+      <c r="E59" s="3">
         <v>263400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>276600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>308600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>302500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>267000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>233700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>208500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>211000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>205700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>213000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>179600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>212800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>175000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>154200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>143500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>138300</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>156600</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>150400</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>137500</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>162000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>136300</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>135100</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>122700</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>142500</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>162100</v>
       </c>
     </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1110300</v>
+      </c>
+      <c r="E60" s="3">
         <v>1331300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1094700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>967400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>759600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>852100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>522900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>497800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>406000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>560000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>676400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1119700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>787400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>833900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>744900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>592100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>473100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>357600</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>371000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>276700</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>362300</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>330500</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>389300</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>280100</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>333700</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>724800</v>
       </c>
     </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>723000</v>
+      </c>
+      <c r="E61" s="3">
         <v>725200</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>727400</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>729600</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>731800</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>704400</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>708400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>710400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>712500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>714100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>715900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>423600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>425900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>430700</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>433000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>435300</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>438000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>601000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>615600</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>630300</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>744600</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>744200</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>758700</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>769500</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>780300</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>657700</v>
       </c>
     </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>320400</v>
+      </c>
+      <c r="E62" s="3">
         <v>439900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>465100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>433700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>450600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>483000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>423200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>434000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>445900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>461500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>461200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>474500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>488300</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>410000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>409800</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>406600</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>280400</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>248200</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>298400</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>339700</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>336900</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>333900</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>343500</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>342700</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>343600</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>335800</v>
       </c>
     </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4742,8 +4891,11 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4822,8 +4974,11 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4902,88 +5057,94 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2172100</v>
+      </c>
+      <c r="E66" s="3">
         <v>2513700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2305100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2149300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1956800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2054700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1670400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1658200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1576000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1747000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1865400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2028100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1713300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1685600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1599200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1439900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1197100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1212800</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1290700</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>1252500</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>1449400</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>1417000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>1500300</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>1400300</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>1465200</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>1726800</v>
       </c>
     </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5012,8 +5173,9 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5092,8 +5254,11 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5172,8 +5337,11 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5252,8 +5420,11 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5332,88 +5503,94 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>907200</v>
+      </c>
+      <c r="E72" s="3">
         <v>1277100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>1246100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>1129600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>1128200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>1151200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>1159600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>1123100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1093300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1272400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1258300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1268100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1263300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1273200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>1232800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>1201200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>1169700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>1138300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>1087100</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>1039400</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>992200</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>1058400</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>1040900</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>1026000</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>1015100</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>1022800</v>
       </c>
     </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5492,8 +5669,11 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5572,8 +5752,11 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5652,88 +5835,94 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>320600</v>
+      </c>
+      <c r="E76" s="3">
         <v>656900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>643900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>596700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>629600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>626700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>633200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>609100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>561400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>754100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>724000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>725600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>766700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>782900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>843700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>911400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>986000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1056300</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>1009600</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>951500</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>949600</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>1001700</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>999700</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>987500</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>966500</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>1032200</v>
       </c>
     </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5812,173 +6001,182 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44835</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44744</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44653</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44562</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44471</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44380</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44289</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44198</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44100</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44009</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43918</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43827</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43736</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43645</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43554</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43463</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43372</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43099</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43008</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42917</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42826</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42735</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42623</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-358800</v>
+      </c>
+      <c r="E81" s="3">
         <v>38200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>122100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>9500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-14300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>44000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>37800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-170700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>21800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-1800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>12800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>47700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>39400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>39700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>42800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>57600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>54100</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>45800</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-59000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>22700</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>20200</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>16300</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-2100</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>47200</v>
       </c>
     </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6007,88 +6205,92 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>9400</v>
+      </c>
+      <c r="E83" s="3">
         <v>8400</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>8300</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>8500</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>10100</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>8700</v>
-      </c>
-      <c r="I83" s="3">
-        <v>7200</v>
       </c>
       <c r="J83" s="3">
         <v>7200</v>
       </c>
       <c r="K83" s="3">
+        <v>7200</v>
+      </c>
+      <c r="L83" s="3">
         <v>9000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>8400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>7600</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>7800</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>9400</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>8300</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>7800</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>7200</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>8900</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>7500</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>7300</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>7800</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>9200</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>9800</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>9000</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>9200</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>13500</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>9700</v>
       </c>
     </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6167,8 +6369,11 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6247,8 +6452,11 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6327,8 +6535,11 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6407,8 +6618,11 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6487,88 +6701,94 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>311300</v>
+      </c>
+      <c r="E89" s="3">
         <v>-242300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-155400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-92500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>69800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-34700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>25400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>26300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>173600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>96500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>115600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-76600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>206600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>12100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>136300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-132400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>131500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-99100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>126400</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-61300</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>153200</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-58100</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>138400</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>-30800</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>153100</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>70400</v>
       </c>
     </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6597,88 +6817,92 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-13000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-7400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-8600</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-7500</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-7600</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-3300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-4500</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-2200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-4300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-3000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-3600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-5700</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-10400</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-10500</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-7800</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-6400</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-7000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-4900</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-3400</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-3700</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-8900</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-8700</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-11100</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-20900</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-6200</v>
       </c>
     </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6757,8 +6981,11 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6837,88 +7064,94 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-13600</v>
+      </c>
+      <c r="E94" s="3">
         <v>-10500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>82500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-3800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-7600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-421600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-5400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-2700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-3500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>18500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-9300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-8100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-11000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-34500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-7900</v>
-      </c>
-      <c r="S94" s="3">
-        <v>-7400</v>
       </c>
       <c r="T94" s="3">
         <v>-7400</v>
       </c>
       <c r="U94" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="V94" s="3">
         <v>-3300</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-4100</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-6200</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>28200</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-11200</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-11800</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-13900</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6947,58 +7180,59 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-8100</v>
+      </c>
+      <c r="E96" s="3">
         <v>-7900</v>
-      </c>
-      <c r="E96" s="3">
-        <v>-8400</v>
       </c>
       <c r="F96" s="3">
         <v>-8400</v>
       </c>
       <c r="G96" s="3">
-        <v>-8300</v>
+        <v>-8400</v>
       </c>
       <c r="H96" s="3">
         <v>-8300</v>
       </c>
       <c r="I96" s="3">
+        <v>-8300</v>
+      </c>
+      <c r="J96" s="3">
         <v>-8400</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-8500</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-8200</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-8400</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-8000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-9000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-8200</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-8600</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-8900</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-7900</v>
-      </c>
-      <c r="S96" s="3">
-        <v>-7600</v>
       </c>
       <c r="T96" s="3">
         <v>-7600</v>
@@ -7007,13 +7241,13 @@
         <v>-7600</v>
       </c>
       <c r="V96" s="3">
+        <v>-7600</v>
+      </c>
+      <c r="W96" s="3">
         <v>-5800</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-5600</v>
-      </c>
-      <c r="X96" s="3">
-        <v>-5800</v>
       </c>
       <c r="Y96" s="3">
         <v>-5800</v>
@@ -7025,10 +7259,13 @@
         <v>-5800</v>
       </c>
       <c r="AB96" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="AC96" s="3">
         <v>-5900</v>
       </c>
     </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7107,8 +7344,11 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7187,8 +7427,11 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7267,244 +7510,256 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-295400</v>
+      </c>
+      <c r="E100" s="3">
         <v>239400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>77100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>86000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-80400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>294800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-40200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-4900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-169400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-179700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-184200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>379300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-144000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>8400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-66500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>77500</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-207100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-20700</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-17600</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-159100</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-10600</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-41700</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-21900</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-23800</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-296000</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>237800</v>
       </c>
     </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="E101" s="3">
         <v>500</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-4500</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-1800</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-3700</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-700</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>1200</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-1300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>4700</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>2200</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>100</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-1400</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>900</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-800</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>600</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>300</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-2000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>400</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-7700</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>600</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>1900</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>1500</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>3400</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>700</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>-4300</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E102" s="3">
         <v>-12900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-12100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-21900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-162200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-19000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>17400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>5400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-80600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-50000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>292000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>55400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>8700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>35900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-62500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-85000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-126800</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>97800</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-223900</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>138300</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-70100</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>108700</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-65700</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-161100</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>309200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/WWW_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WWW_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="92">
   <si>
     <t>WWW</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,366 +665,379 @@
     <col min="1" max="1" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="12" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="13" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45017</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44835</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44744</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44653</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44562</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44471</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44380</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44289</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44198</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44009</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43918</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43827</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43736</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43645</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43554</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43463</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43372</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43099</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43008</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42917</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42826</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42735</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42623</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>599400</v>
+      </c>
+      <c r="E8" s="3">
         <v>665000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>691400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>713600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>614800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>635600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>636700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>631900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>510700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>509600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>493100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>349100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>439300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>607400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>574300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>568600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>523400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>579600</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>558600</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>566900</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>534100</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>578600</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>581300</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>598800</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>591300</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>729600</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>603700</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>363100</v>
+      </c>
+      <c r="E9" s="3">
         <v>440800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>413600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>406500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>353500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>373200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>361900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>361500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>288400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>305000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>291100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>201900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>257500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>377500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>331000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>338200</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>303200</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>352500</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>326500</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>332700</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>306200</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>355800</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>349400</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>369400</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>352000</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>458300</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>366100</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>236300</v>
+      </c>
+      <c r="E10" s="3">
         <v>224200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>277800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>307100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>261300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>262400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>274800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>270400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>222300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>204600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>202000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>147200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>181800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>229900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>243300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>230400</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>220200</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>227100</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>232100</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>234200</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>227900</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>222800</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>231900</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>229400</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>239300</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>271300</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>237600</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1054,8 +1067,9 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1137,8 +1151,11 @@
       <c r="AC12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1220,52 +1237,55 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>-20100</v>
+      </c>
+      <c r="E14" s="3">
         <v>428700</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>8</v>
+      <c r="F14" s="3">
+        <v>0</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I14" s="3">
         <v>300</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>34000</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3" t="s">
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>227500</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
       <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>200</v>
       </c>
-      <c r="O14" s="3" t="s">
+      <c r="P14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="3" t="s">
-        <v>8</v>
+      <c r="Q14" s="3">
+        <v>0</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>8</v>
@@ -1273,12 +1293,12 @@
       <c r="S14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T14" s="3">
+      <c r="T14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U14" s="3">
         <v>600</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
-      </c>
       <c r="V14" s="3">
         <v>0</v>
       </c>
@@ -1286,25 +1306,28 @@
         <v>0</v>
       </c>
       <c r="X14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="3">
         <v>76600</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>24200</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>25100</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>24600</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AC14" s="3">
         <v>50300</v>
       </c>
-      <c r="AC14" s="3">
+      <c r="AD14" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1386,8 +1409,11 @@
       <c r="AC15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1414,174 +1440,181 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>554100</v>
+      </c>
+      <c r="E17" s="3">
         <v>1119700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>632600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>545700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>595200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>644600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>628200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>568100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>452600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>719000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>450500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>341800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>422400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>612600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>506000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>513100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>471000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>526300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>490200</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>498800</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>472600</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>644100</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>546000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>569600</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>558700</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>732100</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>535200</v>
       </c>
     </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>45300</v>
+      </c>
+      <c r="E18" s="3">
         <v>-454700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>58800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>167900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>19600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-9000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>8500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>63800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>58100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-209400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>42600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>7300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>16900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-5200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>68300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>55500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>52400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>53300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>68400</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>68100</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>61500</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-65500</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>35300</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>29200</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>32600</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>-2500</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>68500</v>
       </c>
     </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1611,174 +1644,181 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-17000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-11000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-15200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-10700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-7600</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-9700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-9200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-9800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-12400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-13300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-12200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-8800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-7200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-6500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-7300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-5700</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-5600</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-12400</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-4500</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-400</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-6600</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-15400</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-8200</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-7200</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-11400</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>-5400</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>-8600</v>
       </c>
     </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>36800</v>
+      </c>
+      <c r="E21" s="3">
         <v>-456300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>52000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>165500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>20500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-8600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>8000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>61200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>52900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-213700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>38800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>6100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>17500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-2300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>69300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>57600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>54000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>49800</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>71400</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>75000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>62700</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-71700</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>36900</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>31000</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>30400</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>5600</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>69600</v>
       </c>
     </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1860,174 +1900,183 @@
       <c r="AC22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>28300</v>
+      </c>
+      <c r="E23" s="3">
         <v>-465700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>43600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>157200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>12000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-18700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>54000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>45700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-222700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>30400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-1500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>9700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-11700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>61000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>49800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>46800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>40900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>63900</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>67700</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>54900</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-80900</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>27100</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>22000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>21200</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>-7900</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>59900</v>
       </c>
     </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>10300</v>
+      </c>
+      <c r="E24" s="3">
         <v>-104900</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>4800</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>32700</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>3600</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-3700</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>9600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>7300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-51500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>8700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-3100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-11200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>12400</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>9600</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>6200</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>1600</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>5000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>12200</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>8300</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>-25700</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>4300</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>1500</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>4400</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>-5500</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>11700</v>
       </c>
     </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2109,174 +2158,183 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>18000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-360800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>38800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>124500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>8400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-15000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>44400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>38400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-171200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>21700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-1900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>12800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>48600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>40200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>40600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>39300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>58900</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>55500</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>46600</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-55200</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>22800</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>20500</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>16800</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>-2400</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>48200</v>
       </c>
     </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>18600</v>
+      </c>
+      <c r="E27" s="3">
         <v>-358800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>38200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>122100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>9500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-14300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>44000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>37800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-170700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>21800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-1800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>12800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>47700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>39400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>39700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>42700</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>57600</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>54100</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>45800</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-53400</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>22700</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>20200</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>16300</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>-2100</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>47200</v>
       </c>
     </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2358,8 +2416,11 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2393,8 +2454,8 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>8</v>
+      <c r="N29" s="3">
+        <v>0</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>8</v>
@@ -2411,11 +2472,11 @@
       <c r="S29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T29" s="3">
+      <c r="T29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U29" s="3">
         <v>100</v>
-      </c>
-      <c r="U29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="V29" s="3" t="s">
         <v>8</v>
@@ -2423,11 +2484,11 @@
       <c r="W29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X29" s="3">
+      <c r="X29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y29" s="3">
         <v>-5600</v>
-      </c>
-      <c r="Y29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Z29" s="3" t="s">
         <v>8</v>
@@ -2441,8 +2502,11 @@
       <c r="AC29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2524,8 +2588,11 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2607,174 +2674,183 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>17000</v>
+      </c>
+      <c r="E32" s="3">
         <v>11000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>15200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>10700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>7600</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>9700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>9200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>9800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>12400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>13300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>12200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>8800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>7200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>6500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>7300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>5700</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>5600</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>12400</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>4500</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>400</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>6600</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>15400</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>8200</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>7200</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>11400</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>5400</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>8600</v>
       </c>
     </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>18600</v>
+      </c>
+      <c r="E33" s="3">
         <v>-358800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>38200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>122100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>9500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-14300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>44000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>37800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-170700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>21800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-1800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>12800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>47700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>39400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>39700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>42800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>57600</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>54100</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>45800</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-59000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>22700</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>20200</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>16300</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>-2100</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>47200</v>
       </c>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2856,179 +2932,188 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>18600</v>
+      </c>
+      <c r="E35" s="3">
         <v>-358800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>38200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>122100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>9500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-14300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>44000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>37800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-170700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>21800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-1800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>12800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>47700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>39400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>39700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>42800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>57600</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>54100</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>45800</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-59000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>22700</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>20200</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>16300</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>-2100</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>47200</v>
       </c>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45017</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44835</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44744</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44653</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44562</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44471</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44380</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44289</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44198</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44009</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43918</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43827</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43736</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43645</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43554</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43463</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43372</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43099</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43008</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42917</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42826</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42735</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42623</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3058,8 +3143,9 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3089,91 +3175,95 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>116200</v>
+      </c>
+      <c r="E41" s="3">
         <v>131500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>136400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>149300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>149600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>161700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>183600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>345800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>364800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>347400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>342000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>422600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>472600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>180600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>125200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>116500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>80600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>143100</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>228100</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>354900</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>257100</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>481000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>342700</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>412800</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>304100</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>369800</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>530900</v>
       </c>
     </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3255,340 +3345,355 @@
       <c r="AC42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>251200</v>
+      </c>
+      <c r="E43" s="3">
         <v>241700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>440000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>420000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>370600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>319600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>362600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>372000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>323600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>268300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>332100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>263800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>323400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>331200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>357300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>363700</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>375500</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>361200</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>364000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>297200</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>295300</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>271300</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>294500</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>287100</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>287700</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>263300</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>309500</v>
       </c>
     </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>725900</v>
+      </c>
+      <c r="E44" s="3">
         <v>745200</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>880900</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>639500</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>483300</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>365500</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>412000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>331700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>320900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>243100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>325700</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>386500</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>405300</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>348200</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>417700</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>406500</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>374000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>317600</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>324400</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>293800</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>290500</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>276700</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>338800</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>333700</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>356500</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>348700</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>457600</v>
       </c>
     </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>109300</v>
+      </c>
+      <c r="E45" s="3">
         <v>146900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>94500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>84500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>74400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>56900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>44400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>36900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>37900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>45400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>42200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>45700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>50400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>107100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>48400</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>42600</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>45400</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>45800</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>32200</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>36300</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>37500</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>45300</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>44000</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>58900</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>39500</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>49600</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>42600</v>
       </c>
     </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1202600</v>
+      </c>
+      <c r="E46" s="3">
         <v>1265300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1551800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1293300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1077900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>903700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1002600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1086400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1047200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>904200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1042000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1118600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1251700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>967100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>948600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>929300</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>875500</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>867700</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>948700</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>982200</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>880400</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>1074300</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>1020000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>1092500</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>987800</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>1031400</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>1340600</v>
       </c>
     </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3670,174 +3775,183 @@
       <c r="AC47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>312700</v>
+      </c>
+      <c r="E48" s="3">
         <v>310900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>291000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>294200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>266100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>267200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>262000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>254800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>257500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>267100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>274600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>287300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>296600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>301800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>306900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>296000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>290200</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>130900</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>131400</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>130400</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>133700</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>136700</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>142200</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>150100</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>145100</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>146100</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>148800</v>
       </c>
     </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>803400</v>
+      </c>
+      <c r="E49" s="3">
         <v>826400</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1252800</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1289900</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1332400</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>1349300</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>1350600</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>896500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>896200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>897700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1116300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1115200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1115400</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1121200</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1121100</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>1125000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>1101100</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>1100800</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>1105100</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>1105700</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>1109400</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>1111300</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>1181500</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>1186400</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>1185000</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>1186600</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>1202300</v>
       </c>
     </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3919,8 +4033,11 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4002,91 +4119,97 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>98000</v>
+      </c>
+      <c r="E52" s="3">
         <v>90100</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>75000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>71600</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>69600</v>
-      </c>
-      <c r="H52" s="3">
-        <v>66200</v>
       </c>
       <c r="I52" s="3">
         <v>66200</v>
       </c>
       <c r="J52" s="3">
+        <v>66200</v>
+      </c>
+      <c r="K52" s="3">
         <v>65900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>66400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>68400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>68200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>68300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>90000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>89900</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>91900</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>92600</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>84500</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>83700</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>83900</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>82000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>80500</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>76700</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>75000</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>71000</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>69900</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>67600</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>67300</v>
       </c>
     </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4168,91 +4291,97 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2416700</v>
+      </c>
+      <c r="E54" s="3">
         <v>2492700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>3170600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2949000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2746000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2586400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>2681400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>2303600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2267300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2137400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2501100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2589400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2753700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>2480000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>2468500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>2442900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>2351300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>2183100</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>2269100</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>2300300</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>2204000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>2399000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>2418700</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>2500000</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>2387800</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>2431700</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>2759000</v>
       </c>
     </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4282,8 +4411,9 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4313,114 +4443,118 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>226900</v>
+      </c>
+      <c r="E57" s="3">
         <v>272200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>317900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>318100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>293800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>222100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>265100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>279200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>279300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>185000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>191800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>154900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>137600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>202100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>155600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>212700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>112600</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>202300</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>139500</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>174300</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>97200</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>162300</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>141700</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>207600</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>113800</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>150800</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>168000</v>
       </c>
     </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>460000</v>
+      </c>
+      <c r="E58" s="3">
         <v>435000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>750000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>500000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>365000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>235000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>320000</v>
-      </c>
-      <c r="J58" s="3">
-        <v>10000</v>
       </c>
       <c r="K58" s="3">
         <v>10000</v>
@@ -4429,390 +4563,405 @@
         <v>10000</v>
       </c>
       <c r="M58" s="3">
+        <v>10000</v>
+      </c>
+      <c r="N58" s="3">
         <v>162500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>308500</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>802500</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>372500</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>503300</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>378000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>336000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>132500</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>61500</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>46300</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>42000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>38000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>52500</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>46600</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>43600</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>40400</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>394700</v>
       </c>
     </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>349000</v>
+      </c>
+      <c r="E59" s="3">
         <v>403100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>263400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>276600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>308600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>302500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>267000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>233700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>208500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>211000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>205700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>213000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>179600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>212800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>175000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>154200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>143500</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>138300</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>156600</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>150400</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>137500</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>162000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>136300</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>135100</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>122700</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>142500</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>162100</v>
       </c>
     </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1035900</v>
+      </c>
+      <c r="E60" s="3">
         <v>1110300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1331300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1094700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>967400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>759600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>852100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>522900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>497800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>406000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>560000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>676400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1119700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>787400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>833900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>744900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>592100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>473100</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>357600</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>371000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>276700</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>362300</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>330500</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>389300</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>280100</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>333700</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>724800</v>
       </c>
     </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>720800</v>
+      </c>
+      <c r="E61" s="3">
         <v>723000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>725200</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>727400</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>729600</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>731800</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>704400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>708400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>710400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>712500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>714100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>715900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>423600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>425900</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>430700</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>433000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>435300</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>438000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>601000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>615600</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>630300</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>744600</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>744200</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>758700</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>769500</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>780300</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>657700</v>
       </c>
     </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>315500</v>
+      </c>
+      <c r="E62" s="3">
         <v>320400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>439900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>465100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>433700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>450600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>483000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>423200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>434000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>445900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>461500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>461200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>474500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>488300</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>410000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>409800</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>406600</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>280400</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>248200</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>298400</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>339700</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>336900</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>333900</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>343500</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>342700</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>343600</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>335800</v>
       </c>
     </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4894,8 +5043,11 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4977,8 +5129,11 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5060,91 +5215,97 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2090100</v>
+      </c>
+      <c r="E66" s="3">
         <v>2172100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2513700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2305100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2149300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1956800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2054700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1670400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1658200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1576000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1747000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1865400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2028100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1713300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1685600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1599200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1439900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1197100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1212800</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>1290700</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>1252500</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>1449400</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>1417000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>1500300</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>1400300</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>1465200</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>1726800</v>
       </c>
     </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5174,8 +5335,9 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5257,8 +5419,11 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5340,8 +5505,11 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5423,8 +5591,11 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5506,91 +5677,97 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>917900</v>
+      </c>
+      <c r="E72" s="3">
         <v>907200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>1277100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>1246100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>1129600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>1128200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>1151200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>1159600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1123100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1093300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1272400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1258300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1268100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1263300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>1273200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>1232800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>1201200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>1169700</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>1138300</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>1087100</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>1039400</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>992200</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>1058400</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>1040900</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>1026000</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>1015100</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>1022800</v>
       </c>
     </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5672,8 +5849,11 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5755,8 +5935,11 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5838,91 +6021,97 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>326600</v>
+      </c>
+      <c r="E76" s="3">
         <v>320600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>656900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>643900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>596700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>629600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>626700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>633200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>609100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>561400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>754100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>724000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>725600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>766700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>782900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>843700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>911400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>986000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>1056300</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>1009600</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>951500</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>949600</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>1001700</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>999700</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>987500</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>966500</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>1032200</v>
       </c>
     </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6004,179 +6193,188 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45017</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44835</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44744</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44653</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44562</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44471</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44380</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44289</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44198</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44009</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43918</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43827</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43736</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43645</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43554</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43463</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43372</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43099</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43008</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42917</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42826</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42735</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42623</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>18600</v>
+      </c>
+      <c r="E81" s="3">
         <v>-358800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>38200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>122100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>9500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-14300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>44000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>37800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-170700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>21800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-1800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>12800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>47700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>39400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>39700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>42800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>57600</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>54100</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>45800</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-59000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>22700</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>20200</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>16300</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>-2100</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>47200</v>
       </c>
     </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6206,91 +6404,95 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>8500</v>
+      </c>
+      <c r="E83" s="3">
         <v>9400</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>8400</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>8300</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>8500</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>10100</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>8700</v>
-      </c>
-      <c r="J83" s="3">
-        <v>7200</v>
       </c>
       <c r="K83" s="3">
         <v>7200</v>
       </c>
       <c r="L83" s="3">
+        <v>7200</v>
+      </c>
+      <c r="M83" s="3">
         <v>9000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>8400</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>7600</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>7800</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>9400</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>8300</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>7800</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>7200</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>8900</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>7500</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>7300</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>7800</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>9200</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>9800</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>9000</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>9200</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>13500</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>9700</v>
       </c>
     </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6372,8 +6574,11 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6455,8 +6660,11 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6538,8 +6746,11 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6621,8 +6832,11 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6704,91 +6918,97 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-97800</v>
+      </c>
+      <c r="E89" s="3">
         <v>311300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-242300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-155400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-92500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>69800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-34700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>25400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>26300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>173600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>96500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>115600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-76600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>206600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>12100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>136300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-132400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>131500</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-99100</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>126400</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-61300</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>153200</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-58100</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>138400</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>-30800</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>153100</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>70400</v>
       </c>
     </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6818,91 +7038,95 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-7300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-13000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-7400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-8600</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-7500</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-7600</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-3300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-4500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-2200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-4300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-3000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-3600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-5700</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-10400</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-10500</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-7800</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-6400</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-7000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-4900</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-3400</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-3700</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-8900</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-8700</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-11100</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-20900</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-6200</v>
       </c>
     </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6984,8 +7208,11 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7067,91 +7294,97 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>74500</v>
+      </c>
+      <c r="E94" s="3">
         <v>-13600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-10500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>82500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-3800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-7600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-421600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-5400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-2700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-3500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>18500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-9300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-8100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-11000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-34500</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-7900</v>
-      </c>
-      <c r="T94" s="3">
-        <v>-7400</v>
       </c>
       <c r="U94" s="3">
         <v>-7400</v>
       </c>
       <c r="V94" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="W94" s="3">
         <v>-3300</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-4100</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-6200</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>28200</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-11200</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-11800</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-13900</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7181,61 +7414,62 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-8400</v>
+      </c>
+      <c r="E96" s="3">
         <v>-8100</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-7900</v>
-      </c>
-      <c r="F96" s="3">
-        <v>-8400</v>
       </c>
       <c r="G96" s="3">
         <v>-8400</v>
       </c>
       <c r="H96" s="3">
-        <v>-8300</v>
+        <v>-8400</v>
       </c>
       <c r="I96" s="3">
         <v>-8300</v>
       </c>
       <c r="J96" s="3">
+        <v>-8300</v>
+      </c>
+      <c r="K96" s="3">
         <v>-8400</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-8500</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-8200</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-8400</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-8000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-9000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-8200</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-8600</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-8900</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-7900</v>
-      </c>
-      <c r="T96" s="3">
-        <v>-7600</v>
       </c>
       <c r="U96" s="3">
         <v>-7600</v>
@@ -7244,13 +7478,13 @@
         <v>-7600</v>
       </c>
       <c r="W96" s="3">
+        <v>-7600</v>
+      </c>
+      <c r="X96" s="3">
         <v>-5800</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-5600</v>
-      </c>
-      <c r="Y96" s="3">
-        <v>-5800</v>
       </c>
       <c r="Z96" s="3">
         <v>-5800</v>
@@ -7262,10 +7496,13 @@
         <v>-5800</v>
       </c>
       <c r="AC96" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="AD96" s="3">
         <v>-5900</v>
       </c>
     </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7347,8 +7584,11 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7430,8 +7670,11 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7513,253 +7756,265 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>8700</v>
+      </c>
+      <c r="E100" s="3">
         <v>-295400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>239400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>77100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>86000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-80400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>294800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-40200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-4900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-169400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-179700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-184200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>379300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-144000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>8400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-66500</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>77500</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-207100</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-20700</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-17600</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-159100</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-10600</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-41700</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-21900</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-23800</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-296000</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>237800</v>
       </c>
     </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E101" s="3">
         <v>-3200</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>500</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-4500</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-1800</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-3700</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-700</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>1200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-1300</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>4700</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>2200</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>100</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-1400</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>900</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-800</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>600</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>300</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-2000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>400</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-7700</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>600</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>1900</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>1500</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>3400</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>700</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>-4300</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-14900</v>
+      </c>
+      <c r="E102" s="3">
         <v>-900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-12900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-12100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-21900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-162200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-19000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>17400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>5400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-80600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-50000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>292000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>55400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>8700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>35900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-62500</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-85000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-126800</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>97800</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-223900</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>138300</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-70100</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>108700</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-65700</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-161100</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>309200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/WWW_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WWW_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="92">
   <si>
     <t>WWW</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,379 +665,391 @@
     <col min="1" max="1" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="13" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="14" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45108</v>
+      </c>
+      <c r="E7" s="2">
         <v>45017</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44835</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44744</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44653</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44562</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44471</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44380</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44289</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44198</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44009</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43918</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43827</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43736</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43645</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43554</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43463</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43372</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43099</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42917</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42826</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42735</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42623</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>589100</v>
+      </c>
+      <c r="E8" s="3">
         <v>599400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>665000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>691400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>713600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>614800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>635600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>636700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>631900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>510700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>509600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>493100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>349100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>439300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>607400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>574300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>568600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>523400</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>579600</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>558600</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>566900</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>534100</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>578600</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>581300</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>598800</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>591300</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>729600</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>603700</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>361300</v>
+      </c>
+      <c r="E9" s="3">
         <v>363100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>440800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>413600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>406500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>353500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>373200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>361900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>361500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>288400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>305000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>291100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>201900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>257500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>377500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>331000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>338200</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>303200</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>352500</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>326500</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>332700</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>306200</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>355800</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>349400</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>369400</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>352000</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>458300</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>366100</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>227800</v>
+      </c>
+      <c r="E10" s="3">
         <v>236300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>224200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>277800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>307100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>261300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>262400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>274800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>270400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>222300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>204600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>202000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>147200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>181800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>229900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>243300</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>230400</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>220200</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>227100</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>232100</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>234200</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>227900</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>222800</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>231900</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>229400</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>239300</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>271300</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>237600</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1068,8 +1080,9 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1154,8 +1167,11 @@
       <c r="AD12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1240,55 +1256,58 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>15600</v>
+      </c>
+      <c r="E14" s="3">
         <v>-20100</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>428700</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>8</v>
+      <c r="G14" s="3">
+        <v>0</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J14" s="3">
         <v>300</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>34000</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3" t="s">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>227500</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
       <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>200</v>
       </c>
-      <c r="P14" s="3" t="s">
+      <c r="Q14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
-      <c r="R14" s="3" t="s">
-        <v>8</v>
+      <c r="R14" s="3">
+        <v>0</v>
       </c>
       <c r="S14" s="3" t="s">
         <v>8</v>
@@ -1296,12 +1315,12 @@
       <c r="T14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U14" s="3">
+      <c r="U14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V14" s="3">
         <v>600</v>
       </c>
-      <c r="V14" s="3">
-        <v>0</v>
-      </c>
       <c r="W14" s="3">
         <v>0</v>
       </c>
@@ -1309,25 +1328,28 @@
         <v>0</v>
       </c>
       <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="3">
         <v>76600</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>24200</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>25100</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AC14" s="3">
         <v>24600</v>
       </c>
-      <c r="AC14" s="3">
+      <c r="AD14" s="3">
         <v>50300</v>
       </c>
-      <c r="AD14" s="3">
+      <c r="AE14" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1412,8 +1434,11 @@
       <c r="AD15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1441,180 +1466,187 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>543000</v>
+      </c>
+      <c r="E17" s="3">
         <v>554100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1119700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>632600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>545700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>595200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>644600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>628200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>568100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>452600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>719000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>450500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>341800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>422400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>612600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>506000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>513100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>471000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>526300</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>490200</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>498800</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>472600</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>644100</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>546000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>569600</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>558700</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>732100</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>535200</v>
       </c>
     </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>46100</v>
+      </c>
+      <c r="E18" s="3">
         <v>45300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-454700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>58800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>167900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>19600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-9000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>8500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>63800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>58100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-209400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>42600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>7300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>16900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-5200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>68300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>55500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>52400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>53300</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>68400</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>68100</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>61500</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-65500</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>35300</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>29200</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>32600</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>-2500</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>68500</v>
       </c>
     </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1645,180 +1677,187 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-15700</v>
+      </c>
+      <c r="E20" s="3">
         <v>-17000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-11000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-15200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-10700</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-7600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-9700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-9200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-9800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-12400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-13300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-12200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-8800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-7200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-6500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-7300</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-5700</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-5600</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-12400</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-4500</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-400</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-6600</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-15400</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-8200</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-7200</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>-11400</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>-5400</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>-8600</v>
       </c>
     </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>39000</v>
+      </c>
+      <c r="E21" s="3">
         <v>36800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-456300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>52000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>165500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>20500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-8600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>8000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>61200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>52900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-213700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>38800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>6100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>17500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-2300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>69300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>57600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>54000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>49800</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>71400</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>75000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>62700</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>-71700</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>36900</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>31000</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>30400</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>5600</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>69600</v>
       </c>
     </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1903,180 +1942,189 @@
       <c r="AD22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>30400</v>
+      </c>
+      <c r="E23" s="3">
         <v>28300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-465700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>43600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>157200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>12000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-18700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>54000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>45700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-222700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>30400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-1500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>9700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-11700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>61000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>49800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>46800</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>40900</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>63900</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>67700</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>54900</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-80900</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>27100</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>22000</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>21200</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>-7900</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>59900</v>
       </c>
     </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E24" s="3">
         <v>10300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-104900</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>4800</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>32700</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>3600</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-3700</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>9600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>7300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-51500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>8700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-3100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-11200</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>12400</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>9600</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>6200</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>1600</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>5000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>12200</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>8300</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>-25700</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>4300</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>1500</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>4400</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>-5500</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>11700</v>
       </c>
     </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2161,180 +2209,189 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>24400</v>
+      </c>
+      <c r="E26" s="3">
         <v>18000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-360800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>38800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>124500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>8400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-15000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>44400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>38400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-171200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>21700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-1900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>12800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>48600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>40200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>40600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>39300</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>58900</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>55500</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>46600</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-55200</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>22800</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>20500</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>16800</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>-2400</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>48200</v>
       </c>
     </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>23500</v>
+      </c>
+      <c r="E27" s="3">
         <v>18600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-358800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>38200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>122100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>9500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-14300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>44000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>37800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-170700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>21800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-1800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>12800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>47700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>39400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>39700</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>42700</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>57600</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>54100</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>45800</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-53400</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>22700</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>20200</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>16300</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>-2100</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>47200</v>
       </c>
     </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2419,8 +2476,11 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2457,8 +2517,8 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-      <c r="O29" s="3" t="s">
-        <v>8</v>
+      <c r="O29" s="3">
+        <v>0</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>8</v>
@@ -2475,11 +2535,11 @@
       <c r="T29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U29" s="3">
+      <c r="U29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V29" s="3">
         <v>100</v>
-      </c>
-      <c r="V29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="W29" s="3" t="s">
         <v>8</v>
@@ -2487,11 +2547,11 @@
       <c r="X29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="Y29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z29" s="3">
         <v>-5600</v>
-      </c>
-      <c r="Z29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="AA29" s="3" t="s">
         <v>8</v>
@@ -2505,8 +2565,11 @@
       <c r="AD29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2591,8 +2654,11 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2677,180 +2743,189 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>15700</v>
+      </c>
+      <c r="E32" s="3">
         <v>17000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>11000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>15200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>10700</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>7600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>9700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>9200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>9800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>12400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>13300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>12200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>8800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>7200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>6500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>7300</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>5700</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>5600</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>12400</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>4500</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>400</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>6600</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>15400</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>8200</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>7200</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>11400</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>5400</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>8600</v>
       </c>
     </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>23500</v>
+      </c>
+      <c r="E33" s="3">
         <v>18600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-358800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>38200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>122100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>9500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-14300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>44000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>37800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-170700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>21800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-1800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>12800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>47700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>39400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>39700</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>42800</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>57600</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>54100</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>45800</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-59000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>22700</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>20200</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>16300</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>-2100</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>47200</v>
       </c>
     </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2935,185 +3010,194 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>23500</v>
+      </c>
+      <c r="E35" s="3">
         <v>18600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-358800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>38200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>122100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>9500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-14300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>44000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>37800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-170700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>21800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-1800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>12800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>47700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>39400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>39700</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>42800</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>57600</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>54100</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>45800</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-59000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>22700</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>20200</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>16300</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>-2100</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>47200</v>
       </c>
     </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45108</v>
+      </c>
+      <c r="E38" s="2">
         <v>45017</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44835</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44744</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44653</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44562</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44471</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44380</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44289</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44198</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44009</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43918</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43827</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43736</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43645</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43554</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43463</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43372</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43099</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42917</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42826</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42735</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42623</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3144,8 +3228,9 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3176,94 +3261,98 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>176500</v>
+      </c>
+      <c r="E41" s="3">
         <v>116200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>131500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>136400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>149300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>149600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>161700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>183600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>345800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>364800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>347400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>342000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>422600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>472600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>180600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>125200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>116500</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>80600</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>143100</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>228100</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>354900</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>257100</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>481000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>342700</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>412800</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>304100</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>369800</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>530900</v>
       </c>
     </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3348,375 +3437,390 @@
       <c r="AD42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>241500</v>
+      </c>
+      <c r="E43" s="3">
         <v>251200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>241700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>440000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>420000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>370600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>319600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>362600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>372000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>323600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>268300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>332100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>263800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>323400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>331200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>357300</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>363700</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>375500</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>361200</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>364000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>297200</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>295300</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>271300</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>294500</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>287100</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>287700</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>263300</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>309500</v>
       </c>
     </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>647900</v>
+      </c>
+      <c r="E44" s="3">
         <v>725900</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>745200</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>880900</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>639500</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>483300</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>365500</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>412000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>331700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>320900</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>243100</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>325700</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>386500</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>405300</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>348200</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>417700</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>406500</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>374000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>317600</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>324400</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>293800</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>290500</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>276700</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>338800</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>333700</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>356500</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>348700</v>
       </c>
-      <c r="AD44" s="3">
+      <c r="AE44" s="3">
         <v>457600</v>
       </c>
     </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>98000</v>
+      </c>
+      <c r="E45" s="3">
         <v>109300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>146900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>94500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>84500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>74400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>56900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>44400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>36900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>37900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>45400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>42200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>45700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>50400</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>107100</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>48400</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>42600</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>45400</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>45800</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>32200</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>36300</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>37500</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>45300</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>44000</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>58900</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>39500</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>49600</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AE45" s="3">
         <v>42600</v>
       </c>
     </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1163900</v>
+      </c>
+      <c r="E46" s="3">
         <v>1202600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1265300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1551800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1293300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1077900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>903700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1002600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1086400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1047200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>904200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1042000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1118600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1251700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>967100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>948600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>929300</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>875500</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>867700</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>948700</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>982200</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>880400</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>1074300</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>1020000</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>1092500</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>987800</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>1031400</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>1340600</v>
       </c>
     </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>0</v>
-      </c>
-      <c r="E47" s="3">
-        <v>0</v>
-      </c>
-      <c r="F47" s="3">
-        <v>0</v>
-      </c>
-      <c r="G47" s="3">
-        <v>0</v>
-      </c>
-      <c r="H47" s="3">
-        <v>0</v>
-      </c>
-      <c r="I47" s="3">
-        <v>0</v>
-      </c>
-      <c r="J47" s="3">
-        <v>0</v>
+        <v>7500</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K47" s="3">
         <v>0</v>
@@ -3778,180 +3882,189 @@
       <c r="AD47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>289700</v>
+      </c>
+      <c r="E48" s="3">
         <v>312700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>310900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>291000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>294200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>266100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>267200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>262000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>254800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>257500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>267100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>274600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>287300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>296600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>301800</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>306900</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>296000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>290200</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>130900</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>131400</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>130400</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>133700</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>136700</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>142200</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>150100</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>145100</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>146100</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>148800</v>
       </c>
     </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>808000</v>
+      </c>
+      <c r="E49" s="3">
         <v>803400</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>826400</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1252800</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1289900</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>1332400</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>1349300</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>1350600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>896500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>896200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>897700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1116300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1115200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1115400</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1121200</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>1121100</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>1125000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>1101100</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>1100800</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>1105100</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>1105700</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>1109400</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>1111300</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>1181500</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>1186400</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>1185000</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>1186600</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AE49" s="3">
         <v>1202300</v>
       </c>
     </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4036,8 +4149,11 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4122,94 +4238,100 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>88200</v>
+      </c>
+      <c r="E52" s="3">
         <v>98000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>90100</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>75000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>71600</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>69600</v>
-      </c>
-      <c r="I52" s="3">
-        <v>66200</v>
       </c>
       <c r="J52" s="3">
         <v>66200</v>
       </c>
       <c r="K52" s="3">
+        <v>66200</v>
+      </c>
+      <c r="L52" s="3">
         <v>65900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>66400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>68400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>68200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>68300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>90000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>89900</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>91900</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>92600</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>84500</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>83700</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>83900</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>82000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>80500</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>76700</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>75000</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>71000</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>69900</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>67600</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AE52" s="3">
         <v>67300</v>
       </c>
     </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4294,94 +4416,100 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2357300</v>
+      </c>
+      <c r="E54" s="3">
         <v>2416700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2492700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>3170600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2949000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2746000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>2586400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>2681400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2303600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2267300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2137400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2501100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2589400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>2753700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>2480000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>2468500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>2442900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>2351300</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>2183100</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>2269100</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>2300300</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>2204000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>2399000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>2418700</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>2500000</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>2387800</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>2431700</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>2759000</v>
       </c>
     </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4412,8 +4540,9 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4444,120 +4573,124 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>252200</v>
+      </c>
+      <c r="E57" s="3">
         <v>226900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>272200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>317900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>318100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>293800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>222100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>265100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>279200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>279300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>185000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>191800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>154900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>137600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>202100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>155600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>212700</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>112600</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>202300</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>139500</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>174300</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>97200</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>162300</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>141700</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>207600</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>113800</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>150800</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>168000</v>
       </c>
     </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>395000</v>
+      </c>
+      <c r="E58" s="3">
         <v>460000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>435000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>750000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>500000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>365000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>235000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>320000</v>
-      </c>
-      <c r="K58" s="3">
-        <v>10000</v>
       </c>
       <c r="L58" s="3">
         <v>10000</v>
@@ -4566,402 +4699,417 @@
         <v>10000</v>
       </c>
       <c r="N58" s="3">
+        <v>10000</v>
+      </c>
+      <c r="O58" s="3">
         <v>162500</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>308500</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>802500</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>372500</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>503300</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>378000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>336000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>132500</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>61500</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>46300</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>42000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>38000</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>52500</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>46600</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>43600</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>40400</v>
       </c>
-      <c r="AD58" s="3">
+      <c r="AE58" s="3">
         <v>394700</v>
       </c>
     </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>317000</v>
+      </c>
+      <c r="E59" s="3">
         <v>349000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>403100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>263400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>276600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>308600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>302500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>267000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>233700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>208500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>211000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>205700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>213000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>179600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>212800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>175000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>154200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>143500</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>138300</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>156600</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>150400</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>137500</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>162000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>136300</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>135100</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>122700</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>142500</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>162100</v>
       </c>
     </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>964200</v>
+      </c>
+      <c r="E60" s="3">
         <v>1035900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1110300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1331300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1094700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>967400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>759600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>852100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>522900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>497800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>406000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>560000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>676400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1119700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>787400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>833900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>744900</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>592100</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>473100</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>357600</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>371000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>276700</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>362300</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>330500</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>389300</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>280100</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>333700</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>724800</v>
       </c>
     </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>718500</v>
+      </c>
+      <c r="E61" s="3">
         <v>720800</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>723000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>725200</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>727400</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>729600</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>731800</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>704400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>708400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>710400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>712500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>714100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>715900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>423600</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>425900</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>430700</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>433000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>435300</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>438000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>601000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>615600</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>630300</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>744600</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>744200</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>758700</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>769500</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>780300</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AE61" s="3">
         <v>657700</v>
       </c>
     </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>307700</v>
+      </c>
+      <c r="E62" s="3">
         <v>315500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>320400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>439900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>465100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>433700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>450600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>483000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>423200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>434000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>445900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>461500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>461200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>474500</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>488300</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>410000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>409800</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>406600</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>280400</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>248200</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>298400</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>339700</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>336900</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>333900</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>343500</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>342700</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>343600</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>335800</v>
       </c>
     </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5046,8 +5194,11 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5132,8 +5283,11 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5218,94 +5372,100 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2010500</v>
+      </c>
+      <c r="E66" s="3">
         <v>2090100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2172100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2513700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2305100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2149300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1956800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2054700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1670400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1658200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1576000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1747000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1865400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2028100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1713300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1685600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1599200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1439900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1197100</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>1212800</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>1290700</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>1252500</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>1449400</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>1417000</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>1500300</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>1400300</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>1465200</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>1726800</v>
       </c>
     </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5336,8 +5496,9 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5422,8 +5583,11 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5508,8 +5672,11 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5594,8 +5761,11 @@
       <c r="AD70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5680,94 +5850,100 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>933800</v>
+      </c>
+      <c r="E72" s="3">
         <v>917900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>907200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>1277100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>1246100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>1129600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>1128200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>1151200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1159600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1123100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1093300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1272400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1258300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1268100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>1263300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>1273200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>1232800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>1201200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>1169700</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>1138300</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>1087100</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>1039400</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>992200</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>1058400</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>1040900</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>1026000</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>1015100</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>1022800</v>
       </c>
     </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5852,8 +6028,11 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5938,8 +6117,11 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6024,94 +6206,100 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>346800</v>
+      </c>
+      <c r="E76" s="3">
         <v>326600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>320600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>656900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>643900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>596700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>629600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>626700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>633200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>609100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>561400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>754100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>724000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>725600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>766700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>782900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>843700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>911400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>986000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>1056300</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>1009600</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>951500</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>949600</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>1001700</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>999700</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>987500</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>966500</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>1032200</v>
       </c>
     </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6196,185 +6384,194 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45108</v>
+      </c>
+      <c r="E80" s="2">
         <v>45017</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44835</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44744</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44653</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44562</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44471</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44380</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44289</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44198</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44009</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43918</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43827</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43736</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43645</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43554</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43463</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43372</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43099</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42917</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42826</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42735</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42623</v>
       </c>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>23500</v>
+      </c>
+      <c r="E81" s="3">
         <v>18600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-358800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>38200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>122100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>9500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-14300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>44000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>37800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-170700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>21800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-1800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>12800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>47700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>39400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>39700</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>42800</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>57600</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>54100</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>45800</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-59000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>22700</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>20200</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>16300</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>-2100</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>47200</v>
       </c>
     </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6405,94 +6602,98 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>8600</v>
+      </c>
+      <c r="E83" s="3">
         <v>8500</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>9400</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>8400</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>8300</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>8500</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>10100</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>8700</v>
-      </c>
-      <c r="K83" s="3">
-        <v>7200</v>
       </c>
       <c r="L83" s="3">
         <v>7200</v>
       </c>
       <c r="M83" s="3">
+        <v>7200</v>
+      </c>
+      <c r="N83" s="3">
         <v>9000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>8400</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>7600</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>7800</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>9400</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>8300</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>7800</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>7200</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>8900</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>7500</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>7300</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>7800</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>9200</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>9800</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>9000</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>9200</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>13500</v>
       </c>
-      <c r="AD83" s="3">
+      <c r="AE83" s="3">
         <v>9700</v>
       </c>
     </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6577,8 +6778,11 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6663,8 +6867,11 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6749,8 +6956,11 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6835,8 +7045,11 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6921,94 +7134,100 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>143700</v>
+      </c>
+      <c r="E89" s="3">
         <v>-97800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>311300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-242300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-155400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-92500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>69800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-34700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>25400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>26300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>173600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>96500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>115600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-76600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>206600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>12100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>136300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-132400</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>131500</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-99100</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>126400</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-61300</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>153200</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>-58100</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>138400</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>-30800</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>153100</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>70400</v>
       </c>
     </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7039,94 +7258,98 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-6900</v>
+      </c>
+      <c r="E91" s="3">
         <v>-7300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-13000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-7400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-8600</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-7500</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-7600</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-3300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-4500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-2200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-4300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-3000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-3600</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-5700</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-10400</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-10500</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-7800</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-6400</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-7000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-4900</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-3400</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-3700</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-8900</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-8700</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-11100</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-20900</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>-6200</v>
       </c>
     </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7211,8 +7434,11 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7297,94 +7523,100 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-7500</v>
+      </c>
+      <c r="E94" s="3">
         <v>74500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-13600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-10500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>82500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-3800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-7600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-421600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-5400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-2700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-3500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>18500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-9300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-8100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-11000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-34500</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-7900</v>
-      </c>
-      <c r="U94" s="3">
-        <v>-7400</v>
       </c>
       <c r="V94" s="3">
         <v>-7400</v>
       </c>
       <c r="W94" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="X94" s="3">
         <v>-3300</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-4100</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-6200</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>28200</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-11200</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-11800</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-13900</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7415,64 +7647,65 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-8000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-8400</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-8100</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-7900</v>
-      </c>
-      <c r="G96" s="3">
-        <v>-8400</v>
       </c>
       <c r="H96" s="3">
         <v>-8400</v>
       </c>
       <c r="I96" s="3">
-        <v>-8300</v>
+        <v>-8400</v>
       </c>
       <c r="J96" s="3">
         <v>-8300</v>
       </c>
       <c r="K96" s="3">
+        <v>-8300</v>
+      </c>
+      <c r="L96" s="3">
         <v>-8400</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-8500</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-8200</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-8400</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-8000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-9000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-8200</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-8600</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-8900</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-7900</v>
-      </c>
-      <c r="U96" s="3">
-        <v>-7600</v>
       </c>
       <c r="V96" s="3">
         <v>-7600</v>
@@ -7481,13 +7714,13 @@
         <v>-7600</v>
       </c>
       <c r="X96" s="3">
+        <v>-7600</v>
+      </c>
+      <c r="Y96" s="3">
         <v>-5800</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-5600</v>
-      </c>
-      <c r="Z96" s="3">
-        <v>-5800</v>
       </c>
       <c r="AA96" s="3">
         <v>-5800</v>
@@ -7499,10 +7732,13 @@
         <v>-5800</v>
       </c>
       <c r="AD96" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="AE96" s="3">
         <v>-5900</v>
       </c>
     </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7587,8 +7823,11 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7673,8 +7912,11 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7759,262 +8001,274 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-74500</v>
+      </c>
+      <c r="E100" s="3">
         <v>8700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-295400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>239400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>77100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>86000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-80400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>294800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-40200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-4900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-169400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-179700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-184200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>379300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-144000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>8400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-66500</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>77500</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-207100</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-20700</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-17600</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-159100</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-10600</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-41700</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-21900</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-23800</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-296000</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>237800</v>
       </c>
     </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E101" s="3">
         <v>-300</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-3200</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>500</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-4500</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-1800</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-3700</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-700</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>1200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-1300</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>4700</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>2200</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>100</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>900</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-800</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>600</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>300</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-2000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>400</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-7700</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>600</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>1900</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>1500</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>3400</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>700</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>-4300</v>
       </c>
-      <c r="AD101" s="3">
+      <c r="AE101" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>59500</v>
+      </c>
+      <c r="E102" s="3">
         <v>-14900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-12900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-12100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-21900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-162200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-19000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>17400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>5400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-80600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-50000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>292000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>55400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>8700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>35900</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-62500</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-85000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-126800</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>97800</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-223900</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>138300</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-70100</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>108700</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-65700</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>-161100</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>309200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/WWW_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WWW_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="92">
   <si>
     <t>WWW</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AE102"/>
+  <dimension ref="A5:AF102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,391 +665,404 @@
     <col min="1" max="1" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="14" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="15" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45108</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45017</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44835</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44744</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44653</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44562</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44471</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44380</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44289</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44198</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44009</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43918</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43827</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43736</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43645</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43554</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43463</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43372</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43281</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43190</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43099</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>43008</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42917</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42826</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42735</v>
       </c>
-      <c r="AE7" s="2">
+      <c r="AF7" s="2">
         <v>42623</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>527700</v>
+      </c>
+      <c r="E8" s="3">
         <v>589100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>599400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>665000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>691400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>713600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>614800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>635600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>636700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>631900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>510700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>509600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>493100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>349100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>439300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>607400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>574300</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>568600</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>523400</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>579600</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>558600</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>566900</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>534100</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>578600</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>581300</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>598800</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>591300</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>729600</v>
       </c>
-      <c r="AE8" s="3">
+      <c r="AF8" s="3">
         <v>603700</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>312300</v>
+      </c>
+      <c r="E9" s="3">
         <v>361300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>363100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>440800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>413600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>406500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>353500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>373200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>361900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>361500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>288400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>305000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>291100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>201900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>257500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>377500</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>331000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>338200</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>303200</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>352500</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>326500</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>332700</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>306200</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>355800</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>349400</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>369400</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>352000</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>458300</v>
       </c>
-      <c r="AE9" s="3">
+      <c r="AF9" s="3">
         <v>366100</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>215400</v>
+      </c>
+      <c r="E10" s="3">
         <v>227800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>236300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>224200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>277800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>307100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>261300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>262400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>274800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>270400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>222300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>204600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>202000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>147200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>181800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>229900</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>243300</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>230400</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>220200</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>227100</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>232100</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>234200</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>227900</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>222800</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>231900</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>229400</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>239300</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>271300</v>
       </c>
-      <c r="AE10" s="3">
+      <c r="AF10" s="3">
         <v>237600</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1081,8 +1094,9 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF11" s="3"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1170,8 +1184,11 @@
       <c r="AE12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1259,58 +1276,61 @@
       <c r="AE13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>-17500</v>
+      </c>
+      <c r="E14" s="3">
         <v>15600</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>-20100</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>428700</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>8</v>
+      <c r="H14" s="3">
+        <v>0</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K14" s="3">
         <v>300</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>34000</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3" t="s">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>227500</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
       <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
         <v>200</v>
       </c>
-      <c r="Q14" s="3" t="s">
+      <c r="R14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
-      <c r="S14" s="3" t="s">
-        <v>8</v>
+      <c r="S14" s="3">
+        <v>0</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>8</v>
@@ -1318,12 +1338,12 @@
       <c r="U14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V14" s="3">
+      <c r="V14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W14" s="3">
         <v>600</v>
       </c>
-      <c r="W14" s="3">
-        <v>0</v>
-      </c>
       <c r="X14" s="3">
         <v>0</v>
       </c>
@@ -1331,25 +1351,28 @@
         <v>0</v>
       </c>
       <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="3">
         <v>76600</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>24200</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AC14" s="3">
         <v>25100</v>
       </c>
-      <c r="AC14" s="3">
+      <c r="AD14" s="3">
         <v>24600</v>
       </c>
-      <c r="AD14" s="3">
+      <c r="AE14" s="3">
         <v>50300</v>
       </c>
-      <c r="AE14" s="3">
+      <c r="AF14" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1437,8 +1460,11 @@
       <c r="AE15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1467,186 +1493,193 @@
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
-    </row>
-    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF16" s="3"/>
+    </row>
+    <row r="17" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>500400</v>
+      </c>
+      <c r="E17" s="3">
         <v>543000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>554100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1119700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>632600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>545700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>595200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>644600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>628200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>568100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>452600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>719000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>450500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>341800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>422400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>612600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>506000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>513100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>471000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>526300</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>490200</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>498800</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>472600</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>644100</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>546000</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>569600</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>558700</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>732100</v>
       </c>
-      <c r="AE17" s="3">
+      <c r="AF17" s="3">
         <v>535200</v>
       </c>
     </row>
-    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>27300</v>
+      </c>
+      <c r="E18" s="3">
         <v>46100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>45300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-454700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>58800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>167900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>19600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-9000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>8500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>63800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>58100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-209400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>42600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>7300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>16900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-5200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>68300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>55500</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>52400</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>53300</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>68400</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>68100</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>61500</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-65500</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>35300</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>29200</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>32600</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>-2500</v>
       </c>
-      <c r="AE18" s="3">
+      <c r="AF18" s="3">
         <v>68500</v>
       </c>
     </row>
-    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1678,186 +1711,193 @@
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
-    </row>
-    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF19" s="3"/>
+    </row>
+    <row r="20" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-17900</v>
+      </c>
+      <c r="E20" s="3">
         <v>-15700</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-17000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-11000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-15200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-10700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-7600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-9700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-9200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-9800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-12400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-13300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-12200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-8800</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-7200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-6500</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-7300</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-5700</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-5600</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-12400</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-4500</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-400</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-6600</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-15400</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-8200</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>-7200</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>-11400</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>-5400</v>
       </c>
-      <c r="AE20" s="3">
+      <c r="AF20" s="3">
         <v>-8600</v>
       </c>
     </row>
-    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>18600</v>
+      </c>
+      <c r="E21" s="3">
         <v>39000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>36800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-456300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>52000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>165500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>20500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-8600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>8000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>61200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>52900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-213700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>38800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>6100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>17500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-2300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>69300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>57600</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>54000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>49800</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>71400</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>75000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>62700</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>-71700</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>36900</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>31000</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>30400</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>5600</v>
       </c>
-      <c r="AE21" s="3">
+      <c r="AF21" s="3">
         <v>69600</v>
       </c>
     </row>
-    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1945,186 +1985,195 @@
       <c r="AE22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>9400</v>
+      </c>
+      <c r="E23" s="3">
         <v>30400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>28300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-465700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>43600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>157200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>12000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-18700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>54000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>45700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-222700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>30400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>9700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-11700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>61000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>49800</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>46800</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>40900</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>63900</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>67700</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>54900</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-80900</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>27100</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>22000</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>21200</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>-7900</v>
       </c>
-      <c r="AE23" s="3">
+      <c r="AF23" s="3">
         <v>59900</v>
       </c>
     </row>
-    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>400</v>
+      </c>
+      <c r="E24" s="3">
         <v>6000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>10300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-104900</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>4800</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>32700</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>3600</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-3700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>9600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>7300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-51500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>8700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>400</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-3100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-11200</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>12400</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>9600</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>6200</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>1600</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>5000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>12200</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>8300</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>-25700</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>4300</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>1500</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>4400</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>-5500</v>
       </c>
-      <c r="AE24" s="3">
+      <c r="AF24" s="3">
         <v>11700</v>
       </c>
     </row>
-    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2212,186 +2261,195 @@
       <c r="AE25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>9000</v>
+      </c>
+      <c r="E26" s="3">
         <v>24400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>18000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-360800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>38800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>124500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>8400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-15000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>44400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>38400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-171200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>21700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-1900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>12800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>48600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>40200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>40600</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>39300</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>58900</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>55500</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>46600</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-55200</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>22800</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>20500</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>16800</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>-2400</v>
       </c>
-      <c r="AE26" s="3">
+      <c r="AF26" s="3">
         <v>48200</v>
       </c>
     </row>
-    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>8400</v>
+      </c>
+      <c r="E27" s="3">
         <v>23500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>18600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-358800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>38200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>122100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>9500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-14300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>44000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>37800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-170700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>21800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>12800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>47700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>39400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>39700</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>42700</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>57600</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>54100</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>45800</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-53400</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>22700</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>20200</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>16300</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>-2100</v>
       </c>
-      <c r="AE27" s="3">
+      <c r="AF27" s="3">
         <v>47200</v>
       </c>
     </row>
-    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2479,8 +2537,11 @@
       <c r="AE28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2520,8 +2581,8 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-      <c r="P29" s="3" t="s">
-        <v>8</v>
+      <c r="P29" s="3">
+        <v>0</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>8</v>
@@ -2538,11 +2599,11 @@
       <c r="U29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V29" s="3">
+      <c r="V29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W29" s="3">
         <v>100</v>
-      </c>
-      <c r="W29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="X29" s="3" t="s">
         <v>8</v>
@@ -2550,11 +2611,11 @@
       <c r="Y29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Z29" s="3">
+      <c r="Z29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA29" s="3">
         <v>-5600</v>
-      </c>
-      <c r="AA29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="AB29" s="3" t="s">
         <v>8</v>
@@ -2568,8 +2629,11 @@
       <c r="AE29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2657,8 +2721,11 @@
       <c r="AE30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2746,186 +2813,195 @@
       <c r="AE31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>17900</v>
+      </c>
+      <c r="E32" s="3">
         <v>15700</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>17000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>11000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>15200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>10700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>7600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>9700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>9200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>9800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>12400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>13300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>12200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>8800</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>7200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>6500</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>7300</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>5700</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>5600</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>12400</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>4500</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>400</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>6600</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>15400</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>8200</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>7200</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>11400</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>5400</v>
       </c>
-      <c r="AE32" s="3">
+      <c r="AF32" s="3">
         <v>8600</v>
       </c>
     </row>
-    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>8400</v>
+      </c>
+      <c r="E33" s="3">
         <v>23500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>18600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-358800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>38200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>122100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>9500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-14300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>44000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>37800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-170700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>21800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>12800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>47700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>39400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>39700</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>42800</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>57600</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>54100</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>45800</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-59000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>22700</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>20200</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>16300</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>-2100</v>
       </c>
-      <c r="AE33" s="3">
+      <c r="AF33" s="3">
         <v>47200</v>
       </c>
     </row>
-    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -3013,191 +3089,200 @@
       <c r="AE34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>8400</v>
+      </c>
+      <c r="E35" s="3">
         <v>23500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>18600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-358800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>38200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>122100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>9500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-14300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>44000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>37800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-170700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>21800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>12800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>47700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>39400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>39700</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>42800</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>57600</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>54100</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>45800</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-59000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>22700</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>20200</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>16300</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>-2100</v>
       </c>
-      <c r="AE35" s="3">
+      <c r="AF35" s="3">
         <v>47200</v>
       </c>
     </row>
-    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45108</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45017</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44835</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44744</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44653</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44562</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44471</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44380</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44289</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44198</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44009</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43918</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43827</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43736</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43645</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43554</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43463</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43372</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43281</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43190</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43099</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>43008</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42917</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42826</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42735</v>
       </c>
-      <c r="AE38" s="2">
+      <c r="AF38" s="2">
         <v>42623</v>
       </c>
     </row>
-    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3229,8 +3314,9 @@
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
-    </row>
-    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF39" s="3"/>
+    </row>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3262,97 +3348,101 @@
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
-    </row>
-    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF40" s="3"/>
+    </row>
+    <row r="41" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>160400</v>
+      </c>
+      <c r="E41" s="3">
         <v>176500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>116200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>131500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>136400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>149300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>149600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>161700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>183600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>345800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>364800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>347400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>342000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>422600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>472600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>180600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>125200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>116500</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>80600</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>143100</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>228100</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>354900</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>257100</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>481000</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>342700</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>412800</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>304100</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>369800</v>
       </c>
-      <c r="AE41" s="3">
+      <c r="AF41" s="3">
         <v>530900</v>
       </c>
     </row>
-    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3440,372 +3530,387 @@
       <c r="AE42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>272000</v>
+      </c>
+      <c r="E43" s="3">
         <v>241500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>251200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>241700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>440000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>420000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>370600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>319600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>362600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>372000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>323600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>268300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>332100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>263800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>323400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>331200</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>357300</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>363700</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>375500</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>361200</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>364000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>297200</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>295300</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>271300</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>294500</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>287100</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>287700</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>263300</v>
       </c>
-      <c r="AE43" s="3">
+      <c r="AF43" s="3">
         <v>309500</v>
       </c>
     </row>
-    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>563800</v>
+      </c>
+      <c r="E44" s="3">
         <v>647900</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>725900</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>745200</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>880900</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>639500</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>483300</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>365500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>412000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>331700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>320900</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>243100</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>325700</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>386500</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>405300</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>348200</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>417700</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>406500</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>374000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>317600</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>324400</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>293800</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>290500</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>276700</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>338800</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>333700</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>356500</v>
       </c>
-      <c r="AD44" s="3">
+      <c r="AE44" s="3">
         <v>348700</v>
       </c>
-      <c r="AE44" s="3">
+      <c r="AF44" s="3">
         <v>457600</v>
       </c>
     </row>
-    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>101000</v>
+      </c>
+      <c r="E45" s="3">
         <v>98000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>109300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>146900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>94500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>84500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>74400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>56900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>44400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>36900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>37900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>45400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>42200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>45700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>50400</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>107100</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>48400</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>42600</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>45400</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>45800</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>32200</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>36300</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>37500</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>45300</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>44000</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>58900</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>39500</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AE45" s="3">
         <v>49600</v>
       </c>
-      <c r="AE45" s="3">
+      <c r="AF45" s="3">
         <v>42600</v>
       </c>
     </row>
-    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1097200</v>
+      </c>
+      <c r="E46" s="3">
         <v>1163900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1202600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1265300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1551800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1293300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1077900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>903700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1002600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1086400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1047200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>904200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1042000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1118600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1251700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>967100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>948600</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>929300</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>875500</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>867700</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>948700</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>982200</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>880400</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>1074300</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>1020000</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>1092500</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>987800</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>1031400</v>
       </c>
-      <c r="AE46" s="3">
+      <c r="AF46" s="3">
         <v>1340600</v>
       </c>
     </row>
-    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>7900</v>
+      </c>
+      <c r="E47" s="3">
         <v>7500</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="F47" s="3" t="s">
         <v>8</v>
@@ -3822,8 +3927,8 @@
       <c r="J47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K47" s="3">
-        <v>0</v>
+      <c r="K47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L47" s="3">
         <v>0</v>
@@ -3885,186 +3990,195 @@
       <c r="AE47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>275200</v>
+      </c>
+      <c r="E48" s="3">
         <v>289700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>312700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>310900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>291000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>294200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>266100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>267200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>262000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>254800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>257500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>267100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>274600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>287300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>296600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>301800</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>306900</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>296000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>290200</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>130900</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>131400</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>130400</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>133700</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>136700</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>142200</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>150100</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>145100</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>146100</v>
       </c>
-      <c r="AE48" s="3">
+      <c r="AF48" s="3">
         <v>148800</v>
       </c>
     </row>
-    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>759800</v>
+      </c>
+      <c r="E49" s="3">
         <v>808000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>803400</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>826400</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1252800</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>1289900</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>1332400</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>1349300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1350600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>896500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>896200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>897700</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1116300</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1115200</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1115400</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>1121200</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>1121100</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>1125000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>1101100</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>1100800</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>1105100</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>1105700</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>1109400</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>1111300</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>1181500</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>1186400</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>1185000</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AE49" s="3">
         <v>1186600</v>
       </c>
-      <c r="AE49" s="3">
+      <c r="AF49" s="3">
         <v>1202300</v>
       </c>
     </row>
-    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4152,8 +4266,11 @@
       <c r="AE50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4241,97 +4358,103 @@
       <c r="AE51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>91200</v>
+      </c>
+      <c r="E52" s="3">
         <v>88200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>98000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>90100</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>75000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>71600</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>69600</v>
-      </c>
-      <c r="J52" s="3">
-        <v>66200</v>
       </c>
       <c r="K52" s="3">
         <v>66200</v>
       </c>
       <c r="L52" s="3">
+        <v>66200</v>
+      </c>
+      <c r="M52" s="3">
         <v>65900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>66400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>68400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>68200</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>68300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>90000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>89900</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>91900</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>92600</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>84500</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>83700</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>83900</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>82000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>80500</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>76700</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>75000</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>71000</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>69900</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AE52" s="3">
         <v>67600</v>
       </c>
-      <c r="AE52" s="3">
+      <c r="AF52" s="3">
         <v>67300</v>
       </c>
     </row>
-    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4419,97 +4542,103 @@
       <c r="AE53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2231300</v>
+      </c>
+      <c r="E54" s="3">
         <v>2357300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2416700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2492700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>3170600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2949000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>2746000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>2586400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2681400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2303600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2267300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2137400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2501100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>2589400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>2753700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>2480000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>2468500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>2442900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>2351300</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>2183100</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>2269100</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>2300300</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>2204000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>2399000</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>2418700</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>2500000</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>2387800</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>2431700</v>
       </c>
-      <c r="AE54" s="3">
+      <c r="AF54" s="3">
         <v>2759000</v>
       </c>
     </row>
-    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4541,8 +4670,9 @@
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
       <c r="AE55" s="3"/>
-    </row>
-    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF55" s="3"/>
+    </row>
+    <row r="56" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4574,126 +4704,130 @@
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
       <c r="AE56" s="3"/>
-    </row>
-    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF56" s="3"/>
+    </row>
+    <row r="57" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>197200</v>
+      </c>
+      <c r="E57" s="3">
         <v>252200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>226900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>272200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>317900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>318100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>293800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>222100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>265100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>279200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>279300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>185000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>191800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>154900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>137600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>202100</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>155600</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>212700</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>112600</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>202300</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>139500</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>174300</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>97200</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>162300</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>141700</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>207600</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>113800</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>150800</v>
       </c>
-      <c r="AE57" s="3">
+      <c r="AF57" s="3">
         <v>168000</v>
       </c>
     </row>
-    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>380000</v>
+      </c>
+      <c r="E58" s="3">
         <v>395000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>460000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>435000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>750000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>500000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>365000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>235000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>320000</v>
-      </c>
-      <c r="L58" s="3">
-        <v>10000</v>
       </c>
       <c r="M58" s="3">
         <v>10000</v>
@@ -4702,414 +4836,429 @@
         <v>10000</v>
       </c>
       <c r="O58" s="3">
+        <v>10000</v>
+      </c>
+      <c r="P58" s="3">
         <v>162500</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>308500</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>802500</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>372500</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>503300</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>378000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>336000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>132500</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>61500</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>46300</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>42000</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>38000</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>52500</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>46600</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>43600</v>
       </c>
-      <c r="AD58" s="3">
+      <c r="AE58" s="3">
         <v>40400</v>
       </c>
-      <c r="AE58" s="3">
+      <c r="AF58" s="3">
         <v>394700</v>
       </c>
     </row>
-    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>274500</v>
+      </c>
+      <c r="E59" s="3">
         <v>317000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>349000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>403100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>263400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>276600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>308600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>302500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>267000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>233700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>208500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>211000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>205700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>213000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>179600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>212800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>175000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>154200</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>143500</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>138300</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>156600</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>150400</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>137500</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>162000</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>136300</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>135100</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>122700</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>142500</v>
       </c>
-      <c r="AE59" s="3">
+      <c r="AF59" s="3">
         <v>162100</v>
       </c>
     </row>
-    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>851700</v>
+      </c>
+      <c r="E60" s="3">
         <v>964200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1035900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1110300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1331300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1094700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>967400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>759600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>852100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>522900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>497800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>406000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>560000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>676400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1119700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>787400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>833900</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>744900</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>592100</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>473100</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>357600</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>371000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>276700</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>362300</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>330500</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>389300</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>280100</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>333700</v>
       </c>
-      <c r="AE60" s="3">
+      <c r="AF60" s="3">
         <v>724800</v>
       </c>
     </row>
-    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>716300</v>
+      </c>
+      <c r="E61" s="3">
         <v>718500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>720800</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>723000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>725200</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>727400</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>729600</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>731800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>704400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>708400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>710400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>712500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>714100</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>715900</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>423600</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>425900</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>430700</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>433000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>435300</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>438000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>601000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>615600</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>630300</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>744600</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>744200</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>758700</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>769500</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AE61" s="3">
         <v>780300</v>
       </c>
-      <c r="AE61" s="3">
+      <c r="AF61" s="3">
         <v>657700</v>
       </c>
     </row>
-    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>300600</v>
+      </c>
+      <c r="E62" s="3">
         <v>307700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>315500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>320400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>439900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>465100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>433700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>450600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>483000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>423200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>434000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>445900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>461500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>461200</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>474500</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>488300</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>410000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>409800</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>406600</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>280400</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>248200</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>298400</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>339700</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>336900</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>333900</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>343500</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>342700</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>343600</v>
       </c>
-      <c r="AE62" s="3">
+      <c r="AF62" s="3">
         <v>335800</v>
       </c>
     </row>
-    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5197,8 +5346,11 @@
       <c r="AE63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5286,8 +5438,11 @@
       <c r="AE64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5375,97 +5530,103 @@
       <c r="AE65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1888900</v>
+      </c>
+      <c r="E66" s="3">
         <v>2010500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2090100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2172100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2513700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2305100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2149300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1956800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2054700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1670400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1658200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1576000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1747000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1865400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>2028100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1713300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1685600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1599200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1439900</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>1197100</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>1212800</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>1290700</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>1252500</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>1449400</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>1417000</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>1500300</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>1400300</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>1465200</v>
       </c>
-      <c r="AE66" s="3">
+      <c r="AF66" s="3">
         <v>1726800</v>
       </c>
     </row>
-    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5497,8 +5658,9 @@
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
       <c r="AE67" s="3"/>
-    </row>
-    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF67" s="3"/>
+    </row>
+    <row r="68" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5586,8 +5748,11 @@
       <c r="AE68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5675,8 +5840,11 @@
       <c r="AE69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5764,8 +5932,11 @@
       <c r="AE70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5853,97 +6024,103 @@
       <c r="AE71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>934500</v>
+      </c>
+      <c r="E72" s="3">
         <v>933800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>917900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>907200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>1277100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>1246100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>1129600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>1128200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1151200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1159600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1123100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1093300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1272400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1258300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>1268100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>1263300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>1273200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>1232800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>1201200</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>1169700</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>1138300</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>1087100</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>1039400</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>992200</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>1058400</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>1040900</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>1026000</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>1015100</v>
       </c>
-      <c r="AE72" s="3">
+      <c r="AF72" s="3">
         <v>1022800</v>
       </c>
     </row>
-    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -6031,8 +6208,11 @@
       <c r="AE73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -6120,8 +6300,11 @@
       <c r="AE74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6209,97 +6392,103 @@
       <c r="AE75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>342400</v>
+      </c>
+      <c r="E76" s="3">
         <v>346800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>326600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>320600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>656900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>643900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>596700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>629600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>626700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>633200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>609100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>561400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>754100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>724000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>725600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>766700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>782900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>843700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>911400</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>986000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>1056300</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>1009600</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>951500</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>949600</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>1001700</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>999700</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>987500</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>966500</v>
       </c>
-      <c r="AE76" s="3">
+      <c r="AF76" s="3">
         <v>1032200</v>
       </c>
     </row>
-    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6387,191 +6576,200 @@
       <c r="AE77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45108</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45017</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44835</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44744</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44653</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44562</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44471</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44380</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44289</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44198</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44009</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43918</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43827</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43736</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43645</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43554</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43463</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43372</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43281</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43190</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43099</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>43008</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42917</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42826</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42735</v>
       </c>
-      <c r="AE80" s="2">
+      <c r="AF80" s="2">
         <v>42623</v>
       </c>
     </row>
-    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>8400</v>
+      </c>
+      <c r="E81" s="3">
         <v>23500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>18600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-358800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>38200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>122100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>9500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-14300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>44000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>37800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-170700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>21800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>12800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>47700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>39400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>39700</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>42800</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>57600</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>54100</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>45800</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-59000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>22700</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>20200</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>16300</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>-2100</v>
       </c>
-      <c r="AE81" s="3">
+      <c r="AF81" s="3">
         <v>47200</v>
       </c>
     </row>
-    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6603,97 +6801,101 @@
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
       <c r="AE82" s="3"/>
-    </row>
-    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF82" s="3"/>
+    </row>
+    <row r="83" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>9200</v>
+      </c>
+      <c r="E83" s="3">
         <v>8600</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>8500</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>9400</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>8400</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>8300</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>8500</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>10100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>8700</v>
-      </c>
-      <c r="L83" s="3">
-        <v>7200</v>
       </c>
       <c r="M83" s="3">
         <v>7200</v>
       </c>
       <c r="N83" s="3">
+        <v>7200</v>
+      </c>
+      <c r="O83" s="3">
         <v>9000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>8400</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>7600</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>7800</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>9400</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>8300</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>7800</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>7200</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>8900</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>7500</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>7300</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>7800</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>9200</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>9800</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>9000</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>9200</v>
       </c>
-      <c r="AD83" s="3">
+      <c r="AE83" s="3">
         <v>13500</v>
       </c>
-      <c r="AE83" s="3">
+      <c r="AF83" s="3">
         <v>9700</v>
       </c>
     </row>
-    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6781,8 +6983,11 @@
       <c r="AE84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6870,8 +7075,11 @@
       <c r="AE85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6959,8 +7167,11 @@
       <c r="AE86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -7048,8 +7259,11 @@
       <c r="AE87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -7137,97 +7351,103 @@
       <c r="AE88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-38900</v>
+      </c>
+      <c r="E89" s="3">
         <v>143700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-97800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>311300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-242300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-155400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-92500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>69800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-34700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>25400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>26300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>173600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>96500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>115600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-76600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>206600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>12100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>136300</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-132400</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>131500</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-99100</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>126400</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-61300</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>153200</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>-58100</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>138400</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>-30800</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>153100</v>
       </c>
-      <c r="AE89" s="3">
+      <c r="AF89" s="3">
         <v>70400</v>
       </c>
     </row>
-    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7259,97 +7479,101 @@
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
       <c r="AE90" s="3"/>
-    </row>
-    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF90" s="3"/>
+    </row>
+    <row r="91" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-6900</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-7300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-13000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-7400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-8600</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-7500</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-7600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-3300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-4500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-2200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-4300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-3000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-3600</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-5700</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-10400</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-10500</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-7800</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-6400</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-7000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-4900</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-3400</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-3700</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-8900</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-8700</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-11100</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>-20900</v>
       </c>
-      <c r="AE91" s="3">
+      <c r="AF91" s="3">
         <v>-6200</v>
       </c>
     </row>
-    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7437,8 +7661,11 @@
       <c r="AE92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7526,97 +7753,103 @@
       <c r="AE93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>49200</v>
+      </c>
+      <c r="E94" s="3">
         <v>-7500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>74500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-13600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-10500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>82500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-3800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-7600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-421600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-5400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-2700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-3500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>18500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-9300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-8100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-11000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-34500</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-7900</v>
-      </c>
-      <c r="V94" s="3">
-        <v>-7400</v>
       </c>
       <c r="W94" s="3">
         <v>-7400</v>
       </c>
       <c r="X94" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="Y94" s="3">
         <v>-3300</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-4100</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-6200</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>28200</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-11200</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-11800</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-13900</v>
       </c>
-      <c r="AE94" s="3">
+      <c r="AF94" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7648,67 +7881,68 @@
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
       <c r="AE95" s="3"/>
-    </row>
-    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF95" s="3"/>
+    </row>
+    <row r="96" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-8100</v>
+      </c>
+      <c r="E96" s="3">
         <v>-8000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-8400</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-8100</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-7900</v>
-      </c>
-      <c r="H96" s="3">
-        <v>-8400</v>
       </c>
       <c r="I96" s="3">
         <v>-8400</v>
       </c>
       <c r="J96" s="3">
-        <v>-8300</v>
+        <v>-8400</v>
       </c>
       <c r="K96" s="3">
         <v>-8300</v>
       </c>
       <c r="L96" s="3">
+        <v>-8300</v>
+      </c>
+      <c r="M96" s="3">
         <v>-8400</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-8500</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-8200</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-8400</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-8000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-9000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-8200</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-8600</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-8900</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-7900</v>
-      </c>
-      <c r="V96" s="3">
-        <v>-7600</v>
       </c>
       <c r="W96" s="3">
         <v>-7600</v>
@@ -7717,13 +7951,13 @@
         <v>-7600</v>
       </c>
       <c r="Y96" s="3">
+        <v>-7600</v>
+      </c>
+      <c r="Z96" s="3">
         <v>-5800</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AA96" s="3">
         <v>-5600</v>
-      </c>
-      <c r="AA96" s="3">
-        <v>-5800</v>
       </c>
       <c r="AB96" s="3">
         <v>-5800</v>
@@ -7735,10 +7969,13 @@
         <v>-5800</v>
       </c>
       <c r="AE96" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="AF96" s="3">
         <v>-5900</v>
       </c>
     </row>
-    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7826,8 +8063,11 @@
       <c r="AE97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7915,8 +8155,11 @@
       <c r="AE98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -8004,271 +8247,283 @@
       <c r="AE99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-25700</v>
+      </c>
+      <c r="E100" s="3">
         <v>-74500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>8700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-295400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>239400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>77100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>86000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-80400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>294800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-40200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-4900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-169400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-179700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-184200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>379300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-144000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>8400</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-66500</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>77500</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-207100</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-20700</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-17600</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-159100</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-10600</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-41700</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-21900</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-23800</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>-296000</v>
       </c>
-      <c r="AE100" s="3">
+      <c r="AF100" s="3">
         <v>237800</v>
       </c>
     </row>
-    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
         <v>-2200</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-300</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-3200</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>500</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-4500</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-1800</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-3700</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-700</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>1200</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-1300</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>4700</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>2200</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>100</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-1400</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>900</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-800</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>600</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>300</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-2000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>400</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-7700</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>600</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>1900</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>1500</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>3400</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>700</v>
       </c>
-      <c r="AD101" s="3">
+      <c r="AE101" s="3">
         <v>-4300</v>
       </c>
-      <c r="AE101" s="3">
+      <c r="AF101" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-15400</v>
+      </c>
+      <c r="E102" s="3">
         <v>59500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-14900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-12900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-12100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-21900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-162200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-19000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>17400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>5400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-80600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-50000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>292000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>55400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>8700</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>35900</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-62500</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-85000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-126800</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>97800</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-223900</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>138300</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-70100</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>108700</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>-65700</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>-161100</v>
       </c>
-      <c r="AE102" s="3">
+      <c r="AF102" s="3">
         <v>309200</v>
       </c>
     </row>
